--- a/BackTest/2019-10-25 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-25 BackTest ORBS.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.8999999999999968</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-42.85714285714285</v>
+      </c>
       <c r="L12" t="n">
         <v>13.03</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.9999999999999964</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-25</v>
+      </c>
       <c r="L13" t="n">
         <v>13.01</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.9999999999999964</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L14" t="n">
         <v>12.99</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.099999999999996</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-25</v>
+      </c>
       <c r="L15" t="n">
         <v>12.97</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.299999999999995</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>25</v>
+      </c>
       <c r="L16" t="n">
         <v>12.97</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.399999999999995</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>12.98</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.399999999999995</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>12.98</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.499999999999995</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>25</v>
+      </c>
       <c r="L19" t="n">
         <v>12.99</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1.499999999999995</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L20" t="n">
         <v>13.01</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.499999999999995</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L21" t="n">
         <v>13.02</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.699999999999994</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L22" t="n">
         <v>13.02</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1.699999999999994</v>
       </c>
       <c r="K23" t="n">
-        <v>-20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L23" t="n">
         <v>13.01</v>
@@ -1466,7 +1488,7 @@
         <v>1.799999999999994</v>
       </c>
       <c r="K24" t="n">
-        <v>-12.5</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L24" t="n">
         <v>13.01</v>
@@ -1564,7 +1586,7 @@
         <v>1.999999999999993</v>
       </c>
       <c r="K26" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>13.02</v>
@@ -1613,7 +1635,7 @@
         <v>1.999999999999993</v>
       </c>
       <c r="K27" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>13.02</v>
@@ -1662,7 +1684,7 @@
         <v>1.999999999999993</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L28" t="n">
         <v>13.02</v>
@@ -1711,7 +1733,7 @@
         <v>1.999999999999993</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L29" t="n">
         <v>13.01</v>
@@ -1760,7 +1782,7 @@
         <v>1.999999999999993</v>
       </c>
       <c r="K30" t="n">
-        <v>7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L30" t="n">
         <v>13</v>
@@ -1809,7 +1831,7 @@
         <v>2.099999999999993</v>
       </c>
       <c r="K31" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>12.98</v>
@@ -1860,7 +1882,7 @@
         <v>2.399999999999991</v>
       </c>
       <c r="K32" t="n">
-        <v>20</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L32" t="n">
         <v>13.01</v>
@@ -1962,7 +1984,7 @@
         <v>2.69999999999999</v>
       </c>
       <c r="K34" t="n">
-        <v>-5.88235294117647</v>
+        <v>-25</v>
       </c>
       <c r="L34" t="n">
         <v>13.01</v>
@@ -2013,7 +2035,7 @@
         <v>2.69999999999999</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L35" t="n">
         <v>12.99</v>
@@ -2064,7 +2086,7 @@
         <v>2.999999999999989</v>
       </c>
       <c r="K36" t="n">
-        <v>5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L36" t="n">
         <v>13.01</v>
@@ -2166,7 +2188,7 @@
         <v>3.299999999999988</v>
       </c>
       <c r="K38" t="n">
-        <v>-5.263157894736842</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L38" t="n">
         <v>13</v>
@@ -2217,7 +2239,7 @@
         <v>3.299999999999988</v>
       </c>
       <c r="K39" t="n">
-        <v>-11.11111111111111</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L39" t="n">
         <v>12.99</v>
@@ -2268,7 +2290,7 @@
         <v>3.299999999999988</v>
       </c>
       <c r="K40" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>12.98</v>
@@ -2319,7 +2341,7 @@
         <v>3.399999999999988</v>
       </c>
       <c r="K41" t="n">
-        <v>-15.78947368421053</v>
+        <v>-40</v>
       </c>
       <c r="L41" t="n">
         <v>12.97</v>
@@ -2370,7 +2392,7 @@
         <v>3.499999999999988</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L42" t="n">
         <v>12.94000000000001</v>
@@ -2421,7 +2443,7 @@
         <v>3.599999999999987</v>
       </c>
       <c r="K43" t="n">
-        <v>-5.263157894736842</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L43" t="n">
         <v>12.92000000000001</v>
@@ -2472,7 +2494,7 @@
         <v>3.699999999999987</v>
       </c>
       <c r="K44" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>12.92000000000001</v>
@@ -2523,7 +2545,7 @@
         <v>3.799999999999986</v>
       </c>
       <c r="K45" t="n">
-        <v>-15.78947368421053</v>
+        <v>-50</v>
       </c>
       <c r="L45" t="n">
         <v>12.91000000000001</v>
@@ -2574,7 +2596,7 @@
         <v>3.799999999999986</v>
       </c>
       <c r="K46" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L46" t="n">
         <v>12.87000000000001</v>
@@ -2625,7 +2647,7 @@
         <v>3.899999999999986</v>
       </c>
       <c r="K47" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>12.86000000000001</v>
@@ -2676,7 +2698,7 @@
         <v>3.999999999999986</v>
       </c>
       <c r="K48" t="n">
-        <v>-10</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L48" t="n">
         <v>12.85000000000001</v>
@@ -2727,7 +2749,7 @@
         <v>3.999999999999986</v>
       </c>
       <c r="K49" t="n">
-        <v>-10</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L49" t="n">
         <v>12.84000000000001</v>
@@ -2778,7 +2800,7 @@
         <v>4.099999999999985</v>
       </c>
       <c r="K50" t="n">
-        <v>-4.761904761904762</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L50" t="n">
         <v>12.84000000000001</v>
@@ -2880,7 +2902,7 @@
         <v>4.199999999999985</v>
       </c>
       <c r="K52" t="n">
-        <v>-22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>12.84000000000001</v>
@@ -2931,7 +2953,7 @@
         <v>4.299999999999986</v>
       </c>
       <c r="K53" t="n">
-        <v>-17.6470588235295</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L53" t="n">
         <v>12.83000000000001</v>
@@ -2982,7 +3004,7 @@
         <v>4.299999999999986</v>
       </c>
       <c r="K54" t="n">
-        <v>-12.5000000000001</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L54" t="n">
         <v>12.81000000000001</v>
@@ -3033,7 +3055,7 @@
         <v>4.299999999999986</v>
       </c>
       <c r="K55" t="n">
-        <v>-12.5000000000001</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L55" t="n">
         <v>12.80000000000001</v>
@@ -3084,7 +3106,7 @@
         <v>4.399999999999986</v>
       </c>
       <c r="K56" t="n">
-        <v>-42.85714285714293</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L56" t="n">
         <v>12.78</v>
@@ -3135,7 +3157,7 @@
         <v>4.399999999999986</v>
       </c>
       <c r="K57" t="n">
-        <v>-33.33333333333343</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L57" t="n">
         <v>12.75000000000001</v>
@@ -3186,7 +3208,7 @@
         <v>4.499999999999986</v>
       </c>
       <c r="K58" t="n">
-        <v>-16.66666666666679</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L58" t="n">
         <v>12.74000000000001</v>
@@ -3237,7 +3259,7 @@
         <v>4.499999999999986</v>
       </c>
       <c r="K59" t="n">
-        <v>-16.66666666666679</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L59" t="n">
         <v>12.73000000000001</v>
@@ -3288,7 +3310,7 @@
         <v>4.599999999999985</v>
       </c>
       <c r="K60" t="n">
-        <v>-23.07692307692318</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L60" t="n">
         <v>12.70000000000001</v>
@@ -3339,7 +3361,7 @@
         <v>4.699999999999985</v>
       </c>
       <c r="K61" t="n">
-        <v>-7.692307692307819</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L61" t="n">
         <v>12.68</v>
@@ -3390,7 +3412,7 @@
         <v>4.899999999999984</v>
       </c>
       <c r="K62" t="n">
-        <v>-28.57142857142867</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L62" t="n">
         <v>12.65</v>
@@ -3441,7 +3463,7 @@
         <v>4.999999999999984</v>
       </c>
       <c r="K63" t="n">
-        <v>-14.28571428571439</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L63" t="n">
         <v>12.64</v>
@@ -3492,7 +3514,7 @@
         <v>5.299999999999985</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L64" t="n">
         <v>12.66</v>
@@ -3543,7 +3565,7 @@
         <v>5.299999999999985</v>
       </c>
       <c r="K65" t="n">
-        <v>6.666666666666651</v>
+        <v>33.33333333333346</v>
       </c>
       <c r="L65" t="n">
         <v>12.68</v>
@@ -3594,7 +3616,7 @@
         <v>5.499999999999986</v>
       </c>
       <c r="K66" t="n">
-        <v>-5.882352941176556</v>
+        <v>9.090909090909062</v>
       </c>
       <c r="L66" t="n">
         <v>12.69</v>
@@ -3645,7 +3667,7 @@
         <v>5.599999999999987</v>
       </c>
       <c r="K67" t="n">
-        <v>-5.882352941176446</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L67" t="n">
         <v>12.71</v>
@@ -3696,7 +3718,7 @@
         <v>5.599999999999987</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L68" t="n">
         <v>12.72000000000001</v>
@@ -3747,7 +3769,7 @@
         <v>5.699999999999989</v>
       </c>
       <c r="K69" t="n">
-        <v>-5.882352941176544</v>
+        <v>9.090909090909033</v>
       </c>
       <c r="L69" t="n">
         <v>12.72000000000001</v>
@@ -3798,7 +3820,7 @@
         <v>5.699999999999989</v>
       </c>
       <c r="K70" t="n">
-        <v>-12.50000000000004</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>12.73000000000001</v>
@@ -3849,7 +3871,7 @@
         <v>5.79999999999999</v>
       </c>
       <c r="K71" t="n">
-        <v>-5.882352941176434</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L71" t="n">
         <v>12.74000000000001</v>
@@ -3900,7 +3922,7 @@
         <v>5.79999999999999</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>24.99999999999994</v>
       </c>
       <c r="L72" t="n">
         <v>12.77000000000001</v>
@@ -3951,7 +3973,7 @@
         <v>5.79999999999999</v>
       </c>
       <c r="K73" t="n">
-        <v>6.666666666666746</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L73" t="n">
         <v>12.79000000000001</v>
@@ -4002,7 +4024,7 @@
         <v>5.89999999999999</v>
       </c>
       <c r="K74" t="n">
-        <v>12.50000000000004</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>12.79000000000001</v>
@@ -4053,7 +4075,7 @@
         <v>5.89999999999999</v>
       </c>
       <c r="K75" t="n">
-        <v>12.50000000000004</v>
+        <v>49.99999999999978</v>
       </c>
       <c r="L75" t="n">
         <v>12.79000000000001</v>
@@ -4104,7 +4126,7 @@
         <v>5.89999999999999</v>
       </c>
       <c r="K76" t="n">
-        <v>20</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L76" t="n">
         <v>12.81000000000001</v>
@@ -4155,7 +4177,7 @@
         <v>5.999999999999989</v>
       </c>
       <c r="K77" t="n">
-        <v>12.50000000000004</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
         <v>12.81000000000001</v>
@@ -4206,7 +4228,7 @@
         <v>6.19999999999999</v>
       </c>
       <c r="K78" t="n">
-        <v>-5.882352941176434</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L78" t="n">
         <v>12.79000000000001</v>
@@ -4257,7 +4279,7 @@
         <v>6.19999999999999</v>
       </c>
       <c r="K79" t="n">
-        <v>-5.882352941176434</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L79" t="n">
         <v>12.78000000000001</v>
@@ -4308,7 +4330,7 @@
         <v>6.29999999999999</v>
       </c>
       <c r="K80" t="n">
-        <v>5.882352941176434</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L80" t="n">
         <v>12.78000000000001</v>
@@ -4359,7 +4381,7 @@
         <v>6.39999999999999</v>
       </c>
       <c r="K81" t="n">
-        <v>-5.882352941176434</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L81" t="n">
         <v>12.76000000000001</v>
@@ -4410,7 +4432,7 @@
         <v>6.39999999999999</v>
       </c>
       <c r="K82" t="n">
-        <v>6.666666666666619</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L82" t="n">
         <v>12.74000000000001</v>
@@ -4461,7 +4483,7 @@
         <v>6.39999999999999</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L83" t="n">
         <v>12.72000000000001</v>
@@ -4512,7 +4534,7 @@
         <v>6.39999999999999</v>
       </c>
       <c r="K84" t="n">
-        <v>-27.27272727272722</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L84" t="n">
         <v>12.69000000000002</v>
@@ -4563,7 +4585,7 @@
         <v>6.499999999999989</v>
       </c>
       <c r="K85" t="n">
-        <v>-33.33333333333324</v>
+        <v>-66.66666666666676</v>
       </c>
       <c r="L85" t="n">
         <v>12.65000000000001</v>
@@ -4614,7 +4636,7 @@
         <v>6.699999999999989</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>-14.2857142857145</v>
       </c>
       <c r="L86" t="n">
         <v>12.63000000000001</v>
@@ -4665,7 +4687,7 @@
         <v>6.699999999999989</v>
       </c>
       <c r="K87" t="n">
-        <v>-9.090909090909207</v>
+        <v>20</v>
       </c>
       <c r="L87" t="n">
         <v>12.62000000000001</v>
@@ -4716,7 +4738,7 @@
         <v>6.699999999999989</v>
       </c>
       <c r="K88" t="n">
-        <v>-9.090909090909207</v>
+        <v>20</v>
       </c>
       <c r="L88" t="n">
         <v>12.63000000000001</v>
@@ -4767,7 +4789,7 @@
         <v>6.799999999999988</v>
       </c>
       <c r="K89" t="n">
-        <v>-9.090909090909062</v>
+        <v>-20</v>
       </c>
       <c r="L89" t="n">
         <v>12.63000000000001</v>
@@ -4818,7 +4840,7 @@
         <v>6.999999999999989</v>
       </c>
       <c r="K90" t="n">
-        <v>7.692307692307796</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L90" t="n">
         <v>12.64000000000001</v>
@@ -4869,7 +4891,7 @@
         <v>7.19999999999999</v>
       </c>
       <c r="K91" t="n">
-        <v>-14.28571428571436</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>12.64000000000001</v>
@@ -4920,7 +4942,7 @@
         <v>7.399999999999991</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>20.00000000000007</v>
       </c>
       <c r="L92" t="n">
         <v>12.66000000000002</v>
@@ -4971,7 +4993,7 @@
         <v>7.599999999999993</v>
       </c>
       <c r="K93" t="n">
-        <v>-11.11111111111116</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>12.66000000000002</v>
@@ -5022,7 +5044,7 @@
         <v>7.599999999999993</v>
       </c>
       <c r="K94" t="n">
-        <v>-17.64705882352942</v>
+        <v>9.090909090909033</v>
       </c>
       <c r="L94" t="n">
         <v>12.66000000000002</v>
@@ -5073,7 +5095,7 @@
         <v>7.799999999999994</v>
       </c>
       <c r="K95" t="n">
-        <v>-5.263157894736812</v>
+        <v>9.090909090909179</v>
       </c>
       <c r="L95" t="n">
         <v>12.69000000000002</v>
@@ -5124,7 +5146,7 @@
         <v>8.099999999999993</v>
       </c>
       <c r="K96" t="n">
-        <v>9.090909090909047</v>
+        <v>28.57142857142851</v>
       </c>
       <c r="L96" t="n">
         <v>12.73000000000002</v>
@@ -5175,7 +5197,7 @@
         <v>8.099999999999993</v>
       </c>
       <c r="K97" t="n">
-        <v>14.28571428571421</v>
+        <v>28.57142857142851</v>
       </c>
       <c r="L97" t="n">
         <v>12.77000000000002</v>
@@ -5226,7 +5248,7 @@
         <v>8.099999999999993</v>
       </c>
       <c r="K98" t="n">
-        <v>26.31578947368418</v>
+        <v>38.46153846153834</v>
       </c>
       <c r="L98" t="n">
         <v>12.81000000000002</v>
@@ -5277,7 +5299,7 @@
         <v>8.399999999999991</v>
       </c>
       <c r="K99" t="n">
-        <v>9.090909090909136</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>12.83000000000002</v>
@@ -5328,7 +5350,7 @@
         <v>8.399999999999991</v>
       </c>
       <c r="K100" t="n">
-        <v>4.761904761904826</v>
+        <v>16.66666666666674</v>
       </c>
       <c r="L100" t="n">
         <v>12.83000000000002</v>
@@ -5379,7 +5401,7 @@
         <v>8.499999999999991</v>
       </c>
       <c r="K101" t="n">
-        <v>14.28571428571431</v>
+        <v>9.090909090909062</v>
       </c>
       <c r="L101" t="n">
         <v>12.86000000000002</v>
@@ -5430,7 +5452,7 @@
         <v>8.599999999999991</v>
       </c>
       <c r="K102" t="n">
-        <v>9.090909090909136</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L102" t="n">
         <v>12.86000000000002</v>
@@ -5481,7 +5503,7 @@
         <v>8.599999999999991</v>
       </c>
       <c r="K103" t="n">
-        <v>9.090909090909136</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L103" t="n">
         <v>12.88000000000002</v>
@@ -5532,7 +5554,7 @@
         <v>8.599999999999991</v>
       </c>
       <c r="K104" t="n">
-        <v>9.090909090909136</v>
+        <v>0</v>
       </c>
       <c r="L104" t="n">
         <v>12.90000000000003</v>
@@ -5583,7 +5605,7 @@
         <v>8.69999999999999</v>
       </c>
       <c r="K105" t="n">
-        <v>18.18181818181819</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L105" t="n">
         <v>12.91000000000003</v>
@@ -5634,7 +5656,7 @@
         <v>8.79999999999999</v>
       </c>
       <c r="K106" t="n">
-        <v>4.761904761904826</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L106" t="n">
         <v>12.88000000000003</v>
@@ -5685,7 +5707,7 @@
         <v>8.899999999999991</v>
       </c>
       <c r="K107" t="n">
-        <v>0</v>
+        <v>-50.00000000000011</v>
       </c>
       <c r="L107" t="n">
         <v>12.84000000000003</v>
@@ -5736,7 +5758,7 @@
         <v>9.099999999999993</v>
       </c>
       <c r="K108" t="n">
-        <v>8.333333333333364</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L108" t="n">
         <v>12.82000000000003</v>
@@ -5787,7 +5809,7 @@
         <v>9.199999999999992</v>
       </c>
       <c r="K109" t="n">
-        <v>8.333333333333364</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
         <v>12.82000000000003</v>
@@ -5838,7 +5860,7 @@
         <v>9.199999999999992</v>
       </c>
       <c r="K110" t="n">
-        <v>0</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L110" t="n">
         <v>12.82000000000003</v>
@@ -5889,7 +5911,7 @@
         <v>9.199999999999992</v>
       </c>
       <c r="K111" t="n">
-        <v>10.00000000000004</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
         <v>12.81000000000003</v>
@@ -5991,7 +6013,7 @@
         <v>9.299999999999992</v>
       </c>
       <c r="K113" t="n">
-        <v>17.64705882352946</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L113" t="n">
         <v>12.82000000000003</v>
@@ -6042,7 +6064,7 @@
         <v>9.299999999999992</v>
       </c>
       <c r="K114" t="n">
-        <v>17.64705882352946</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
         <v>12.83000000000003</v>
@@ -6093,7 +6115,7 @@
         <v>9.399999999999991</v>
       </c>
       <c r="K115" t="n">
-        <v>12.49999999999997</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L115" t="n">
         <v>12.84000000000003</v>
@@ -6144,7 +6166,7 @@
         <v>9.499999999999991</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L116" t="n">
         <v>12.87000000000002</v>
@@ -6195,7 +6217,7 @@
         <v>9.599999999999991</v>
       </c>
       <c r="K117" t="n">
-        <v>6.666666666666651</v>
+        <v>60</v>
       </c>
       <c r="L117" t="n">
         <v>12.92000000000002</v>
@@ -6246,7 +6268,7 @@
         <v>9.79999999999999</v>
       </c>
       <c r="K118" t="n">
-        <v>-5.882352941176458</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L118" t="n">
         <v>12.93000000000002</v>
@@ -6297,7 +6319,7 @@
         <v>9.89999999999999</v>
       </c>
       <c r="K119" t="n">
-        <v>19.99999999999995</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L119" t="n">
         <v>12.96000000000002</v>
@@ -6348,7 +6370,7 @@
         <v>9.89999999999999</v>
       </c>
       <c r="K120" t="n">
-        <v>19.99999999999995</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L120" t="n">
         <v>12.99000000000002</v>
@@ -6399,7 +6421,7 @@
         <v>9.89999999999999</v>
       </c>
       <c r="K121" t="n">
-        <v>14.28571428571425</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L121" t="n">
         <v>13.02000000000002</v>
@@ -6450,7 +6472,7 @@
         <v>9.999999999999989</v>
       </c>
       <c r="K122" t="n">
-        <v>28.5714285714285</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L122" t="n">
         <v>13.06000000000002</v>
@@ -6501,7 +6523,7 @@
         <v>9.999999999999989</v>
       </c>
       <c r="K123" t="n">
-        <v>28.5714285714285</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L123" t="n">
         <v>13.09000000000001</v>
@@ -6552,7 +6574,7 @@
         <v>9.999999999999989</v>
       </c>
       <c r="K124" t="n">
-        <v>28.5714285714285</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L124" t="n">
         <v>13.12000000000001</v>
@@ -6603,7 +6625,7 @@
         <v>9.999999999999989</v>
       </c>
       <c r="K125" t="n">
-        <v>23.07692307692301</v>
+        <v>20</v>
       </c>
       <c r="L125" t="n">
         <v>13.14000000000001</v>
@@ -6654,7 +6676,7 @@
         <v>10.09999999999999</v>
       </c>
       <c r="K126" t="n">
-        <v>38.46153846153844</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L126" t="n">
         <v>13.16000000000001</v>
@@ -6705,7 +6727,7 @@
         <v>10.29999999999999</v>
       </c>
       <c r="K127" t="n">
-        <v>28.57142857142859</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L127" t="n">
         <v>13.15000000000001</v>
@@ -6756,7 +6778,7 @@
         <v>10.39999999999999</v>
       </c>
       <c r="K128" t="n">
-        <v>23.07692307692301</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L128" t="n">
         <v>13.17000000000001</v>
@@ -6807,7 +6829,7 @@
         <v>10.59999999999999</v>
       </c>
       <c r="K129" t="n">
-        <v>42.85714285714282</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L129" t="n">
         <v>13.20000000000001</v>
@@ -6858,7 +6880,7 @@
         <v>10.59999999999999</v>
       </c>
       <c r="K130" t="n">
-        <v>42.85714285714282</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L130" t="n">
         <v>13.23000000000001</v>
@@ -6909,7 +6931,7 @@
         <v>10.59999999999999</v>
       </c>
       <c r="K131" t="n">
-        <v>42.85714285714282</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L131" t="n">
         <v>13.26000000000002</v>
@@ -6960,7 +6982,7 @@
         <v>10.59999999999999</v>
       </c>
       <c r="K132" t="n">
-        <v>42.85714285714282</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L132" t="n">
         <v>13.28000000000002</v>
@@ -7011,7 +7033,7 @@
         <v>10.59999999999999</v>
       </c>
       <c r="K133" t="n">
-        <v>38.46153846153844</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L133" t="n">
         <v>13.30000000000002</v>
@@ -7062,7 +7084,7 @@
         <v>10.89999999999999</v>
       </c>
       <c r="K134" t="n">
-        <v>12.49999999999994</v>
+        <v>-11.11111111111102</v>
       </c>
       <c r="L134" t="n">
         <v>13.29000000000002</v>
@@ -7113,7 +7135,7 @@
         <v>11.19999999999999</v>
       </c>
       <c r="K135" t="n">
-        <v>22.22222222222221</v>
+        <v>9.090909090909033</v>
       </c>
       <c r="L135" t="n">
         <v>13.31000000000002</v>
@@ -7164,7 +7186,7 @@
         <v>11.4</v>
       </c>
       <c r="K136" t="n">
-        <v>5.263157894736812</v>
+        <v>9.090909090909033</v>
       </c>
       <c r="L136" t="n">
         <v>13.30000000000002</v>
@@ -7266,7 +7288,7 @@
         <v>11.5</v>
       </c>
       <c r="K138" t="n">
-        <v>17.64705882352939</v>
+        <v>-11.11111111111102</v>
       </c>
       <c r="L138" t="n">
         <v>13.32000000000002</v>
@@ -7317,7 +7339,7 @@
         <v>11.6</v>
       </c>
       <c r="K139" t="n">
-        <v>5.882352941176421</v>
+        <v>-20</v>
       </c>
       <c r="L139" t="n">
         <v>13.30000000000002</v>

--- a/BackTest/2019-10-25 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-25 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S139"/>
+  <dimension ref="A1:M118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +489,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.1999999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.1999999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.2999999999999989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.2999999999999989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.4999999999999982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -740,18 +666,10 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0.5999999999999979</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5999999999999979</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6999999999999975</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.7999999999999972</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>13.04</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.8999999999999968</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L12" t="n">
-        <v>13.03</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.9999999999999964</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L13" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,22 +876,10 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0.9999999999999964</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L14" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.099999999999996</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L15" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.299999999999995</v>
-      </c>
-      <c r="K16" t="n">
-        <v>25</v>
-      </c>
-      <c r="L16" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.399999999999995</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>12.98</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1196,22 +1016,10 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>1.399999999999995</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>12.98</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.499999999999995</v>
-      </c>
-      <c r="K19" t="n">
-        <v>25</v>
-      </c>
-      <c r="L19" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1.499999999999995</v>
-      </c>
-      <c r="K20" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L20" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.499999999999995</v>
-      </c>
-      <c r="K21" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L21" t="n">
-        <v>13.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>13.03</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.699999999999994</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L22" t="n">
-        <v>13.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>13.025</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.699999999999994</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L23" t="n">
-        <v>13.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1.799999999999994</v>
-      </c>
-      <c r="K24" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L24" t="n">
-        <v>13.01</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>13</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.899999999999993</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>13.03</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>13</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1582,24 +1296,10 @@
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>1.999999999999993</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>13.02</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>12.995</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1631,24 +1331,10 @@
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>1.999999999999993</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>13.02</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>13</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1680,24 +1366,10 @@
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>1.999999999999993</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L28" t="n">
-        <v>13.02</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>13</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1729,24 +1401,10 @@
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>1.999999999999993</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L29" t="n">
-        <v>13.01</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>13</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,24 +1436,10 @@
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>1.999999999999993</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L30" t="n">
-        <v>13</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>13.005</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2.099999999999993</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>12.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>13</v>
-      </c>
-      <c r="N31" t="n">
-        <v>13.01333333333333</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2.399999999999991</v>
-      </c>
-      <c r="K32" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L32" t="n">
-        <v>13.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>13.015</v>
-      </c>
-      <c r="N32" t="n">
-        <v>13.02</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1929,26 +1541,10 @@
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>2.599999999999991</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>13.02</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>13.015</v>
-      </c>
-      <c r="N33" t="n">
-        <v>13.01333333333333</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J34" t="n">
-        <v>2.69999999999999</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L34" t="n">
-        <v>13.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="N34" t="n">
-        <v>13.00333333333333</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J35" t="n">
-        <v>2.69999999999999</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L35" t="n">
-        <v>12.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="N35" t="n">
-        <v>12.99666666666666</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J36" t="n">
-        <v>2.999999999999989</v>
-      </c>
-      <c r="K36" t="n">
-        <v>20</v>
-      </c>
-      <c r="L36" t="n">
-        <v>13.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>13.015</v>
-      </c>
-      <c r="N36" t="n">
-        <v>13</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2133,26 +1681,10 @@
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>3.199999999999989</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>13.01</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>13.015</v>
-      </c>
-      <c r="N37" t="n">
-        <v>13.00333333333333</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1714,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3.299999999999988</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L38" t="n">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="N38" t="n">
-        <v>13</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3.299999999999988</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L39" t="n">
-        <v>12.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>12.99999999999999</v>
-      </c>
-      <c r="N39" t="n">
-        <v>12.99666666666666</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3.299999999999988</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>12.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>12.98999999999999</v>
-      </c>
-      <c r="N40" t="n">
-        <v>12.99666666666666</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.399999999999988</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L41" t="n">
-        <v>12.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>12.97499999999999</v>
-      </c>
-      <c r="N41" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3.499999999999988</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L42" t="n">
-        <v>12.94000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>12.97499999999999</v>
-      </c>
-      <c r="N42" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J43" t="n">
-        <v>3.599999999999987</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L43" t="n">
-        <v>12.92000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>12.96999999999999</v>
-      </c>
-      <c r="N43" t="n">
-        <v>12.98333333333333</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3.699999999999987</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>12.92000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>12.96499999999999</v>
-      </c>
-      <c r="N44" t="n">
-        <v>12.98</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3.799999999999986</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L45" t="n">
-        <v>12.91000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>12.94999999999999</v>
-      </c>
-      <c r="N45" t="n">
-        <v>12.97666666666666</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J46" t="n">
-        <v>3.799999999999986</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L46" t="n">
-        <v>12.87000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>12.93999999999999</v>
-      </c>
-      <c r="N46" t="n">
-        <v>12.96666666666666</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J47" t="n">
-        <v>3.899999999999986</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>12.86000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>12.93499999999999</v>
-      </c>
-      <c r="N47" t="n">
-        <v>12.96333333333333</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2064,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J48" t="n">
-        <v>3.999999999999986</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L48" t="n">
-        <v>12.85000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>12.92499999999999</v>
-      </c>
-      <c r="N48" t="n">
-        <v>12.95666666666666</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2099,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J49" t="n">
-        <v>3.999999999999986</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L49" t="n">
-        <v>12.84000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>12.91499999999999</v>
-      </c>
-      <c r="N49" t="n">
-        <v>12.94666666666666</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2134,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J50" t="n">
-        <v>4.099999999999985</v>
-      </c>
-      <c r="K50" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L50" t="n">
-        <v>12.84000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>12.90999999999999</v>
-      </c>
-      <c r="N50" t="n">
-        <v>12.93999999999999</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2169,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J51" t="n">
-        <v>4.099999999999985</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>12.85000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>12.90999999999999</v>
-      </c>
-      <c r="N51" t="n">
-        <v>12.93333333333333</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2204,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J52" t="n">
-        <v>4.199999999999985</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>12.84000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>12.88999999999999</v>
-      </c>
-      <c r="N52" t="n">
-        <v>12.92999999999999</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2239,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J53" t="n">
-        <v>4.299999999999986</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-33.33333333333353</v>
-      </c>
-      <c r="L53" t="n">
-        <v>12.83000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>12.87499999999999</v>
-      </c>
-      <c r="N53" t="n">
-        <v>12.92333333333333</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2274,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J54" t="n">
-        <v>4.299999999999986</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-20.00000000000028</v>
-      </c>
-      <c r="L54" t="n">
-        <v>12.81000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>12.86499999999999</v>
-      </c>
-      <c r="N54" t="n">
-        <v>12.91333333333333</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2309,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J55" t="n">
-        <v>4.299999999999986</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-20.00000000000028</v>
-      </c>
-      <c r="L55" t="n">
-        <v>12.80000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>12.85499999999999</v>
-      </c>
-      <c r="N55" t="n">
-        <v>12.89999999999999</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2344,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="J56" t="n">
-        <v>4.399999999999986</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-60.00000000000014</v>
-      </c>
-      <c r="L56" t="n">
-        <v>12.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>12.82499999999999</v>
-      </c>
-      <c r="N56" t="n">
-        <v>12.88666666666666</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2379,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="J57" t="n">
-        <v>4.399999999999986</v>
-      </c>
-      <c r="K57" t="n">
-        <v>-50.00000000000022</v>
-      </c>
-      <c r="L57" t="n">
-        <v>12.75000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>12.805</v>
-      </c>
-      <c r="N57" t="n">
-        <v>12.87333333333333</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2414,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J58" t="n">
-        <v>4.499999999999986</v>
-      </c>
-      <c r="K58" t="n">
-        <v>-20.00000000000028</v>
-      </c>
-      <c r="L58" t="n">
-        <v>12.74000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>12.79499999999999</v>
-      </c>
-      <c r="N58" t="n">
-        <v>12.86333333333333</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,31 +2446,19 @@
         <v>12.93833333333333</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>4.499999999999986</v>
+        <v>12.7</v>
       </c>
       <c r="K59" t="n">
-        <v>-50.00000000000022</v>
-      </c>
-      <c r="L59" t="n">
-        <v>12.73000000000001</v>
-      </c>
+        <v>12.7</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>12.78499999999999</v>
-      </c>
-      <c r="N59" t="n">
-        <v>12.85333333333333</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3301,31 +2485,23 @@
         <v>12.92999999999999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>4.599999999999985</v>
+        <v>12.6</v>
       </c>
       <c r="K60" t="n">
-        <v>-60.00000000000014</v>
-      </c>
-      <c r="L60" t="n">
-        <v>12.70000000000001</v>
+        <v>12.7</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>12.76999999999999</v>
-      </c>
-      <c r="N60" t="n">
-        <v>12.83999999999999</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3352,31 +2528,23 @@
         <v>12.92333333333332</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>4.699999999999985</v>
+        <v>12.7</v>
       </c>
       <c r="K61" t="n">
-        <v>-20.00000000000028</v>
-      </c>
-      <c r="L61" t="n">
-        <v>12.68</v>
+        <v>12.7</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>12.765</v>
-      </c>
-      <c r="N61" t="n">
-        <v>12.83333333333333</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3403,31 +2571,19 @@
         <v>12.91499999999999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>4.899999999999984</v>
+        <v>12.5</v>
       </c>
       <c r="K62" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L62" t="n">
-        <v>12.65</v>
-      </c>
+        <v>12.5</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>12.74499999999999</v>
-      </c>
-      <c r="N62" t="n">
-        <v>12.81</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3454,31 +2610,23 @@
         <v>12.90499999999999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>4.999999999999984</v>
+        <v>12.6</v>
       </c>
       <c r="K63" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L63" t="n">
-        <v>12.64</v>
+        <v>12.5</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>12.73499999999999</v>
-      </c>
-      <c r="N63" t="n">
-        <v>12.79666666666666</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3505,31 +2653,23 @@
         <v>12.89999999999999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>5.299999999999985</v>
+        <v>12.8</v>
       </c>
       <c r="K64" t="n">
-        <v>20.00000000000014</v>
-      </c>
-      <c r="L64" t="n">
-        <v>12.66</v>
+        <v>12.5</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>12.73499999999999</v>
-      </c>
-      <c r="N64" t="n">
-        <v>12.79666666666666</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3556,31 +2696,19 @@
         <v>12.89666666666666</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>5.299999999999985</v>
+        <v>12.9</v>
       </c>
       <c r="K65" t="n">
-        <v>33.33333333333346</v>
-      </c>
-      <c r="L65" t="n">
-        <v>12.68</v>
-      </c>
+        <v>12.9</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>12.73999999999999</v>
-      </c>
-      <c r="N65" t="n">
-        <v>12.79666666666666</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3607,31 +2735,23 @@
         <v>12.88999999999999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>5.499999999999986</v>
+        <v>12.7</v>
       </c>
       <c r="K66" t="n">
-        <v>9.090909090909062</v>
-      </c>
-      <c r="L66" t="n">
-        <v>12.69</v>
+        <v>12.9</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>12.73499999999999</v>
-      </c>
-      <c r="N66" t="n">
-        <v>12.78</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +2781,18 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J67" t="n">
-        <v>5.599999999999987</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>9.090909090909207</v>
-      </c>
-      <c r="L67" t="n">
-        <v>12.71</v>
+        <v>12.9</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>12.72999999999999</v>
-      </c>
-      <c r="N67" t="n">
-        <v>12.77333333333333</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3709,31 +2819,23 @@
         <v>12.88499999999999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>5.599999999999987</v>
+        <v>12.8</v>
       </c>
       <c r="K68" t="n">
-        <v>9.090909090909207</v>
-      </c>
-      <c r="L68" t="n">
-        <v>12.72000000000001</v>
+        <v>12.9</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>12.72999999999999</v>
-      </c>
-      <c r="N68" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3760,31 +2862,23 @@
         <v>12.87999999999999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>5.699999999999989</v>
+        <v>12.7</v>
       </c>
       <c r="K69" t="n">
-        <v>9.090909090909033</v>
-      </c>
-      <c r="L69" t="n">
-        <v>12.72000000000001</v>
+        <v>12.9</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>12.72499999999999</v>
-      </c>
-      <c r="N69" t="n">
-        <v>12.76333333333333</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +2908,18 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J70" t="n">
-        <v>5.699999999999989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>12.73000000000001</v>
+        <v>12.9</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>12.71499999999999</v>
-      </c>
-      <c r="N70" t="n">
-        <v>12.75666666666666</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3862,31 +2946,23 @@
         <v>12.87333333333332</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>5.79999999999999</v>
+        <v>12.8</v>
       </c>
       <c r="K71" t="n">
-        <v>33.3333333333332</v>
-      </c>
-      <c r="L71" t="n">
-        <v>12.74000000000001</v>
+        <v>12.9</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>12.70999999999999</v>
-      </c>
-      <c r="N71" t="n">
-        <v>12.75666666666666</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,31 +2989,23 @@
         <v>12.87166666666666</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>5.79999999999999</v>
+        <v>12.8</v>
       </c>
       <c r="K72" t="n">
-        <v>24.99999999999994</v>
-      </c>
-      <c r="L72" t="n">
-        <v>12.77000000000001</v>
+        <v>12.9</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>12.70999999999998</v>
-      </c>
-      <c r="N72" t="n">
-        <v>12.75333333333333</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +3035,18 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J73" t="n">
-        <v>5.79999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>-19.99999999999972</v>
-      </c>
-      <c r="L73" t="n">
-        <v>12.79000000000001</v>
+        <v>12.9</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>12.71499999999999</v>
-      </c>
-      <c r="N73" t="n">
-        <v>12.75333333333333</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +3076,18 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J74" t="n">
-        <v>5.89999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>12.79000000000001</v>
+        <v>12.9</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>12.72499999999999</v>
-      </c>
-      <c r="N74" t="n">
-        <v>12.75333333333333</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3117,18 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J75" t="n">
-        <v>5.89999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>49.99999999999978</v>
-      </c>
-      <c r="L75" t="n">
-        <v>12.79000000000001</v>
+        <v>12.9</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>12.73499999999999</v>
-      </c>
-      <c r="N75" t="n">
-        <v>12.75666666666666</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3158,18 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J76" t="n">
-        <v>5.89999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>33.33333333333294</v>
-      </c>
-      <c r="L76" t="n">
-        <v>12.81000000000001</v>
+        <v>12.9</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>12.74999999999998</v>
-      </c>
-      <c r="N76" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3199,18 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J77" t="n">
-        <v>5.999999999999989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>12.81000000000001</v>
+        <v>12.9</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>12.75999999999998</v>
-      </c>
-      <c r="N77" t="n">
-        <v>12.75666666666666</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3240,18 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="J78" t="n">
-        <v>6.19999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>-19.99999999999986</v>
-      </c>
-      <c r="L78" t="n">
-        <v>12.79000000000001</v>
+        <v>12.9</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>12.75499999999998</v>
-      </c>
-      <c r="N78" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3281,18 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="J79" t="n">
-        <v>6.19999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>-19.99999999999986</v>
-      </c>
-      <c r="L79" t="n">
-        <v>12.78000000000001</v>
+        <v>12.9</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>12.74999999999999</v>
-      </c>
-      <c r="N79" t="n">
-        <v>12.74333333333333</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4321,31 +3319,23 @@
         <v>12.83833333333332</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>6.29999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="K80" t="n">
-        <v>-20.00000000000028</v>
-      </c>
-      <c r="L80" t="n">
-        <v>12.78000000000001</v>
+        <v>12.9</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>12.75499999999998</v>
-      </c>
-      <c r="N80" t="n">
-        <v>12.73666666666667</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4372,31 +3362,23 @@
         <v>12.82999999999999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>6.39999999999999</v>
+        <v>12.6</v>
       </c>
       <c r="K81" t="n">
-        <v>-33.33333333333353</v>
-      </c>
-      <c r="L81" t="n">
-        <v>12.76000000000001</v>
+        <v>12.9</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>12.74999999999999</v>
-      </c>
-      <c r="N81" t="n">
-        <v>12.72666666666667</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4423,31 +3405,23 @@
         <v>12.82499999999999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>-0.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>6.39999999999999</v>
+        <v>12.6</v>
       </c>
       <c r="K82" t="n">
-        <v>-33.33333333333353</v>
-      </c>
-      <c r="L82" t="n">
-        <v>12.74000000000001</v>
+        <v>12.9</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>12.75499999999999</v>
-      </c>
-      <c r="N82" t="n">
-        <v>12.72</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4474,31 +3448,23 @@
         <v>12.81999999999999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>6.39999999999999</v>
+        <v>12.6</v>
       </c>
       <c r="K83" t="n">
-        <v>-60.00000000000014</v>
-      </c>
-      <c r="L83" t="n">
-        <v>12.72000000000001</v>
+        <v>12.9</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>12.75499999999999</v>
-      </c>
-      <c r="N83" t="n">
-        <v>12.71666666666667</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4525,31 +3491,23 @@
         <v>12.81333333333332</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>-0.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>6.39999999999999</v>
+        <v>12.6</v>
       </c>
       <c r="K84" t="n">
-        <v>-60.00000000000014</v>
-      </c>
-      <c r="L84" t="n">
-        <v>12.69000000000002</v>
+        <v>12.9</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>12.73999999999999</v>
-      </c>
-      <c r="N84" t="n">
-        <v>12.71333333333334</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4576,31 +3534,23 @@
         <v>12.80333333333332</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>6.499999999999989</v>
+        <v>12.7</v>
       </c>
       <c r="K85" t="n">
-        <v>-66.66666666666676</v>
-      </c>
-      <c r="L85" t="n">
-        <v>12.65000000000001</v>
+        <v>12.9</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>12.71999999999999</v>
-      </c>
-      <c r="N85" t="n">
-        <v>12.70666666666667</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4627,31 +3577,23 @@
         <v>12.79833333333332</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>6.699999999999989</v>
+        <v>12.7</v>
       </c>
       <c r="K86" t="n">
-        <v>-14.2857142857145</v>
-      </c>
-      <c r="L86" t="n">
-        <v>12.63000000000001</v>
+        <v>12.9</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>12.71999999999999</v>
-      </c>
-      <c r="N86" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4678,31 +3620,23 @@
         <v>12.79333333333332</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>-0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>6.699999999999989</v>
+        <v>12.7</v>
       </c>
       <c r="K87" t="n">
-        <v>20</v>
-      </c>
-      <c r="L87" t="n">
-        <v>12.62000000000001</v>
+        <v>12.9</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>12.71499999999999</v>
-      </c>
-      <c r="N87" t="n">
-        <v>12.71333333333333</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4729,31 +3663,23 @@
         <v>12.78833333333333</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>-0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>6.699999999999989</v>
+        <v>12.7</v>
       </c>
       <c r="K88" t="n">
-        <v>20</v>
-      </c>
-      <c r="L88" t="n">
-        <v>12.63000000000001</v>
+        <v>12.9</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>12.70999999999998</v>
-      </c>
-      <c r="N88" t="n">
-        <v>12.71333333333333</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4780,31 +3706,23 @@
         <v>12.78166666666666</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>-0.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>6.799999999999988</v>
+        <v>12.6</v>
       </c>
       <c r="K89" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L89" t="n">
-        <v>12.63000000000001</v>
+        <v>12.9</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>12.70499999999999</v>
-      </c>
-      <c r="N89" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4831,31 +3749,23 @@
         <v>12.77833333333333</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>6.999999999999989</v>
+        <v>12.8</v>
       </c>
       <c r="K90" t="n">
-        <v>33.33333333333353</v>
-      </c>
-      <c r="L90" t="n">
-        <v>12.64000000000001</v>
+        <v>12.9</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>12.70999999999999</v>
-      </c>
-      <c r="N90" t="n">
-        <v>12.71666666666667</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4882,31 +3792,23 @@
         <v>12.77333333333332</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>7.19999999999999</v>
+        <v>12.6</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
-      </c>
-      <c r="L91" t="n">
-        <v>12.64000000000001</v>
+        <v>12.9</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>12.69999999999999</v>
-      </c>
-      <c r="N91" t="n">
-        <v>12.71333333333334</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4933,31 +3835,23 @@
         <v>12.76666666666666</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>7.399999999999991</v>
+        <v>12.8</v>
       </c>
       <c r="K92" t="n">
-        <v>20.00000000000007</v>
-      </c>
-      <c r="L92" t="n">
-        <v>12.66000000000002</v>
+        <v>12.9</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>12.69999999999999</v>
-      </c>
-      <c r="N92" t="n">
-        <v>12.72333333333334</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4984,31 +3878,23 @@
         <v>12.75999999999999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>-0.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>7.599999999999993</v>
+        <v>12.6</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
-      </c>
-      <c r="L93" t="n">
-        <v>12.66000000000002</v>
+        <v>12.9</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>12.68999999999999</v>
-      </c>
-      <c r="N93" t="n">
-        <v>12.72333333333334</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5035,31 +3921,23 @@
         <v>12.75499999999999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>7.599999999999993</v>
+        <v>12.6</v>
       </c>
       <c r="K94" t="n">
-        <v>9.090909090909033</v>
-      </c>
-      <c r="L94" t="n">
-        <v>12.66000000000002</v>
+        <v>12.9</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>12.67499999999999</v>
-      </c>
-      <c r="N94" t="n">
-        <v>12.71333333333334</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,31 +3964,23 @@
         <v>12.75333333333332</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>7.799999999999994</v>
+        <v>12.8</v>
       </c>
       <c r="K95" t="n">
-        <v>9.090909090909179</v>
-      </c>
-      <c r="L95" t="n">
-        <v>12.69000000000002</v>
+        <v>12.9</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>12.66999999999999</v>
-      </c>
-      <c r="N95" t="n">
-        <v>12.71000000000001</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5137,31 +4007,23 @@
         <v>12.75166666666666</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>8.099999999999993</v>
+        <v>12.8</v>
       </c>
       <c r="K96" t="n">
-        <v>28.57142857142851</v>
-      </c>
-      <c r="L96" t="n">
-        <v>12.73000000000002</v>
+        <v>12.9</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>12.67999999999999</v>
-      </c>
-      <c r="N96" t="n">
-        <v>12.72333333333334</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5188,31 +4050,23 @@
         <v>12.75333333333332</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>8.099999999999993</v>
+        <v>12.9</v>
       </c>
       <c r="K97" t="n">
-        <v>28.57142857142851</v>
-      </c>
-      <c r="L97" t="n">
-        <v>12.77000000000002</v>
+        <v>12.9</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>12.69499999999999</v>
-      </c>
-      <c r="N97" t="n">
-        <v>12.73333333333334</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +4096,18 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J98" t="n">
-        <v>8.099999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>38.46153846153834</v>
-      </c>
-      <c r="L98" t="n">
-        <v>12.81000000000002</v>
+        <v>12.9</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>12.71999999999999</v>
-      </c>
-      <c r="N98" t="n">
-        <v>12.74333333333334</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +4137,18 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J99" t="n">
-        <v>8.399999999999991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>12.83000000000002</v>
+        <v>12.9</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>12.72999999999999</v>
-      </c>
-      <c r="N99" t="n">
-        <v>12.74666666666668</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +4178,18 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J100" t="n">
-        <v>8.399999999999991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>16.66666666666674</v>
-      </c>
-      <c r="L100" t="n">
-        <v>12.83000000000002</v>
+        <v>12.9</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>12.73499999999999</v>
-      </c>
-      <c r="N100" t="n">
-        <v>12.75000000000001</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +4219,18 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J101" t="n">
-        <v>8.499999999999991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>9.090909090909062</v>
-      </c>
-      <c r="L101" t="n">
-        <v>12.86000000000002</v>
+        <v>12.9</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>12.74999999999999</v>
-      </c>
-      <c r="N101" t="n">
-        <v>12.75333333333334</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +4260,18 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J102" t="n">
-        <v>8.599999999999991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>20.00000000000014</v>
-      </c>
-      <c r="L102" t="n">
-        <v>12.86000000000002</v>
+        <v>12.9</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>12.75999999999999</v>
-      </c>
-      <c r="N102" t="n">
-        <v>12.75333333333334</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +4301,18 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J103" t="n">
-        <v>8.599999999999991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>20.00000000000014</v>
-      </c>
-      <c r="L103" t="n">
-        <v>12.88000000000002</v>
+        <v>12.9</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M103" t="n">
-        <v>12.76999999999999</v>
-      </c>
-      <c r="N103" t="n">
-        <v>12.75333333333334</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4342,18 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J104" t="n">
-        <v>8.599999999999991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>0</v>
-      </c>
-      <c r="L104" t="n">
-        <v>12.90000000000003</v>
+        <v>12.9</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M104" t="n">
-        <v>12.77999999999999</v>
-      </c>
-      <c r="N104" t="n">
-        <v>12.75000000000001</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4383,18 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J105" t="n">
-        <v>8.69999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L105" t="n">
-        <v>12.91000000000003</v>
+        <v>12.9</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M105" t="n">
-        <v>12.79999999999999</v>
-      </c>
-      <c r="N105" t="n">
-        <v>12.75000000000001</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4424,18 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J106" t="n">
-        <v>8.79999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L106" t="n">
-        <v>12.88000000000003</v>
+        <v>12.9</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M106" t="n">
-        <v>12.80499999999999</v>
-      </c>
-      <c r="N106" t="n">
-        <v>12.74666666666668</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4465,18 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J107" t="n">
-        <v>8.899999999999991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>-50.00000000000011</v>
-      </c>
-      <c r="L107" t="n">
-        <v>12.84000000000003</v>
+        <v>12.9</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M107" t="n">
-        <v>12.80499999999999</v>
-      </c>
-      <c r="N107" t="n">
-        <v>12.74333333333334</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4506,18 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J108" t="n">
-        <v>9.099999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>14.28571428571421</v>
-      </c>
-      <c r="L108" t="n">
-        <v>12.82000000000003</v>
+        <v>12.9</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M108" t="n">
-        <v>12.81499999999999</v>
-      </c>
-      <c r="N108" t="n">
-        <v>12.75333333333334</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4547,18 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J109" t="n">
-        <v>9.199999999999992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>0</v>
-      </c>
-      <c r="L109" t="n">
-        <v>12.82000000000003</v>
+        <v>12.9</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M109" t="n">
-        <v>12.82499999999999</v>
-      </c>
-      <c r="N109" t="n">
-        <v>12.76000000000001</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4588,18 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J110" t="n">
-        <v>9.199999999999992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>-14.28571428571421</v>
-      </c>
-      <c r="L110" t="n">
-        <v>12.82000000000003</v>
+        <v>12.9</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M110" t="n">
-        <v>12.82499999999999</v>
-      </c>
-      <c r="N110" t="n">
-        <v>12.76333333333334</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4629,18 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J111" t="n">
-        <v>9.199999999999992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>0</v>
-      </c>
-      <c r="L111" t="n">
-        <v>12.81000000000003</v>
+        <v>12.9</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M111" t="n">
-        <v>12.83499999999998</v>
-      </c>
-      <c r="N111" t="n">
-        <v>12.77000000000001</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,28 +4670,18 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J112" t="n">
-        <v>9.199999999999992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>0</v>
-      </c>
-      <c r="L112" t="n">
-        <v>12.81000000000003</v>
+        <v>12.9</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M112" t="n">
-        <v>12.83499999999998</v>
-      </c>
-      <c r="N112" t="n">
-        <v>12.77666666666667</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,28 +4711,18 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J113" t="n">
-        <v>9.299999999999992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>14.28571428571421</v>
-      </c>
-      <c r="L113" t="n">
-        <v>12.82000000000003</v>
+        <v>12.9</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M113" t="n">
-        <v>12.84999999999998</v>
-      </c>
-      <c r="N113" t="n">
-        <v>12.78666666666667</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,28 +4752,18 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J114" t="n">
-        <v>9.299999999999992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>0</v>
-      </c>
-      <c r="L114" t="n">
-        <v>12.83000000000003</v>
+        <v>12.9</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M114" t="n">
-        <v>12.86499999999998</v>
-      </c>
-      <c r="N114" t="n">
-        <v>12.79666666666667</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6111,26 +4795,16 @@
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>9.399999999999991</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>33.33333333333314</v>
-      </c>
-      <c r="L115" t="n">
-        <v>12.84000000000003</v>
+        <v>12.9</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M115" t="n">
-        <v>12.87499999999998</v>
-      </c>
-      <c r="N115" t="n">
-        <v>12.81333333333334</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,28 +4834,18 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J116" t="n">
-        <v>9.499999999999991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>66.66666666666676</v>
-      </c>
-      <c r="L116" t="n">
-        <v>12.87000000000002</v>
+        <v>12.9</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M116" t="n">
-        <v>12.87499999999998</v>
-      </c>
-      <c r="N116" t="n">
-        <v>12.82666666666667</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,28 +4875,18 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J117" t="n">
-        <v>9.599999999999991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>60</v>
-      </c>
-      <c r="L117" t="n">
-        <v>12.92000000000002</v>
+        <v>12.9</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M117" t="n">
-        <v>12.87999999999998</v>
-      </c>
-      <c r="N117" t="n">
-        <v>12.84333333333334</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6264,1097 +4918,16 @@
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>9.79999999999999</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L118" t="n">
-        <v>12.93000000000002</v>
+        <v>12.9</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M118" t="n">
-        <v>12.87499999999998</v>
-      </c>
-      <c r="N118" t="n">
-        <v>12.85333333333334</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="C119" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D119" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="E119" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F119" t="n">
-        <v>41159.8091</v>
-      </c>
-      <c r="G119" t="n">
-        <v>12.78999999999999</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J119" t="n">
-        <v>9.89999999999999</v>
-      </c>
-      <c r="K119" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L119" t="n">
-        <v>12.96000000000002</v>
-      </c>
-      <c r="M119" t="n">
-        <v>12.88999999999998</v>
-      </c>
-      <c r="N119" t="n">
-        <v>12.87000000000001</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="C120" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D120" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="E120" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F120" t="n">
-        <v>98787.57180000001</v>
-      </c>
-      <c r="G120" t="n">
-        <v>12.79833333333332</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J120" t="n">
-        <v>9.89999999999999</v>
-      </c>
-      <c r="K120" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L120" t="n">
-        <v>12.99000000000002</v>
-      </c>
-      <c r="M120" t="n">
-        <v>12.90499999999998</v>
-      </c>
-      <c r="N120" t="n">
-        <v>12.88000000000001</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="C121" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D121" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="E121" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F121" t="n">
-        <v>457083.9844</v>
-      </c>
-      <c r="G121" t="n">
-        <v>12.80499999999999</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J121" t="n">
-        <v>9.89999999999999</v>
-      </c>
-      <c r="K121" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L121" t="n">
-        <v>13.02000000000002</v>
-      </c>
-      <c r="M121" t="n">
-        <v>12.91499999999998</v>
-      </c>
-      <c r="N121" t="n">
-        <v>12.89666666666667</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C122" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D122" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E122" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F122" t="n">
-        <v>63578.1589</v>
-      </c>
-      <c r="G122" t="n">
-        <v>12.81666666666666</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J122" t="n">
-        <v>9.999999999999989</v>
-      </c>
-      <c r="K122" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L122" t="n">
-        <v>13.06000000000002</v>
-      </c>
-      <c r="M122" t="n">
-        <v>12.93499999999998</v>
-      </c>
-      <c r="N122" t="n">
-        <v>12.91000000000001</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C123" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D123" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E123" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F123" t="n">
-        <v>75164.66160000001</v>
-      </c>
-      <c r="G123" t="n">
-        <v>12.82666666666666</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J123" t="n">
-        <v>9.999999999999989</v>
-      </c>
-      <c r="K123" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L123" t="n">
-        <v>13.09000000000001</v>
-      </c>
-      <c r="M123" t="n">
-        <v>12.95499999999998</v>
-      </c>
-      <c r="N123" t="n">
-        <v>12.93000000000001</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C124" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D124" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E124" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F124" t="n">
-        <v>110000</v>
-      </c>
-      <c r="G124" t="n">
-        <v>12.83166666666666</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J124" t="n">
-        <v>9.999999999999989</v>
-      </c>
-      <c r="K124" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L124" t="n">
-        <v>13.12000000000001</v>
-      </c>
-      <c r="M124" t="n">
-        <v>12.97499999999998</v>
-      </c>
-      <c r="N124" t="n">
-        <v>12.95</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C125" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D125" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E125" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F125" t="n">
-        <v>129901.7045</v>
-      </c>
-      <c r="G125" t="n">
-        <v>12.83666666666666</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J125" t="n">
-        <v>9.999999999999989</v>
-      </c>
-      <c r="K125" t="n">
-        <v>20</v>
-      </c>
-      <c r="L125" t="n">
-        <v>13.14000000000001</v>
-      </c>
-      <c r="M125" t="n">
-        <v>12.98999999999998</v>
-      </c>
-      <c r="N125" t="n">
-        <v>12.96333333333334</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C126" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D126" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E126" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F126" t="n">
-        <v>149442.6315</v>
-      </c>
-      <c r="G126" t="n">
-        <v>12.84666666666666</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J126" t="n">
-        <v>10.09999999999999</v>
-      </c>
-      <c r="K126" t="n">
-        <v>20.00000000000028</v>
-      </c>
-      <c r="L126" t="n">
-        <v>13.16000000000001</v>
-      </c>
-      <c r="M126" t="n">
-        <v>13.01499999999998</v>
-      </c>
-      <c r="N126" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="C127" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D127" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="E127" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F127" t="n">
-        <v>85.0733</v>
-      </c>
-      <c r="G127" t="n">
-        <v>12.85166666666666</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J127" t="n">
-        <v>10.29999999999999</v>
-      </c>
-      <c r="K127" t="n">
-        <v>19.99999999999986</v>
-      </c>
-      <c r="L127" t="n">
-        <v>13.15000000000001</v>
-      </c>
-      <c r="M127" t="n">
-        <v>13.03499999999998</v>
-      </c>
-      <c r="N127" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C128" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D128" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E128" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F128" t="n">
-        <v>42733</v>
-      </c>
-      <c r="G128" t="n">
-        <v>12.85833333333333</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J128" t="n">
-        <v>10.39999999999999</v>
-      </c>
-      <c r="K128" t="n">
-        <v>19.99999999999986</v>
-      </c>
-      <c r="L128" t="n">
-        <v>13.17000000000001</v>
-      </c>
-      <c r="M128" t="n">
-        <v>13.04999999999998</v>
-      </c>
-      <c r="N128" t="n">
-        <v>12.97333333333333</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C129" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D129" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E129" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F129" t="n">
-        <v>51536.1227</v>
-      </c>
-      <c r="G129" t="n">
-        <v>12.86999999999999</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J129" t="n">
-        <v>10.59999999999999</v>
-      </c>
-      <c r="K129" t="n">
-        <v>42.85714285714278</v>
-      </c>
-      <c r="L129" t="n">
-        <v>13.20000000000001</v>
-      </c>
-      <c r="M129" t="n">
-        <v>13.07999999999998</v>
-      </c>
-      <c r="N129" t="n">
-        <v>12.99333333333333</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="C130" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D130" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E130" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="F130" t="n">
-        <v>75187.9699</v>
-      </c>
-      <c r="G130" t="n">
-        <v>12.88166666666666</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J130" t="n">
-        <v>10.59999999999999</v>
-      </c>
-      <c r="K130" t="n">
-        <v>42.85714285714278</v>
-      </c>
-      <c r="L130" t="n">
-        <v>13.23000000000001</v>
-      </c>
-      <c r="M130" t="n">
-        <v>13.10999999999998</v>
-      </c>
-      <c r="N130" t="n">
-        <v>13.01333333333333</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="C131" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D131" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E131" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="F131" t="n">
-        <v>137458.5142</v>
-      </c>
-      <c r="G131" t="n">
-        <v>12.89166666666666</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J131" t="n">
-        <v>10.59999999999999</v>
-      </c>
-      <c r="K131" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L131" t="n">
-        <v>13.26000000000002</v>
-      </c>
-      <c r="M131" t="n">
-        <v>13.13999999999998</v>
-      </c>
-      <c r="N131" t="n">
-        <v>13.03</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C132" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D132" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="E132" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F132" t="n">
-        <v>183824.6968</v>
-      </c>
-      <c r="G132" t="n">
-        <v>12.90166666666666</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J132" t="n">
-        <v>10.59999999999999</v>
-      </c>
-      <c r="K132" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L132" t="n">
-        <v>13.28000000000002</v>
-      </c>
-      <c r="M132" t="n">
-        <v>13.16999999999997</v>
-      </c>
-      <c r="N132" t="n">
-        <v>13.05</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="C133" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D133" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E133" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="F133" t="n">
-        <v>5040</v>
-      </c>
-      <c r="G133" t="n">
-        <v>12.91166666666666</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J133" t="n">
-        <v>10.59999999999999</v>
-      </c>
-      <c r="K133" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L133" t="n">
-        <v>13.30000000000002</v>
-      </c>
-      <c r="M133" t="n">
-        <v>13.19499999999997</v>
-      </c>
-      <c r="N133" t="n">
-        <v>13.07</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C134" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D134" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E134" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F134" t="n">
-        <v>78499.88589999999</v>
-      </c>
-      <c r="G134" t="n">
-        <v>12.91499999999999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J134" t="n">
-        <v>10.89999999999999</v>
-      </c>
-      <c r="K134" t="n">
-        <v>-11.11111111111102</v>
-      </c>
-      <c r="L134" t="n">
-        <v>13.29000000000002</v>
-      </c>
-      <c r="M134" t="n">
-        <v>13.20499999999998</v>
-      </c>
-      <c r="N134" t="n">
-        <v>13.08</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="C135" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D135" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E135" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="F135" t="n">
-        <v>100</v>
-      </c>
-      <c r="G135" t="n">
-        <v>12.92333333333332</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J135" t="n">
-        <v>11.19999999999999</v>
-      </c>
-      <c r="K135" t="n">
-        <v>9.090909090909033</v>
-      </c>
-      <c r="L135" t="n">
-        <v>13.31000000000002</v>
-      </c>
-      <c r="M135" t="n">
-        <v>13.22499999999997</v>
-      </c>
-      <c r="N135" t="n">
-        <v>13.09666666666666</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C136" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D136" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E136" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F136" t="n">
-        <v>10</v>
-      </c>
-      <c r="G136" t="n">
-        <v>12.92833333333333</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J136" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K136" t="n">
-        <v>9.090909090909033</v>
-      </c>
-      <c r="L136" t="n">
-        <v>13.30000000000002</v>
-      </c>
-      <c r="M136" t="n">
-        <v>13.22999999999997</v>
-      </c>
-      <c r="N136" t="n">
-        <v>13.11</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C137" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D137" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E137" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F137" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G137" t="n">
-        <v>12.935</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J137" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0</v>
-      </c>
-      <c r="L137" t="n">
-        <v>13.31000000000002</v>
-      </c>
-      <c r="M137" t="n">
-        <v>13.22999999999997</v>
-      </c>
-      <c r="N137" t="n">
-        <v>13.12666666666666</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C138" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D138" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E138" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F138" t="n">
-        <v>729.5018</v>
-      </c>
-      <c r="G138" t="n">
-        <v>12.94666666666666</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J138" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K138" t="n">
-        <v>-11.11111111111102</v>
-      </c>
-      <c r="L138" t="n">
-        <v>13.32000000000002</v>
-      </c>
-      <c r="M138" t="n">
-        <v>13.24499999999997</v>
-      </c>
-      <c r="N138" t="n">
-        <v>13.14</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C139" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D139" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E139" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F139" t="n">
-        <v>10</v>
-      </c>
-      <c r="G139" t="n">
-        <v>12.95666666666666</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J139" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K139" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L139" t="n">
-        <v>13.30000000000002</v>
-      </c>
-      <c r="M139" t="n">
-        <v>13.24999999999997</v>
-      </c>
-      <c r="N139" t="n">
-        <v>13.15333333333333</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-25 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-25 BackTest ORBS.xlsx
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -2446,17 +2446,13 @@
         <v>12.93833333333333</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K59" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
@@ -2485,22 +2481,14 @@
         <v>12.92999999999999</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K60" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2528,22 +2516,14 @@
         <v>12.92333333333332</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K61" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2571,17 +2551,13 @@
         <v>12.91499999999999</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K62" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
@@ -2610,22 +2586,14 @@
         <v>12.90499999999999</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K63" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2653,22 +2621,14 @@
         <v>12.89999999999999</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K64" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2696,17 +2656,13 @@
         <v>12.89666666666666</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="K65" t="n">
-        <v>12.9</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
@@ -2741,16 +2697,12 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K66" t="n">
         <v>12.9</v>
       </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2868,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="K69" t="n">
         <v>12.9</v>
@@ -2952,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="K71" t="n">
         <v>12.9</v>
@@ -2989,14 +2941,12 @@
         <v>12.87166666666666</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
         <v>12.9</v>
       </c>
@@ -3319,14 +3269,12 @@
         <v>12.83833333333332</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
         <v>12.9</v>
       </c>
@@ -3362,14 +3310,12 @@
         <v>12.82999999999999</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
         <v>12.9</v>
       </c>
@@ -3534,14 +3480,12 @@
         <v>12.80333333333332</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
         <v>12.9</v>
       </c>
@@ -3577,14 +3521,12 @@
         <v>12.79833333333332</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
         <v>12.9</v>
       </c>
@@ -3620,14 +3562,12 @@
         <v>12.79333333333332</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
         <v>12.9</v>
       </c>
@@ -3663,14 +3603,12 @@
         <v>12.78833333333333</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
         <v>12.9</v>
       </c>
@@ -3706,14 +3644,12 @@
         <v>12.78166666666666</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
         <v>12.9</v>
       </c>
@@ -3749,14 +3685,12 @@
         <v>12.77833333333333</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
         <v>12.9</v>
       </c>
@@ -3792,14 +3726,12 @@
         <v>12.77333333333332</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
         <v>12.9</v>
       </c>
@@ -3835,14 +3767,12 @@
         <v>12.76666666666666</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
         <v>12.9</v>
       </c>
@@ -3878,14 +3808,12 @@
         <v>12.75999999999999</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
         <v>12.9</v>
       </c>
@@ -3921,14 +3849,12 @@
         <v>12.75499999999999</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
         <v>12.9</v>
       </c>
@@ -3964,14 +3890,12 @@
         <v>12.75333333333332</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
         <v>12.9</v>
       </c>
@@ -4007,14 +3931,12 @@
         <v>12.75166666666666</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
         <v>12.9</v>
       </c>
@@ -4050,14 +3972,12 @@
         <v>12.75333333333332</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>12.9</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
         <v>12.9</v>
       </c>
@@ -4178,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
@@ -4186,11 +4106,11 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>1</v>
+        <v>0.9872480620155039</v>
       </c>
     </row>
     <row r="101">
@@ -4222,14 +4142,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4263,14 +4177,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4304,14 +4212,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4345,14 +4247,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4386,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4427,14 +4317,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4468,14 +4352,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4509,14 +4387,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4550,14 +4422,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4591,14 +4457,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4632,14 +4492,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4673,14 +4527,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4714,14 +4562,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4755,14 +4597,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4796,14 +4632,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4837,14 +4667,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4878,14 +4702,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4919,14 +4737,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-25 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-25 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F2" t="n">
-        <v>69752.07150000001</v>
+        <v>67466.4253</v>
       </c>
       <c r="G2" t="n">
-        <v>12.58499999999999</v>
+        <v>12.57499999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>4490</v>
+        <v>69752.07150000001</v>
       </c>
       <c r="G3" t="n">
-        <v>12.59833333333332</v>
+        <v>12.58499999999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C4" t="n">
         <v>13.2</v>
@@ -512,13 +512,13 @@
         <v>13.2</v>
       </c>
       <c r="E4" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F4" t="n">
-        <v>43821.0969</v>
+        <v>4490</v>
       </c>
       <c r="G4" t="n">
-        <v>12.61166666666666</v>
+        <v>12.59833333333332</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>13.1</v>
       </c>
       <c r="C5" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="D5" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="E5" t="n">
         <v>13.1</v>
       </c>
       <c r="F5" t="n">
-        <v>9495.374900000001</v>
+        <v>43821.0969</v>
       </c>
       <c r="G5" t="n">
-        <v>12.62499999999999</v>
+        <v>12.61166666666666</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>13.1</v>
       </c>
       <c r="F6" t="n">
-        <v>12912.4804</v>
+        <v>9495.374900000001</v>
       </c>
       <c r="G6" t="n">
-        <v>12.63833333333332</v>
+        <v>12.62499999999999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C7" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="D7" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E7" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="F7" t="n">
-        <v>4190</v>
+        <v>12912.4804</v>
       </c>
       <c r="G7" t="n">
-        <v>12.64666666666666</v>
+        <v>12.63833333333332</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D8" t="n">
         <v>13</v>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F8" t="n">
-        <v>11</v>
+        <v>4190</v>
       </c>
       <c r="G8" t="n">
-        <v>12.65833333333333</v>
+        <v>12.64666666666666</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>13</v>
       </c>
       <c r="F9" t="n">
-        <v>45000</v>
+        <v>11</v>
       </c>
       <c r="G9" t="n">
-        <v>12.66833333333333</v>
+        <v>12.65833333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D10" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E10" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F10" t="n">
-        <v>3501.534</v>
+        <v>45000</v>
       </c>
       <c r="G10" t="n">
-        <v>12.67666666666666</v>
+        <v>12.66833333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C11" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D11" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E11" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F11" t="n">
-        <v>36652.7815</v>
+        <v>3501.534</v>
       </c>
       <c r="G11" t="n">
-        <v>12.68666666666666</v>
+        <v>12.67666666666666</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C12" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D12" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E12" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F12" t="n">
-        <v>2363.5355</v>
+        <v>36652.7815</v>
       </c>
       <c r="G12" t="n">
-        <v>12.69499999999999</v>
+        <v>12.68666666666666</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,31 +818,35 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C13" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D13" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F13" t="n">
-        <v>55168.2273</v>
+        <v>2363.5355</v>
       </c>
       <c r="G13" t="n">
-        <v>12.70499999999999</v>
+        <v>12.69499999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>13</v>
+      </c>
+      <c r="K13" t="n">
+        <v>13</v>
+      </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
@@ -865,20 +869,28 @@
         <v>13</v>
       </c>
       <c r="F14" t="n">
-        <v>74942.8033</v>
+        <v>55168.2273</v>
       </c>
       <c r="G14" t="n">
-        <v>12.71499999999999</v>
+        <v>12.70499999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="K14" t="n">
+        <v>13</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -888,22 +900,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D15" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E15" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>1000</v>
+        <v>74942.8033</v>
       </c>
       <c r="G15" t="n">
-        <v>12.72333333333333</v>
+        <v>12.71499999999999</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -912,8 +924,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>13</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -923,22 +941,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C16" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="D16" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="E16" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F16" t="n">
-        <v>62690.4228</v>
+        <v>1000</v>
       </c>
       <c r="G16" t="n">
-        <v>12.73666666666666</v>
+        <v>12.72333333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,28 +979,32 @@
         <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D17" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
       </c>
       <c r="F17" t="n">
-        <v>67952.5481</v>
+        <v>62690.4228</v>
       </c>
       <c r="G17" t="n">
-        <v>12.74833333333333</v>
+        <v>12.73666666666666</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="K17" t="n">
+        <v>12.9</v>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
@@ -1005,20 +1027,28 @@
         <v>13</v>
       </c>
       <c r="F18" t="n">
-        <v>32047.4519</v>
+        <v>67952.5481</v>
       </c>
       <c r="G18" t="n">
-        <v>12.76</v>
+        <v>12.74833333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1028,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C19" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D19" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E19" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F19" t="n">
-        <v>3120</v>
+        <v>32047.4519</v>
       </c>
       <c r="G19" t="n">
-        <v>12.77333333333333</v>
+        <v>12.76</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1052,8 +1082,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1075,10 +1111,10 @@
         <v>13.1</v>
       </c>
       <c r="F20" t="n">
-        <v>3130</v>
+        <v>3120</v>
       </c>
       <c r="G20" t="n">
-        <v>12.785</v>
+        <v>12.77333333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1146,10 @@
         <v>13.1</v>
       </c>
       <c r="F21" t="n">
-        <v>88650.78079999999</v>
+        <v>3130</v>
       </c>
       <c r="G21" t="n">
-        <v>12.79833333333333</v>
+        <v>12.785</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1169,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="C22" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="D22" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="E22" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="F22" t="n">
-        <v>1234.8076</v>
+        <v>88650.78079999999</v>
       </c>
       <c r="G22" t="n">
-        <v>12.80666666666667</v>
+        <v>12.79833333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1216,10 @@
         <v>12.9</v>
       </c>
       <c r="F23" t="n">
-        <v>1373.9548</v>
+        <v>1234.8076</v>
       </c>
       <c r="G23" t="n">
-        <v>12.81666666666667</v>
+        <v>12.80666666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1239,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C24" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D24" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E24" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F24" t="n">
-        <v>35661.1538</v>
+        <v>1373.9548</v>
       </c>
       <c r="G24" t="n">
-        <v>12.83</v>
+        <v>12.81666666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1274,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C25" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D25" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E25" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F25" t="n">
-        <v>68.3969</v>
+        <v>35661.1538</v>
       </c>
       <c r="G25" t="n">
-        <v>12.845</v>
+        <v>12.83</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1309,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C26" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D26" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E26" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F26" t="n">
-        <v>152160.8867</v>
+        <v>68.3969</v>
       </c>
       <c r="G26" t="n">
-        <v>12.85833333333333</v>
+        <v>12.845</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1356,10 @@
         <v>13</v>
       </c>
       <c r="F27" t="n">
-        <v>6730.3427</v>
+        <v>152160.8867</v>
       </c>
       <c r="G27" t="n">
-        <v>12.87166666666666</v>
+        <v>12.85833333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1391,10 @@
         <v>13</v>
       </c>
       <c r="F28" t="n">
-        <v>42016.0896</v>
+        <v>6730.3427</v>
       </c>
       <c r="G28" t="n">
-        <v>12.88166666666666</v>
+        <v>12.87166666666666</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1426,10 @@
         <v>13</v>
       </c>
       <c r="F29" t="n">
-        <v>133757.5769</v>
+        <v>42016.0896</v>
       </c>
       <c r="G29" t="n">
-        <v>12.89333333333333</v>
+        <v>12.88166666666666</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1461,10 @@
         <v>13</v>
       </c>
       <c r="F30" t="n">
-        <v>23510</v>
+        <v>133757.5769</v>
       </c>
       <c r="G30" t="n">
-        <v>12.905</v>
+        <v>12.89333333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1487,19 @@
         <v>13</v>
       </c>
       <c r="C31" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D31" t="n">
         <v>13</v>
       </c>
       <c r="E31" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F31" t="n">
-        <v>105696.4322</v>
+        <v>23510</v>
       </c>
       <c r="G31" t="n">
-        <v>12.91666666666666</v>
+        <v>12.905</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1486,19 +1522,19 @@
         <v>13</v>
       </c>
       <c r="C32" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="D32" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="E32" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F32" t="n">
-        <v>80247.5678</v>
+        <v>105696.4322</v>
       </c>
       <c r="G32" t="n">
-        <v>12.93333333333333</v>
+        <v>12.91666666666666</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,19 +1557,19 @@
         <v>13</v>
       </c>
       <c r="C33" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="D33" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
       </c>
       <c r="F33" t="n">
-        <v>13310</v>
+        <v>80247.5678</v>
       </c>
       <c r="G33" t="n">
-        <v>12.94666666666666</v>
+        <v>12.93333333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1589,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C34" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D34" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E34" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F34" t="n">
-        <v>27790.6117</v>
+        <v>13310</v>
       </c>
       <c r="G34" t="n">
-        <v>12.95666666666667</v>
+        <v>12.94666666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1636,10 @@
         <v>12.9</v>
       </c>
       <c r="F35" t="n">
-        <v>32807.88</v>
+        <v>27790.6117</v>
       </c>
       <c r="G35" t="n">
-        <v>12.96666666666667</v>
+        <v>12.95666666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1659,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="C36" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="D36" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="E36" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="F36" t="n">
-        <v>1800.1515</v>
+        <v>32807.88</v>
       </c>
       <c r="G36" t="n">
-        <v>12.98166666666667</v>
+        <v>12.96666666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1694,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="C37" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="D37" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="E37" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="F37" t="n">
-        <v>462.7485</v>
+        <v>1800.1515</v>
       </c>
       <c r="G37" t="n">
-        <v>12.99166666666667</v>
+        <v>12.98166666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1729,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C38" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D38" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E38" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F38" t="n">
-        <v>41068.0928</v>
+        <v>462.7485</v>
       </c>
       <c r="G38" t="n">
-        <v>13</v>
+        <v>12.99166666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1776,10 @@
         <v>12.9</v>
       </c>
       <c r="F39" t="n">
-        <v>3273.0232</v>
+        <v>41068.0928</v>
       </c>
       <c r="G39" t="n">
-        <v>13.00666666666667</v>
+        <v>13</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1811,10 @@
         <v>12.9</v>
       </c>
       <c r="F40" t="n">
-        <v>78131.41009999999</v>
+        <v>3273.0232</v>
       </c>
       <c r="G40" t="n">
-        <v>13.01166666666666</v>
+        <v>13.00666666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1834,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C41" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D41" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E41" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F41" t="n">
-        <v>188994.1982</v>
+        <v>78131.41009999999</v>
       </c>
       <c r="G41" t="n">
-        <v>13.015</v>
+        <v>13.01166666666666</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1869,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C42" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D42" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E42" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F42" t="n">
-        <v>1208706</v>
+        <v>188994.1982</v>
       </c>
       <c r="G42" t="n">
-        <v>13.01833333333333</v>
+        <v>13.015</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1904,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C43" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D43" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E43" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F43" t="n">
-        <v>41276.12</v>
+        <v>1208706</v>
       </c>
       <c r="G43" t="n">
-        <v>13.01999999999999</v>
+        <v>13.01833333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1939,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C44" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D44" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E44" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>41276.12</v>
       </c>
       <c r="G44" t="n">
-        <v>13.02166666666666</v>
+        <v>13.01999999999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,19 +1974,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C45" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D45" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E45" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F45" t="n">
-        <v>811.0278</v>
+        <v>100</v>
       </c>
       <c r="G45" t="n">
         <v>13.02166666666666</v>
@@ -1985,10 +2021,10 @@
         <v>12.8</v>
       </c>
       <c r="F46" t="n">
-        <v>44909.6763</v>
+        <v>811.0278</v>
       </c>
       <c r="G46" t="n">
-        <v>13.01833333333333</v>
+        <v>13.02166666666666</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2044,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C47" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D47" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E47" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F47" t="n">
-        <v>100</v>
+        <v>44909.6763</v>
       </c>
       <c r="G47" t="n">
-        <v>13.01666666666666</v>
+        <v>13.01833333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2079,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C48" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D48" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E48" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F48" t="n">
-        <v>2792.0636</v>
+        <v>100</v>
       </c>
       <c r="G48" t="n">
-        <v>13.01333333333333</v>
+        <v>13.01666666666666</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2126,10 @@
         <v>12.8</v>
       </c>
       <c r="F49" t="n">
-        <v>65000.41</v>
+        <v>2792.0636</v>
       </c>
       <c r="G49" t="n">
-        <v>13.00666666666666</v>
+        <v>13.01333333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2149,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C50" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D50" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E50" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>65000.41</v>
       </c>
       <c r="G50" t="n">
-        <v>13.00166666666666</v>
+        <v>13.00666666666666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2196,10 @@
         <v>12.9</v>
       </c>
       <c r="F51" t="n">
-        <v>274.031</v>
+        <v>10</v>
       </c>
       <c r="G51" t="n">
-        <v>12.99666666666666</v>
+        <v>13.00166666666666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2186,19 +2222,19 @@
         <v>12.9</v>
       </c>
       <c r="C52" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D52" t="n">
         <v>12.9</v>
       </c>
       <c r="E52" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F52" t="n">
-        <v>223570.5952</v>
+        <v>274.031</v>
       </c>
       <c r="G52" t="n">
-        <v>12.98999999999999</v>
+        <v>12.99666666666666</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2254,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="C53" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="D53" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="E53" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="F53" t="n">
-        <v>20680.0448</v>
+        <v>223570.5952</v>
       </c>
       <c r="G53" t="n">
-        <v>12.98166666666665</v>
+        <v>12.98999999999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2301,10 @@
         <v>12.7</v>
       </c>
       <c r="F54" t="n">
-        <v>80343.5772</v>
+        <v>20680.0448</v>
       </c>
       <c r="G54" t="n">
-        <v>12.97666666666666</v>
+        <v>12.98166666666665</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,10 +2336,10 @@
         <v>12.7</v>
       </c>
       <c r="F55" t="n">
-        <v>160000</v>
+        <v>80343.5772</v>
       </c>
       <c r="G55" t="n">
-        <v>12.97333333333332</v>
+        <v>12.97666666666666</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2359,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="C56" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D56" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E56" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F56" t="n">
-        <v>44808</v>
+        <v>160000</v>
       </c>
       <c r="G56" t="n">
-        <v>12.96666666666666</v>
+        <v>12.97333333333332</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,10 +2406,10 @@
         <v>12.6</v>
       </c>
       <c r="F57" t="n">
-        <v>148076.6546</v>
+        <v>44808</v>
       </c>
       <c r="G57" t="n">
-        <v>12.95499999999999</v>
+        <v>12.96666666666666</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2429,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="C58" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="D58" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="E58" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="F58" t="n">
-        <v>29717.8435</v>
+        <v>148076.6546</v>
       </c>
       <c r="G58" t="n">
-        <v>12.94666666666666</v>
+        <v>12.95499999999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,10 +2476,10 @@
         <v>12.7</v>
       </c>
       <c r="F59" t="n">
-        <v>10980</v>
+        <v>29717.8435</v>
       </c>
       <c r="G59" t="n">
-        <v>12.93833333333333</v>
+        <v>12.94666666666666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2499,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="C60" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D60" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E60" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F60" t="n">
-        <v>150917.381</v>
+        <v>10980</v>
       </c>
       <c r="G60" t="n">
-        <v>12.92999999999999</v>
+        <v>12.93833333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2534,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="C61" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="D61" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="E61" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="F61" t="n">
-        <v>10</v>
+        <v>150917.381</v>
       </c>
       <c r="G61" t="n">
-        <v>12.92333333333332</v>
+        <v>12.92999999999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2569,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="C62" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="D62" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="E62" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="F62" t="n">
-        <v>1863.5706</v>
+        <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>12.91499999999999</v>
+        <v>12.92333333333332</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2604,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C63" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D63" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E63" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F63" t="n">
-        <v>21000</v>
+        <v>1863.5706</v>
       </c>
       <c r="G63" t="n">
-        <v>12.90499999999999</v>
+        <v>12.91499999999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2639,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="C64" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="D64" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="E64" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="F64" t="n">
-        <v>200000</v>
+        <v>21000</v>
       </c>
       <c r="G64" t="n">
-        <v>12.89999999999999</v>
+        <v>12.90499999999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,7 +2674,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C65" t="n">
         <v>12.9</v>
@@ -2647,13 +2683,13 @@
         <v>12.9</v>
       </c>
       <c r="E65" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F65" t="n">
-        <v>12153</v>
+        <v>200000</v>
       </c>
       <c r="G65" t="n">
-        <v>12.89666666666666</v>
+        <v>12.89999999999999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,35 +2709,31 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="C66" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="D66" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="E66" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="F66" t="n">
-        <v>138944.2598</v>
+        <v>12153</v>
       </c>
       <c r="G66" t="n">
-        <v>12.88999999999999</v>
+        <v>12.89666666666666</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="K66" t="n">
-        <v>12.9</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
@@ -2712,22 +2744,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="C67" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="D67" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="E67" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F67" t="n">
-        <v>2631.2653</v>
+        <v>138944.2598</v>
       </c>
       <c r="G67" t="n">
-        <v>12.88833333333332</v>
+        <v>12.88999999999999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2736,14 +2768,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2753,7 +2779,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="C68" t="n">
         <v>12.8</v>
@@ -2762,31 +2788,23 @@
         <v>12.8</v>
       </c>
       <c r="E68" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="F68" t="n">
-        <v>234.375</v>
+        <v>2631.2653</v>
       </c>
       <c r="G68" t="n">
-        <v>12.88499999999999</v>
+        <v>12.88833333333332</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K68" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2796,40 +2814,32 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="C69" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="D69" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="E69" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="F69" t="n">
-        <v>134871.1525</v>
+        <v>234.375</v>
       </c>
       <c r="G69" t="n">
-        <v>12.87999999999999</v>
+        <v>12.88499999999999</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K69" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2851,10 +2861,10 @@
         <v>12.7</v>
       </c>
       <c r="F70" t="n">
-        <v>157214.7358</v>
+        <v>134871.1525</v>
       </c>
       <c r="G70" t="n">
-        <v>12.87666666666666</v>
+        <v>12.87999999999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2863,14 +2873,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2880,40 +2884,32 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="C71" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="D71" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="E71" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="F71" t="n">
-        <v>10294.9218</v>
+        <v>157214.7358</v>
       </c>
       <c r="G71" t="n">
-        <v>12.87333333333332</v>
+        <v>12.87666666666666</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K71" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2935,10 +2931,10 @@
         <v>12.8</v>
       </c>
       <c r="F72" t="n">
-        <v>38000</v>
+        <v>10294.9218</v>
       </c>
       <c r="G72" t="n">
-        <v>12.87166666666666</v>
+        <v>12.87333333333332</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2947,14 +2943,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2976,10 +2966,10 @@
         <v>12.8</v>
       </c>
       <c r="F73" t="n">
-        <v>659.338</v>
+        <v>38000</v>
       </c>
       <c r="G73" t="n">
-        <v>12.86833333333332</v>
+        <v>12.87166666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2988,14 +2978,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3005,22 +2989,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C74" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D74" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E74" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F74" t="n">
-        <v>22000</v>
+        <v>659.338</v>
       </c>
       <c r="G74" t="n">
-        <v>12.86666666666665</v>
+        <v>12.86833333333332</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3029,14 +3013,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3058,7 +3036,7 @@
         <v>12.9</v>
       </c>
       <c r="F75" t="n">
-        <v>330</v>
+        <v>22000</v>
       </c>
       <c r="G75" t="n">
         <v>12.86666666666665</v>
@@ -3070,14 +3048,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3099,10 +3071,10 @@
         <v>12.9</v>
       </c>
       <c r="F76" t="n">
-        <v>41480.2325</v>
+        <v>330</v>
       </c>
       <c r="G76" t="n">
-        <v>12.86333333333332</v>
+        <v>12.86666666666665</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3111,14 +3083,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3128,22 +3094,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C77" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D77" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E77" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F77" t="n">
-        <v>1030</v>
+        <v>41480.2325</v>
       </c>
       <c r="G77" t="n">
-        <v>12.85999999999999</v>
+        <v>12.86333333333332</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3152,14 +3118,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3169,22 +3129,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="C78" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="D78" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="E78" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="F78" t="n">
-        <v>266611.9697</v>
+        <v>1030</v>
       </c>
       <c r="G78" t="n">
-        <v>12.85333333333332</v>
+        <v>12.85999999999999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3193,14 +3153,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3222,10 +3176,10 @@
         <v>12.6</v>
       </c>
       <c r="F79" t="n">
-        <v>77406.746</v>
+        <v>266611.9697</v>
       </c>
       <c r="G79" t="n">
-        <v>12.84499999999999</v>
+        <v>12.85333333333332</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3234,14 +3188,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3251,22 +3199,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="C80" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="D80" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="E80" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="F80" t="n">
-        <v>17413.3858</v>
+        <v>77406.746</v>
       </c>
       <c r="G80" t="n">
-        <v>12.83833333333332</v>
+        <v>12.84499999999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3275,14 +3223,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3292,22 +3234,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="C81" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D81" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E81" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F81" t="n">
-        <v>157512.9023</v>
+        <v>17413.3858</v>
       </c>
       <c r="G81" t="n">
-        <v>12.82999999999999</v>
+        <v>12.83833333333332</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3316,14 +3258,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3345,28 +3281,20 @@
         <v>12.6</v>
       </c>
       <c r="F82" t="n">
-        <v>6100.5121</v>
+        <v>157512.9023</v>
       </c>
       <c r="G82" t="n">
-        <v>12.82499999999999</v>
+        <v>12.82999999999999</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K82" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3388,28 +3316,20 @@
         <v>12.6</v>
       </c>
       <c r="F83" t="n">
-        <v>247.4766</v>
+        <v>6100.5121</v>
       </c>
       <c r="G83" t="n">
-        <v>12.81999999999999</v>
+        <v>12.82499999999999</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K83" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3431,28 +3351,20 @@
         <v>12.6</v>
       </c>
       <c r="F84" t="n">
-        <v>60648.1731</v>
+        <v>247.4766</v>
       </c>
       <c r="G84" t="n">
-        <v>12.81333333333332</v>
+        <v>12.81999999999999</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K84" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3462,22 +3374,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="C85" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D85" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="E85" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F85" t="n">
-        <v>343</v>
+        <v>60648.1731</v>
       </c>
       <c r="G85" t="n">
-        <v>12.80333333333332</v>
+        <v>12.81333333333332</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3486,14 +3398,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3506,19 +3412,19 @@
         <v>12.7</v>
       </c>
       <c r="C86" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="D86" t="n">
         <v>12.7</v>
       </c>
       <c r="E86" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="F86" t="n">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="G86" t="n">
-        <v>12.79833333333332</v>
+        <v>12.80333333333332</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3527,14 +3433,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3556,10 +3456,10 @@
         <v>12.7</v>
       </c>
       <c r="F87" t="n">
-        <v>103</v>
+        <v>333</v>
       </c>
       <c r="G87" t="n">
-        <v>12.79333333333332</v>
+        <v>12.79833333333332</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3568,14 +3468,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3597,10 +3491,10 @@
         <v>12.7</v>
       </c>
       <c r="F88" t="n">
-        <v>29361.0188</v>
+        <v>103</v>
       </c>
       <c r="G88" t="n">
-        <v>12.78833333333333</v>
+        <v>12.79333333333332</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3609,14 +3503,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3626,22 +3514,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="C89" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D89" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E89" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>29361.0188</v>
       </c>
       <c r="G89" t="n">
-        <v>12.78166666666666</v>
+        <v>12.78833333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3650,14 +3538,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3667,22 +3549,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="C90" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="D90" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="E90" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="F90" t="n">
-        <v>17.5781</v>
+        <v>10</v>
       </c>
       <c r="G90" t="n">
-        <v>12.77833333333333</v>
+        <v>12.78166666666666</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3691,14 +3573,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3708,22 +3584,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="C91" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="D91" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="E91" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="F91" t="n">
-        <v>10</v>
+        <v>17.5781</v>
       </c>
       <c r="G91" t="n">
-        <v>12.77333333333332</v>
+        <v>12.77833333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3732,14 +3608,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3749,22 +3619,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="C92" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="D92" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="E92" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="F92" t="n">
-        <v>15718.0468</v>
+        <v>10</v>
       </c>
       <c r="G92" t="n">
-        <v>12.76666666666666</v>
+        <v>12.77333333333332</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3773,14 +3643,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3790,22 +3654,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="C93" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="D93" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="E93" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="F93" t="n">
-        <v>10</v>
+        <v>15718.0468</v>
       </c>
       <c r="G93" t="n">
-        <v>12.75999999999999</v>
+        <v>12.76666666666666</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3814,14 +3678,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3843,10 +3701,10 @@
         <v>12.6</v>
       </c>
       <c r="F94" t="n">
-        <v>42500</v>
+        <v>10</v>
       </c>
       <c r="G94" t="n">
-        <v>12.75499999999999</v>
+        <v>12.75999999999999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3855,14 +3713,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3872,22 +3724,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="C95" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="D95" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="E95" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="F95" t="n">
-        <v>11</v>
+        <v>42500</v>
       </c>
       <c r="G95" t="n">
-        <v>12.75333333333332</v>
+        <v>12.75499999999999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3896,14 +3748,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3916,19 +3762,19 @@
         <v>12.8</v>
       </c>
       <c r="C96" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="D96" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="E96" t="n">
         <v>12.8</v>
       </c>
       <c r="F96" t="n">
-        <v>349065.4574</v>
+        <v>11</v>
       </c>
       <c r="G96" t="n">
-        <v>12.75166666666666</v>
+        <v>12.75333333333332</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3937,14 +3783,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3954,7 +3794,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C97" t="n">
         <v>13.1</v>
@@ -3963,13 +3803,13 @@
         <v>13.1</v>
       </c>
       <c r="E97" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F97" t="n">
-        <v>843275.8297</v>
+        <v>349065.4574</v>
       </c>
       <c r="G97" t="n">
-        <v>12.75333333333332</v>
+        <v>12.75166666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3978,14 +3818,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3995,7 +3829,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="C98" t="n">
         <v>13.1</v>
@@ -4004,13 +3838,13 @@
         <v>13.1</v>
       </c>
       <c r="E98" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="F98" t="n">
-        <v>50240.8115</v>
+        <v>843275.8297</v>
       </c>
       <c r="G98" t="n">
-        <v>12.75666666666666</v>
+        <v>12.75333333333332</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4019,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4036,22 +3864,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C99" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="D99" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E99" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="F99" t="n">
-        <v>19017.6456</v>
+        <v>50240.8115</v>
       </c>
       <c r="G99" t="n">
-        <v>12.75499999999999</v>
+        <v>12.75666666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4060,14 +3888,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4077,22 +3899,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="C100" t="n">
         <v>12.8</v>
       </c>
       <c r="D100" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="E100" t="n">
         <v>12.8</v>
       </c>
       <c r="F100" t="n">
-        <v>52789.1217</v>
+        <v>19017.6456</v>
       </c>
       <c r="G100" t="n">
-        <v>12.75333333333332</v>
+        <v>12.75499999999999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4101,16 +3923,10 @@
         <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>0.9872480620155039</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -4118,28 +3934,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C101" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D101" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E101" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F101" t="n">
-        <v>54000</v>
+        <v>52789.1217</v>
       </c>
       <c r="G101" t="n">
-        <v>12.75499999999999</v>
+        <v>12.75333333333332</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4153,22 +3969,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C102" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D102" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E102" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F102" t="n">
-        <v>10</v>
+        <v>54000</v>
       </c>
       <c r="G102" t="n">
-        <v>12.75333333333332</v>
+        <v>12.75499999999999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4200,7 +4016,7 @@
         <v>12.8</v>
       </c>
       <c r="F103" t="n">
-        <v>119468.3682</v>
+        <v>10</v>
       </c>
       <c r="G103" t="n">
         <v>12.75333333333332</v>
@@ -4235,10 +4051,10 @@
         <v>12.8</v>
       </c>
       <c r="F104" t="n">
-        <v>9447.2006</v>
+        <v>119468.3682</v>
       </c>
       <c r="G104" t="n">
-        <v>12.75166666666666</v>
+        <v>12.75333333333332</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4258,22 +4074,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C105" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D105" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E105" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F105" t="n">
-        <v>11</v>
+        <v>9447.2006</v>
       </c>
       <c r="G105" t="n">
-        <v>12.75333333333332</v>
+        <v>12.75166666666666</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4293,19 +4109,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C106" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D106" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E106" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F106" t="n">
-        <v>155688.1737</v>
+        <v>11</v>
       </c>
       <c r="G106" t="n">
         <v>12.75333333333332</v>
@@ -4328,22 +4144,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="C107" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="D107" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="E107" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="F107" t="n">
-        <v>10</v>
+        <v>155688.1737</v>
       </c>
       <c r="G107" t="n">
-        <v>12.74999999999999</v>
+        <v>12.75333333333332</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4363,22 +4179,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="C108" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="D108" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="E108" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="F108" t="n">
-        <v>155782.1930527132</v>
+        <v>10</v>
       </c>
       <c r="G108" t="n">
-        <v>12.75166666666666</v>
+        <v>12.74999999999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4401,16 +4217,16 @@
         <v>12.8</v>
       </c>
       <c r="C109" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D109" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E109" t="n">
         <v>12.8</v>
       </c>
       <c r="F109" t="n">
-        <v>1162.2265</v>
+        <v>155782.1930527132</v>
       </c>
       <c r="G109" t="n">
         <v>12.75166666666666</v>
@@ -4445,10 +4261,10 @@
         <v>12.8</v>
       </c>
       <c r="F110" t="n">
-        <v>262.1796</v>
+        <v>1162.2265</v>
       </c>
       <c r="G110" t="n">
-        <v>12.74999999999999</v>
+        <v>12.75166666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4480,10 +4296,10 @@
         <v>12.8</v>
       </c>
       <c r="F111" t="n">
-        <v>5345.5078</v>
+        <v>262.1796</v>
       </c>
       <c r="G111" t="n">
-        <v>12.74833333333333</v>
+        <v>12.74999999999999</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4515,7 +4331,7 @@
         <v>12.8</v>
       </c>
       <c r="F112" t="n">
-        <v>148918.4711</v>
+        <v>5345.5078</v>
       </c>
       <c r="G112" t="n">
         <v>12.74833333333333</v>
@@ -4538,22 +4354,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C113" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D113" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E113" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F113" t="n">
-        <v>29667.3643</v>
+        <v>148918.4711</v>
       </c>
       <c r="G113" t="n">
-        <v>12.75166666666666</v>
+        <v>12.74833333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4585,10 +4401,10 @@
         <v>12.9</v>
       </c>
       <c r="F114" t="n">
-        <v>78588.31164728683</v>
+        <v>29667.3643</v>
       </c>
       <c r="G114" t="n">
-        <v>12.75499999999999</v>
+        <v>12.75166666666666</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4608,22 +4424,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C115" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D115" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E115" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F115" t="n">
-        <v>92304.6924</v>
+        <v>78588.31164728683</v>
       </c>
       <c r="G115" t="n">
-        <v>12.75999999999999</v>
+        <v>12.75499999999999</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4643,22 +4459,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C116" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D116" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E116" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F116" t="n">
-        <v>101544.1719</v>
+        <v>92304.6924</v>
       </c>
       <c r="G116" t="n">
-        <v>12.76833333333332</v>
+        <v>12.75999999999999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4678,22 +4494,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="C117" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="D117" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="E117" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="F117" t="n">
-        <v>48488.409</v>
+        <v>101544.1719</v>
       </c>
       <c r="G117" t="n">
-        <v>12.77833333333332</v>
+        <v>12.76833333333332</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4713,22 +4529,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="C118" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="D118" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="E118" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="F118" t="n">
-        <v>10</v>
+        <v>48488.409</v>
       </c>
       <c r="G118" t="n">
-        <v>12.78333333333332</v>
+        <v>12.77833333333332</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4743,6 +4559,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>13</v>
+      </c>
+      <c r="C119" t="n">
+        <v>13</v>
+      </c>
+      <c r="D119" t="n">
+        <v>13</v>
+      </c>
+      <c r="E119" t="n">
+        <v>13</v>
+      </c>
+      <c r="F119" t="n">
+        <v>10</v>
+      </c>
+      <c r="G119" t="n">
+        <v>12.78333333333332</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-25 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-25 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N129"/>
+  <dimension ref="A1:M158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13.1</v>
+        <v>12.2</v>
       </c>
       <c r="C2" t="n">
-        <v>13.1</v>
+        <v>12.2</v>
       </c>
       <c r="D2" t="n">
-        <v>13.1</v>
+        <v>12.2</v>
       </c>
       <c r="E2" t="n">
-        <v>13.1</v>
+        <v>12.2</v>
       </c>
       <c r="F2" t="n">
-        <v>67466.4253</v>
+        <v>184397.2014</v>
       </c>
       <c r="G2" t="n">
-        <v>13.12</v>
+        <v>661023.1382000002</v>
       </c>
       <c r="H2" t="n">
-        <v>12.57499999999999</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>12.2</v>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>12.2</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>12.2</v>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>12.2</v>
       </c>
       <c r="F3" t="n">
-        <v>69752.07150000001</v>
+        <v>59</v>
       </c>
       <c r="G3" t="n">
-        <v>13.12</v>
+        <v>661023.1382000002</v>
       </c>
       <c r="H3" t="n">
-        <v>12.58499999999999</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12.2</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +507,41 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13.2</v>
+        <v>12.3</v>
       </c>
       <c r="C4" t="n">
-        <v>13.2</v>
+        <v>12.3</v>
       </c>
       <c r="D4" t="n">
-        <v>13.2</v>
+        <v>12.3</v>
       </c>
       <c r="E4" t="n">
-        <v>13.2</v>
+        <v>12.3</v>
       </c>
       <c r="F4" t="n">
-        <v>4490</v>
+        <v>53386.6397</v>
       </c>
       <c r="G4" t="n">
-        <v>13.13333333333333</v>
+        <v>714409.7779000001</v>
       </c>
       <c r="H4" t="n">
-        <v>12.59833333333332</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +550,41 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13.1</v>
+        <v>12.3</v>
       </c>
       <c r="C5" t="n">
-        <v>13.2</v>
+        <v>12.3</v>
       </c>
       <c r="D5" t="n">
-        <v>13.2</v>
+        <v>12.3</v>
       </c>
       <c r="E5" t="n">
-        <v>13.1</v>
+        <v>12.3</v>
       </c>
       <c r="F5" t="n">
-        <v>43821.0969</v>
+        <v>16870</v>
       </c>
       <c r="G5" t="n">
-        <v>13.13333333333333</v>
+        <v>714409.7779000001</v>
       </c>
       <c r="H5" t="n">
-        <v>12.61166666666666</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +593,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13.1</v>
+        <v>12.3</v>
       </c>
       <c r="C6" t="n">
-        <v>13.1</v>
+        <v>12.3</v>
       </c>
       <c r="D6" t="n">
-        <v>13.1</v>
+        <v>12.3</v>
       </c>
       <c r="E6" t="n">
-        <v>13.1</v>
+        <v>12.3</v>
       </c>
       <c r="F6" t="n">
-        <v>9495.374900000001</v>
+        <v>63000</v>
       </c>
       <c r="G6" t="n">
-        <v>13.12666666666667</v>
+        <v>714409.7779000001</v>
       </c>
       <c r="H6" t="n">
-        <v>12.62499999999999</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>12.3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>12.3</v>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +632,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.1</v>
+        <v>12.4</v>
       </c>
       <c r="C7" t="n">
-        <v>13.1</v>
+        <v>12.4</v>
       </c>
       <c r="D7" t="n">
-        <v>13.1</v>
+        <v>12.4</v>
       </c>
       <c r="E7" t="n">
-        <v>13.1</v>
+        <v>12.4</v>
       </c>
       <c r="F7" t="n">
-        <v>12912.4804</v>
+        <v>12670</v>
       </c>
       <c r="G7" t="n">
-        <v>13.12</v>
+        <v>727079.7779000001</v>
       </c>
       <c r="H7" t="n">
-        <v>12.63833333333332</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +673,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="C8" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="D8" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="E8" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="F8" t="n">
-        <v>4190</v>
+        <v>2914.9193</v>
       </c>
       <c r="G8" t="n">
-        <v>13.1</v>
+        <v>727079.7779000001</v>
       </c>
       <c r="H8" t="n">
-        <v>12.64666666666666</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +714,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="C9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="D9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="E9" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="F9" t="n">
-        <v>11</v>
+        <v>105972.4801</v>
       </c>
       <c r="G9" t="n">
-        <v>13.08666666666667</v>
+        <v>833052.2580000001</v>
       </c>
       <c r="H9" t="n">
-        <v>12.65833333333333</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +749,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="C10" t="n">
-        <v>13</v>
+        <v>12.6</v>
       </c>
       <c r="D10" t="n">
-        <v>13</v>
+        <v>12.6</v>
       </c>
       <c r="E10" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="F10" t="n">
-        <v>45000</v>
+        <v>224845.6266</v>
       </c>
       <c r="G10" t="n">
-        <v>13.08666666666667</v>
+        <v>1057897.8846</v>
       </c>
       <c r="H10" t="n">
-        <v>12.66833333333333</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +784,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="C11" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="D11" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="E11" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="F11" t="n">
-        <v>3501.534</v>
+        <v>41562.7605</v>
       </c>
       <c r="G11" t="n">
-        <v>13.08666666666667</v>
+        <v>1057897.8846</v>
       </c>
       <c r="H11" t="n">
-        <v>12.67666666666666</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +819,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>12.6</v>
       </c>
       <c r="C12" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="D12" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="E12" t="n">
-        <v>13</v>
+        <v>12.6</v>
       </c>
       <c r="F12" t="n">
-        <v>36652.7815</v>
+        <v>81963.9553</v>
       </c>
       <c r="G12" t="n">
-        <v>13.08666666666667</v>
+        <v>1139861.8399</v>
       </c>
       <c r="H12" t="n">
-        <v>12.68666666666666</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +854,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="C13" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="D13" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="E13" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="F13" t="n">
-        <v>2363.5355</v>
+        <v>189656.3051</v>
       </c>
       <c r="G13" t="n">
-        <v>13.06</v>
+        <v>1139861.8399</v>
       </c>
       <c r="H13" t="n">
-        <v>12.69499999999999</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +889,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="C14" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="F14" t="n">
-        <v>55168.2273</v>
+        <v>6741.2201</v>
       </c>
       <c r="G14" t="n">
-        <v>13.04666666666667</v>
+        <v>1146603.06</v>
       </c>
       <c r="H14" t="n">
-        <v>12.70499999999999</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +924,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="C15" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="D15" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="F15" t="n">
-        <v>74942.8033</v>
+        <v>199010.7049</v>
       </c>
       <c r="G15" t="n">
-        <v>13.03333333333333</v>
+        <v>1146603.06</v>
       </c>
       <c r="H15" t="n">
-        <v>12.71499999999999</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +959,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D16" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E16" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F16" t="n">
-        <v>1000</v>
+        <v>61958.7063</v>
       </c>
       <c r="G16" t="n">
-        <v>13.02</v>
+        <v>1208561.7663</v>
       </c>
       <c r="H16" t="n">
-        <v>12.72333333333333</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1011,33 +997,30 @@
         <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D17" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
       </c>
       <c r="F17" t="n">
-        <v>62690.4228</v>
+        <v>25449.6923</v>
       </c>
       <c r="G17" t="n">
-        <v>13.02</v>
+        <v>1208561.7663</v>
       </c>
       <c r="H17" t="n">
-        <v>12.73666666666666</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1058,24 +1041,21 @@
         <v>13</v>
       </c>
       <c r="F18" t="n">
-        <v>67952.5481</v>
+        <v>13591.6014</v>
       </c>
       <c r="G18" t="n">
-        <v>13.02</v>
+        <v>1208561.7663</v>
       </c>
       <c r="H18" t="n">
-        <v>12.74833333333333</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1064,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C19" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="D19" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="E19" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F19" t="n">
-        <v>32047.4519</v>
+        <v>155943.1523</v>
       </c>
       <c r="G19" t="n">
-        <v>13.00666666666667</v>
+        <v>1364504.9186</v>
       </c>
       <c r="H19" t="n">
-        <v>12.76</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1099,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C20" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="D20" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="E20" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F20" t="n">
-        <v>3120</v>
+        <v>105833.26</v>
       </c>
       <c r="G20" t="n">
-        <v>13</v>
+        <v>1364504.9186</v>
       </c>
       <c r="H20" t="n">
-        <v>12.77333333333333</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1134,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C21" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="D21" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="E21" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F21" t="n">
-        <v>3130</v>
+        <v>30000</v>
       </c>
       <c r="G21" t="n">
-        <v>13</v>
+        <v>1364504.9186</v>
       </c>
       <c r="H21" t="n">
-        <v>12.785</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1169,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C22" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="D22" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="E22" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F22" t="n">
-        <v>88650.78079999999</v>
+        <v>4000</v>
       </c>
       <c r="G22" t="n">
-        <v>13</v>
+        <v>1364504.9186</v>
       </c>
       <c r="H22" t="n">
-        <v>12.79833333333333</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1204,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="C23" t="n">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="D23" t="n">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="E23" t="n">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="F23" t="n">
-        <v>1234.8076</v>
+        <v>155</v>
       </c>
       <c r="G23" t="n">
-        <v>13</v>
+        <v>1364504.9186</v>
       </c>
       <c r="H23" t="n">
-        <v>12.80666666666667</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1239,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="C24" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D24" t="n">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="E24" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F24" t="n">
-        <v>1373.9548</v>
+        <v>775.6825</v>
       </c>
       <c r="G24" t="n">
-        <v>12.99333333333334</v>
+        <v>1363729.2361</v>
       </c>
       <c r="H24" t="n">
-        <v>12.81666666666667</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1274,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C25" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D25" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E25" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F25" t="n">
-        <v>35661.1538</v>
+        <v>450.0789</v>
       </c>
       <c r="G25" t="n">
-        <v>12.99333333333334</v>
+        <v>1363279.1572</v>
       </c>
       <c r="H25" t="n">
-        <v>12.83</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1353,33 +1312,30 @@
         <v>13.1</v>
       </c>
       <c r="C26" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D26" t="n">
         <v>13.1</v>
       </c>
       <c r="E26" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F26" t="n">
-        <v>68.3969</v>
+        <v>75123.66869999999</v>
       </c>
       <c r="G26" t="n">
-        <v>13.00666666666667</v>
+        <v>1438402.8259</v>
       </c>
       <c r="H26" t="n">
-        <v>12.845</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1391,33 +1347,30 @@
         <v>13</v>
       </c>
       <c r="C27" t="n">
-        <v>13</v>
+        <v>13.3</v>
       </c>
       <c r="D27" t="n">
-        <v>13</v>
+        <v>13.3</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
       </c>
       <c r="F27" t="n">
-        <v>152160.8867</v>
+        <v>71183.61079999999</v>
       </c>
       <c r="G27" t="n">
-        <v>13.00666666666667</v>
+        <v>1509586.4367</v>
       </c>
       <c r="H27" t="n">
-        <v>12.85833333333333</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1379,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="C28" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="D28" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="E28" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="F28" t="n">
-        <v>6730.3427</v>
+        <v>14688</v>
       </c>
       <c r="G28" t="n">
-        <v>13.01333333333334</v>
+        <v>1494898.4367</v>
       </c>
       <c r="H28" t="n">
-        <v>12.87166666666666</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1414,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="C29" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="D29" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="E29" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="F29" t="n">
-        <v>42016.0896</v>
+        <v>8082</v>
       </c>
       <c r="G29" t="n">
-        <v>13.01333333333334</v>
+        <v>1494898.4367</v>
       </c>
       <c r="H29" t="n">
-        <v>12.88166666666666</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1449,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="C30" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D30" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="E30" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F30" t="n">
-        <v>133757.5769</v>
+        <v>27745</v>
       </c>
       <c r="G30" t="n">
-        <v>13.01333333333334</v>
+        <v>1467153.4367</v>
       </c>
       <c r="H30" t="n">
-        <v>12.89333333333333</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1484,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C31" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D31" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E31" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F31" t="n">
-        <v>23510</v>
+        <v>67466.4253</v>
       </c>
       <c r="G31" t="n">
-        <v>13.02</v>
+        <v>1467153.4367</v>
       </c>
       <c r="H31" t="n">
-        <v>12.905</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1581,33 +1522,30 @@
         <v>13</v>
       </c>
       <c r="C32" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D32" t="n">
         <v>13</v>
       </c>
       <c r="E32" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F32" t="n">
-        <v>105696.4322</v>
+        <v>69752.07150000001</v>
       </c>
       <c r="G32" t="n">
-        <v>13.00666666666667</v>
+        <v>1397401.3652</v>
       </c>
       <c r="H32" t="n">
-        <v>12.91666666666666</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,7 +1554,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="C33" t="n">
         <v>13.2</v>
@@ -1625,27 +1563,24 @@
         <v>13.2</v>
       </c>
       <c r="E33" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="F33" t="n">
-        <v>80247.5678</v>
+        <v>4490</v>
       </c>
       <c r="G33" t="n">
-        <v>13.02</v>
+        <v>1401891.3652</v>
       </c>
       <c r="H33" t="n">
-        <v>12.93333333333333</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1589,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C34" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="D34" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="E34" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F34" t="n">
-        <v>13310</v>
+        <v>43821.0969</v>
       </c>
       <c r="G34" t="n">
-        <v>13.02</v>
+        <v>1401891.3652</v>
       </c>
       <c r="H34" t="n">
-        <v>12.94666666666666</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1624,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="C35" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="D35" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="E35" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="F35" t="n">
-        <v>27790.6117</v>
+        <v>9495.374900000001</v>
       </c>
       <c r="G35" t="n">
-        <v>13.00666666666667</v>
+        <v>1392395.9903</v>
       </c>
       <c r="H35" t="n">
-        <v>12.95666666666667</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1659,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="C36" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="D36" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="E36" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="F36" t="n">
-        <v>32807.88</v>
+        <v>12912.4804</v>
       </c>
       <c r="G36" t="n">
-        <v>12.99333333333334</v>
+        <v>1392395.9903</v>
       </c>
       <c r="H36" t="n">
-        <v>12.96666666666667</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1694,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="C37" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="D37" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="E37" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="F37" t="n">
-        <v>1800.1515</v>
+        <v>4190</v>
       </c>
       <c r="G37" t="n">
-        <v>13</v>
+        <v>1388205.9903</v>
       </c>
       <c r="H37" t="n">
-        <v>12.98166666666667</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1818,24 +1741,21 @@
         <v>13</v>
       </c>
       <c r="F38" t="n">
-        <v>462.7485</v>
+        <v>11</v>
       </c>
       <c r="G38" t="n">
-        <v>13.00666666666667</v>
+        <v>1388216.9903</v>
       </c>
       <c r="H38" t="n">
-        <v>12.99166666666667</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1764,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C39" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D39" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E39" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F39" t="n">
-        <v>41068.0928</v>
+        <v>45000</v>
       </c>
       <c r="G39" t="n">
-        <v>13.00666666666667</v>
+        <v>1388216.9903</v>
       </c>
       <c r="H39" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1894,24 +1811,21 @@
         <v>12.9</v>
       </c>
       <c r="F40" t="n">
-        <v>3273.0232</v>
+        <v>3501.534</v>
       </c>
       <c r="G40" t="n">
-        <v>13</v>
+        <v>1384715.4563</v>
       </c>
       <c r="H40" t="n">
-        <v>13.00666666666667</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1834,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C41" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D41" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E41" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F41" t="n">
-        <v>78131.41009999999</v>
+        <v>36652.7815</v>
       </c>
       <c r="G41" t="n">
-        <v>12.98666666666667</v>
+        <v>1421368.2378</v>
       </c>
       <c r="H41" t="n">
-        <v>13.01166666666666</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1869,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C42" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D42" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E42" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F42" t="n">
-        <v>188994.1982</v>
+        <v>2363.5355</v>
       </c>
       <c r="G42" t="n">
-        <v>12.97333333333334</v>
+        <v>1419004.7023</v>
       </c>
       <c r="H42" t="n">
-        <v>13.015</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1904,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C43" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D43" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E43" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F43" t="n">
-        <v>1208706</v>
+        <v>55168.2273</v>
       </c>
       <c r="G43" t="n">
-        <v>12.96666666666667</v>
+        <v>1474172.9296</v>
       </c>
       <c r="H43" t="n">
-        <v>13.01833333333333</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1939,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="C44" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="D44" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="E44" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="F44" t="n">
-        <v>41276.12</v>
+        <v>74942.8033</v>
       </c>
       <c r="G44" t="n">
-        <v>12.95333333333334</v>
+        <v>1474172.9296</v>
       </c>
       <c r="H44" t="n">
-        <v>13.01999999999999</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2084,24 +1986,21 @@
         <v>12.9</v>
       </c>
       <c r="F45" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G45" t="n">
-        <v>12.94666666666667</v>
+        <v>1473172.9296</v>
       </c>
       <c r="H45" t="n">
-        <v>13.02166666666666</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +2009,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="C46" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="D46" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="E46" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="F46" t="n">
-        <v>811.0278</v>
+        <v>62690.4228</v>
       </c>
       <c r="G46" t="n">
-        <v>12.93333333333334</v>
+        <v>1535863.3524</v>
       </c>
       <c r="H46" t="n">
-        <v>13.02166666666666</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2044,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="C47" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="D47" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="E47" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="F47" t="n">
-        <v>44909.6763</v>
+        <v>67952.5481</v>
       </c>
       <c r="G47" t="n">
-        <v>12.92666666666667</v>
+        <v>1467910.8043</v>
       </c>
       <c r="H47" t="n">
-        <v>13.01833333333333</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2079,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C48" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D48" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E48" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F48" t="n">
-        <v>100</v>
+        <v>32047.4519</v>
       </c>
       <c r="G48" t="n">
-        <v>12.90666666666668</v>
+        <v>1467910.8043</v>
       </c>
       <c r="H48" t="n">
-        <v>13.01666666666666</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2114,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="C49" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="D49" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="E49" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="F49" t="n">
-        <v>2792.0636</v>
+        <v>3120</v>
       </c>
       <c r="G49" t="n">
-        <v>12.89333333333334</v>
+        <v>1471030.8043</v>
       </c>
       <c r="H49" t="n">
-        <v>13.01333333333333</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2149,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="C50" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="D50" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="E50" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="F50" t="n">
-        <v>65000.41</v>
+        <v>3130</v>
       </c>
       <c r="G50" t="n">
-        <v>12.88666666666668</v>
+        <v>1471030.8043</v>
       </c>
       <c r="H50" t="n">
-        <v>13.00666666666666</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2184,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="C51" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="D51" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="E51" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="F51" t="n">
-        <v>10</v>
+        <v>88650.78079999999</v>
       </c>
       <c r="G51" t="n">
-        <v>12.88666666666668</v>
+        <v>1471030.8043</v>
       </c>
       <c r="H51" t="n">
-        <v>13.00166666666666</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2350,24 +2231,21 @@
         <v>12.9</v>
       </c>
       <c r="F52" t="n">
-        <v>274.031</v>
+        <v>1234.8076</v>
       </c>
       <c r="G52" t="n">
-        <v>12.86666666666668</v>
+        <v>1469795.9967</v>
       </c>
       <c r="H52" t="n">
-        <v>12.99666666666666</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2379,33 +2257,30 @@
         <v>12.9</v>
       </c>
       <c r="C53" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D53" t="n">
         <v>12.9</v>
       </c>
       <c r="E53" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F53" t="n">
-        <v>223570.5952</v>
+        <v>1373.9548</v>
       </c>
       <c r="G53" t="n">
-        <v>12.85333333333335</v>
+        <v>1469795.9967</v>
       </c>
       <c r="H53" t="n">
-        <v>12.98999999999999</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2289,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="C54" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="D54" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="E54" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="F54" t="n">
-        <v>20680.0448</v>
+        <v>35661.1538</v>
       </c>
       <c r="G54" t="n">
-        <v>12.84000000000001</v>
+        <v>1505457.1505</v>
       </c>
       <c r="H54" t="n">
-        <v>12.98166666666665</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2324,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>12.7</v>
+        <v>13.1</v>
       </c>
       <c r="C55" t="n">
-        <v>12.7</v>
+        <v>13.1</v>
       </c>
       <c r="D55" t="n">
-        <v>12.7</v>
+        <v>13.1</v>
       </c>
       <c r="E55" t="n">
-        <v>12.7</v>
+        <v>13.1</v>
       </c>
       <c r="F55" t="n">
-        <v>80343.5772</v>
+        <v>68.3969</v>
       </c>
       <c r="G55" t="n">
-        <v>12.82666666666668</v>
+        <v>1505525.5474</v>
       </c>
       <c r="H55" t="n">
-        <v>12.97666666666666</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2359,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="C56" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="D56" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="E56" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="F56" t="n">
-        <v>160000</v>
+        <v>152160.8867</v>
       </c>
       <c r="G56" t="n">
-        <v>12.81333333333334</v>
+        <v>1353364.6607</v>
       </c>
       <c r="H56" t="n">
-        <v>12.97333333333332</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2394,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="C57" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="D57" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="E57" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="F57" t="n">
-        <v>44808</v>
+        <v>6730.3427</v>
       </c>
       <c r="G57" t="n">
-        <v>12.80000000000001</v>
+        <v>1353364.6607</v>
       </c>
       <c r="H57" t="n">
-        <v>12.96666666666666</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2429,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="C58" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="D58" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="E58" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="F58" t="n">
-        <v>148076.6546</v>
+        <v>42016.0896</v>
       </c>
       <c r="G58" t="n">
-        <v>12.78000000000001</v>
+        <v>1353364.6607</v>
       </c>
       <c r="H58" t="n">
-        <v>12.95499999999999</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2464,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="C59" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="D59" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="E59" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="F59" t="n">
-        <v>29717.8435</v>
+        <v>133757.5769</v>
       </c>
       <c r="G59" t="n">
-        <v>12.77333333333334</v>
+        <v>1353364.6607</v>
       </c>
       <c r="H59" t="n">
-        <v>12.94666666666666</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2499,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="C60" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="D60" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="E60" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="F60" t="n">
-        <v>10980</v>
+        <v>23510</v>
       </c>
       <c r="G60" t="n">
-        <v>12.76</v>
+        <v>1353364.6607</v>
       </c>
       <c r="H60" t="n">
-        <v>12.93833333333333</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2534,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="C61" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="D61" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="E61" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="F61" t="n">
-        <v>150917.381</v>
+        <v>105696.4322</v>
       </c>
       <c r="G61" t="n">
-        <v>12.74666666666667</v>
+        <v>1247668.2285</v>
       </c>
       <c r="H61" t="n">
-        <v>12.92999999999999</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2569,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="C62" t="n">
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="D62" t="n">
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="E62" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="F62" t="n">
-        <v>10</v>
+        <v>80247.5678</v>
       </c>
       <c r="G62" t="n">
-        <v>12.74</v>
+        <v>1327915.7963</v>
       </c>
       <c r="H62" t="n">
-        <v>12.92333333333332</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2604,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="C63" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="D63" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="E63" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="F63" t="n">
-        <v>1863.5706</v>
+        <v>13310</v>
       </c>
       <c r="G63" t="n">
-        <v>12.71333333333333</v>
+        <v>1314605.7963</v>
       </c>
       <c r="H63" t="n">
-        <v>12.91499999999999</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2639,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="C64" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="D64" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="E64" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="F64" t="n">
-        <v>21000</v>
+        <v>27790.6117</v>
       </c>
       <c r="G64" t="n">
-        <v>12.7</v>
+        <v>1286815.1846</v>
       </c>
       <c r="H64" t="n">
-        <v>12.90499999999999</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,7 +2674,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C65" t="n">
         <v>12.9</v>
@@ -2841,27 +2683,24 @@
         <v>12.9</v>
       </c>
       <c r="E65" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F65" t="n">
-        <v>200000</v>
+        <v>32807.88</v>
       </c>
       <c r="G65" t="n">
-        <v>12.70666666666667</v>
+        <v>1286815.1846</v>
       </c>
       <c r="H65" t="n">
-        <v>12.89999999999999</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2709,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="C66" t="n">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="D66" t="n">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="E66" t="n">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="F66" t="n">
-        <v>12153</v>
+        <v>1800.1515</v>
       </c>
       <c r="G66" t="n">
-        <v>12.70666666666667</v>
+        <v>1288615.3361</v>
       </c>
       <c r="H66" t="n">
-        <v>12.89666666666666</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2744,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="C67" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="D67" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="E67" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="F67" t="n">
-        <v>138944.2598</v>
+        <v>462.7485</v>
       </c>
       <c r="G67" t="n">
-        <v>12.69333333333333</v>
+        <v>1288152.5876</v>
       </c>
       <c r="H67" t="n">
-        <v>12.88999999999999</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2779,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="C68" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D68" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E68" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="F68" t="n">
-        <v>2631.2653</v>
+        <v>41068.0928</v>
       </c>
       <c r="G68" t="n">
-        <v>12.69333333333333</v>
+        <v>1247084.4948</v>
       </c>
       <c r="H68" t="n">
-        <v>12.88833333333332</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2814,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C69" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D69" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E69" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F69" t="n">
-        <v>234.375</v>
+        <v>3273.0232</v>
       </c>
       <c r="G69" t="n">
-        <v>12.7</v>
+        <v>1247084.4948</v>
       </c>
       <c r="H69" t="n">
-        <v>12.88499999999999</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2849,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="C70" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="D70" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="E70" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="F70" t="n">
-        <v>134871.1525</v>
+        <v>78131.41009999999</v>
       </c>
       <c r="G70" t="n">
-        <v>12.7</v>
+        <v>1247084.4948</v>
       </c>
       <c r="H70" t="n">
-        <v>12.87999999999999</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2884,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="C71" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="D71" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="E71" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="F71" t="n">
-        <v>157214.7358</v>
+        <v>188994.1982</v>
       </c>
       <c r="G71" t="n">
-        <v>12.7</v>
+        <v>1058090.2966</v>
       </c>
       <c r="H71" t="n">
-        <v>12.87666666666666</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2919,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C72" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D72" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E72" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F72" t="n">
-        <v>10294.9218</v>
+        <v>1208706</v>
       </c>
       <c r="G72" t="n">
-        <v>12.71333333333333</v>
+        <v>2266796.2966</v>
       </c>
       <c r="H72" t="n">
-        <v>12.87333333333332</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3148,24 +2966,21 @@
         <v>12.8</v>
       </c>
       <c r="F73" t="n">
-        <v>38000</v>
+        <v>41276.12</v>
       </c>
       <c r="G73" t="n">
-        <v>12.72666666666667</v>
+        <v>2225520.1766</v>
       </c>
       <c r="H73" t="n">
-        <v>12.87166666666666</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +2989,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C74" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D74" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E74" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F74" t="n">
-        <v>659.338</v>
+        <v>100</v>
       </c>
       <c r="G74" t="n">
-        <v>12.73333333333334</v>
+        <v>2225620.1766</v>
       </c>
       <c r="H74" t="n">
-        <v>12.86833333333332</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +3024,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C75" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D75" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E75" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F75" t="n">
-        <v>22000</v>
+        <v>811.0278</v>
       </c>
       <c r="G75" t="n">
-        <v>12.74666666666667</v>
+        <v>2224809.1488</v>
       </c>
       <c r="H75" t="n">
-        <v>12.86666666666665</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3059,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C76" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D76" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E76" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F76" t="n">
-        <v>330</v>
+        <v>44909.6763</v>
       </c>
       <c r="G76" t="n">
-        <v>12.76666666666667</v>
+        <v>2224809.1488</v>
       </c>
       <c r="H76" t="n">
-        <v>12.86666666666665</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3300,24 +3106,21 @@
         <v>12.9</v>
       </c>
       <c r="F77" t="n">
-        <v>41480.2325</v>
+        <v>100</v>
       </c>
       <c r="G77" t="n">
-        <v>12.78000000000001</v>
+        <v>2224909.1488</v>
       </c>
       <c r="H77" t="n">
-        <v>12.86333333333332</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3338,24 +3141,21 @@
         <v>12.8</v>
       </c>
       <c r="F78" t="n">
-        <v>1030</v>
+        <v>2792.0636</v>
       </c>
       <c r="G78" t="n">
-        <v>12.80000000000001</v>
+        <v>2222117.0852</v>
       </c>
       <c r="H78" t="n">
-        <v>12.85999999999999</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3164,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="C79" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="D79" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="E79" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="F79" t="n">
-        <v>266611.9697</v>
+        <v>65000.41</v>
       </c>
       <c r="G79" t="n">
-        <v>12.80000000000001</v>
+        <v>2222117.0852</v>
       </c>
       <c r="H79" t="n">
-        <v>12.85333333333332</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3199,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="C80" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="D80" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="E80" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="F80" t="n">
-        <v>77406.746</v>
+        <v>10</v>
       </c>
       <c r="G80" t="n">
-        <v>12.78000000000001</v>
+        <v>2222127.0852</v>
       </c>
       <c r="H80" t="n">
-        <v>12.84499999999999</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3234,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="C81" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="D81" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="E81" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="F81" t="n">
-        <v>17413.3858</v>
+        <v>274.031</v>
       </c>
       <c r="G81" t="n">
-        <v>12.76666666666667</v>
+        <v>2222127.0852</v>
       </c>
       <c r="H81" t="n">
-        <v>12.83833333333332</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3269,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="C82" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="D82" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="E82" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="F82" t="n">
-        <v>157512.9023</v>
+        <v>223570.5952</v>
       </c>
       <c r="G82" t="n">
-        <v>12.76000000000001</v>
+        <v>1998556.49</v>
       </c>
       <c r="H82" t="n">
-        <v>12.82999999999999</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3304,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="C83" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D83" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E83" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F83" t="n">
-        <v>6100.5121</v>
+        <v>20680.0448</v>
       </c>
       <c r="G83" t="n">
-        <v>12.74666666666667</v>
+        <v>1977876.4452</v>
       </c>
       <c r="H83" t="n">
-        <v>12.82499999999999</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,40 +3339,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="C84" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D84" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E84" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F84" t="n">
-        <v>247.4766</v>
+        <v>80343.5772</v>
       </c>
       <c r="G84" t="n">
-        <v>12.73333333333334</v>
+        <v>1977876.4452</v>
       </c>
       <c r="H84" t="n">
-        <v>12.81999999999999</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L84" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3596,44 +3374,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="C85" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D85" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E85" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F85" t="n">
-        <v>60648.1731</v>
+        <v>160000</v>
       </c>
       <c r="G85" t="n">
-        <v>12.72666666666667</v>
+        <v>1977876.4452</v>
       </c>
       <c r="H85" t="n">
-        <v>12.81333333333332</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L85" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3642,44 +3409,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="C86" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D86" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="E86" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F86" t="n">
-        <v>343</v>
+        <v>44808</v>
       </c>
       <c r="G86" t="n">
-        <v>12.71333333333334</v>
+        <v>1933068.4452</v>
       </c>
       <c r="H86" t="n">
-        <v>12.80333333333332</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L86" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3688,44 +3444,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="C87" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="D87" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="E87" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="F87" t="n">
-        <v>333</v>
+        <v>148076.6546</v>
       </c>
       <c r="G87" t="n">
-        <v>12.70666666666667</v>
+        <v>1933068.4452</v>
       </c>
       <c r="H87" t="n">
-        <v>12.79833333333332</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L87" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3746,32 +3491,21 @@
         <v>12.7</v>
       </c>
       <c r="F88" t="n">
-        <v>103</v>
+        <v>29717.8435</v>
       </c>
       <c r="G88" t="n">
-        <v>12.7</v>
+        <v>1962786.2887</v>
       </c>
       <c r="H88" t="n">
-        <v>12.79333333333332</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="L88" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3792,30 +3526,21 @@
         <v>12.7</v>
       </c>
       <c r="F89" t="n">
-        <v>29361.0188</v>
+        <v>10980</v>
       </c>
       <c r="G89" t="n">
-        <v>12.69333333333333</v>
+        <v>1962786.2887</v>
       </c>
       <c r="H89" t="n">
-        <v>12.78833333333333</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3836,30 +3561,21 @@
         <v>12.6</v>
       </c>
       <c r="F90" t="n">
-        <v>10</v>
+        <v>150917.381</v>
       </c>
       <c r="G90" t="n">
-        <v>12.67333333333333</v>
+        <v>1811868.9077</v>
       </c>
       <c r="H90" t="n">
-        <v>12.78166666666666</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3868,44 +3584,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="C91" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="D91" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="E91" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="F91" t="n">
-        <v>17.5781</v>
+        <v>10</v>
       </c>
       <c r="G91" t="n">
-        <v>12.66666666666667</v>
+        <v>1811878.9077</v>
       </c>
       <c r="H91" t="n">
-        <v>12.77833333333333</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L91" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3914,44 +3619,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C92" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D92" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E92" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F92" t="n">
-        <v>10</v>
+        <v>1863.5706</v>
       </c>
       <c r="G92" t="n">
-        <v>12.64666666666667</v>
+        <v>1810015.3371</v>
       </c>
       <c r="H92" t="n">
-        <v>12.77333333333332</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="L92" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3960,44 +3654,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="C93" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="D93" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="E93" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="F93" t="n">
-        <v>15718.0468</v>
+        <v>21000</v>
       </c>
       <c r="G93" t="n">
-        <v>12.64666666666667</v>
+        <v>1831015.3371</v>
       </c>
       <c r="H93" t="n">
-        <v>12.76666666666666</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L93" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4006,44 +3689,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="C94" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="D94" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="E94" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="F94" t="n">
-        <v>10</v>
+        <v>200000</v>
       </c>
       <c r="G94" t="n">
-        <v>12.64666666666667</v>
+        <v>2031015.3371</v>
       </c>
       <c r="H94" t="n">
-        <v>12.75999999999999</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="L94" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4052,44 +3724,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="C95" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="D95" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="E95" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="F95" t="n">
-        <v>42500</v>
+        <v>12153</v>
       </c>
       <c r="G95" t="n">
-        <v>12.64666666666667</v>
+        <v>2031015.3371</v>
       </c>
       <c r="H95" t="n">
-        <v>12.75499999999999</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L95" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4098,44 +3759,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="C96" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="D96" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="E96" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="F96" t="n">
-        <v>11</v>
+        <v>138944.2598</v>
       </c>
       <c r="G96" t="n">
-        <v>12.65333333333333</v>
+        <v>1892071.0773</v>
       </c>
       <c r="H96" t="n">
-        <v>12.75333333333332</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L96" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4144,44 +3794,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="C97" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="D97" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="E97" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="F97" t="n">
-        <v>349065.4574</v>
+        <v>2631.2653</v>
       </c>
       <c r="G97" t="n">
-        <v>12.68666666666667</v>
+        <v>1894702.3426</v>
       </c>
       <c r="H97" t="n">
-        <v>12.75166666666666</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="L97" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4190,42 +3829,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C98" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="D98" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="E98" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F98" t="n">
-        <v>843275.8297</v>
+        <v>234.375</v>
       </c>
       <c r="G98" t="n">
-        <v>12.72</v>
+        <v>1894702.3426</v>
       </c>
       <c r="H98" t="n">
-        <v>12.75333333333332</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4234,42 +3864,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>13.1</v>
+        <v>12.7</v>
       </c>
       <c r="C99" t="n">
-        <v>13.1</v>
+        <v>12.7</v>
       </c>
       <c r="D99" t="n">
-        <v>13.1</v>
+        <v>12.7</v>
       </c>
       <c r="E99" t="n">
-        <v>13.1</v>
+        <v>12.7</v>
       </c>
       <c r="F99" t="n">
-        <v>50240.8115</v>
+        <v>134871.1525</v>
       </c>
       <c r="G99" t="n">
-        <v>12.75333333333333</v>
+        <v>1759831.1901</v>
       </c>
       <c r="H99" t="n">
-        <v>12.75666666666666</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4278,42 +3899,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="C100" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="D100" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="E100" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="F100" t="n">
-        <v>19017.6456</v>
+        <v>157214.7358</v>
       </c>
       <c r="G100" t="n">
-        <v>12.76666666666667</v>
+        <v>1759831.1901</v>
       </c>
       <c r="H100" t="n">
-        <v>12.75499999999999</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4334,30 +3946,21 @@
         <v>12.8</v>
       </c>
       <c r="F101" t="n">
-        <v>52789.1217</v>
+        <v>10294.9218</v>
       </c>
       <c r="G101" t="n">
-        <v>12.78666666666667</v>
+        <v>1770126.1119</v>
       </c>
       <c r="H101" t="n">
-        <v>12.75333333333332</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4366,42 +3969,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C102" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D102" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E102" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F102" t="n">
-        <v>54000</v>
+        <v>38000</v>
       </c>
       <c r="G102" t="n">
-        <v>12.8</v>
+        <v>1770126.1119</v>
       </c>
       <c r="H102" t="n">
-        <v>12.75499999999999</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4422,30 +4016,21 @@
         <v>12.8</v>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>659.338</v>
       </c>
       <c r="G103" t="n">
-        <v>12.80666666666667</v>
+        <v>1770126.1119</v>
       </c>
       <c r="H103" t="n">
-        <v>12.75333333333332</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4454,42 +4039,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C104" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D104" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E104" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F104" t="n">
-        <v>119468.3682</v>
+        <v>22000</v>
       </c>
       <c r="G104" t="n">
-        <v>12.81333333333334</v>
+        <v>1792126.1119</v>
       </c>
       <c r="H104" t="n">
-        <v>12.75333333333332</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4498,42 +4074,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C105" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D105" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E105" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F105" t="n">
-        <v>9447.2006</v>
+        <v>330</v>
       </c>
       <c r="G105" t="n">
-        <v>12.82666666666668</v>
+        <v>1792126.1119</v>
       </c>
       <c r="H105" t="n">
-        <v>12.75166666666666</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4554,30 +4121,21 @@
         <v>12.9</v>
       </c>
       <c r="F106" t="n">
-        <v>11</v>
+        <v>41480.2325</v>
       </c>
       <c r="G106" t="n">
-        <v>12.83333333333334</v>
+        <v>1792126.1119</v>
       </c>
       <c r="H106" t="n">
-        <v>12.75333333333332</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4598,30 +4156,21 @@
         <v>12.8</v>
       </c>
       <c r="F107" t="n">
-        <v>155688.1737</v>
+        <v>1030</v>
       </c>
       <c r="G107" t="n">
-        <v>12.84666666666667</v>
+        <v>1791096.1119</v>
       </c>
       <c r="H107" t="n">
-        <v>12.75333333333332</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,42 +4179,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="C108" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="D108" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="E108" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="F108" t="n">
-        <v>10</v>
+        <v>266611.9697</v>
       </c>
       <c r="G108" t="n">
-        <v>12.84000000000001</v>
+        <v>1524484.1422</v>
       </c>
       <c r="H108" t="n">
-        <v>12.74999999999999</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4674,44 +4214,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="C109" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="D109" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="E109" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="F109" t="n">
-        <v>155782.1930527132</v>
+        <v>77406.746</v>
       </c>
       <c r="G109" t="n">
-        <v>12.86000000000001</v>
+        <v>1524484.1422</v>
       </c>
       <c r="H109" t="n">
-        <v>12.75166666666666</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="L109" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4720,44 +4249,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="C110" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="D110" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="E110" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="F110" t="n">
-        <v>1162.2265</v>
+        <v>17413.3858</v>
       </c>
       <c r="G110" t="n">
-        <v>12.87333333333334</v>
+        <v>1541897.528</v>
       </c>
       <c r="H110" t="n">
-        <v>12.75166666666666</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L110" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4766,42 +4284,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="C111" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="D111" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="E111" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="F111" t="n">
-        <v>262.1796</v>
+        <v>157512.9023</v>
       </c>
       <c r="G111" t="n">
-        <v>12.87333333333334</v>
+        <v>1384384.6257</v>
       </c>
       <c r="H111" t="n">
-        <v>12.74999999999999</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4810,44 +4319,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="C112" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="D112" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="E112" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="F112" t="n">
-        <v>5345.5078</v>
+        <v>6100.5121</v>
       </c>
       <c r="G112" t="n">
-        <v>12.85333333333334</v>
+        <v>1384384.6257</v>
       </c>
       <c r="H112" t="n">
-        <v>12.74833333333333</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="L112" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4856,44 +4354,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="C113" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="D113" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="E113" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="F113" t="n">
-        <v>148918.4711</v>
+        <v>247.4766</v>
       </c>
       <c r="G113" t="n">
-        <v>12.83333333333334</v>
+        <v>1384384.6257</v>
       </c>
       <c r="H113" t="n">
-        <v>12.74833333333333</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="L113" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4902,44 +4389,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="C114" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="D114" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="E114" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="F114" t="n">
-        <v>29667.3643</v>
+        <v>60648.1731</v>
       </c>
       <c r="G114" t="n">
-        <v>12.82000000000001</v>
+        <v>1384384.6257</v>
       </c>
       <c r="H114" t="n">
-        <v>12.75166666666666</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="L114" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4948,42 +4424,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="C115" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="D115" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="E115" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="F115" t="n">
-        <v>78588.31164728683</v>
+        <v>343</v>
       </c>
       <c r="G115" t="n">
-        <v>12.82666666666668</v>
+        <v>1384041.6257</v>
       </c>
       <c r="H115" t="n">
-        <v>12.75499999999999</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4992,42 +4459,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="C116" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="D116" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="E116" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="F116" t="n">
-        <v>92304.6924</v>
+        <v>333</v>
       </c>
       <c r="G116" t="n">
-        <v>12.84000000000001</v>
+        <v>1384374.6257</v>
       </c>
       <c r="H116" t="n">
-        <v>12.75999999999999</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5036,42 +4494,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>13.1</v>
+        <v>12.7</v>
       </c>
       <c r="C117" t="n">
-        <v>13.1</v>
+        <v>12.7</v>
       </c>
       <c r="D117" t="n">
-        <v>13.1</v>
+        <v>12.7</v>
       </c>
       <c r="E117" t="n">
-        <v>13.1</v>
+        <v>12.7</v>
       </c>
       <c r="F117" t="n">
-        <v>101544.1719</v>
+        <v>103</v>
       </c>
       <c r="G117" t="n">
-        <v>12.85333333333334</v>
+        <v>1384374.6257</v>
       </c>
       <c r="H117" t="n">
-        <v>12.76833333333332</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5080,42 +4529,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>13.2</v>
+        <v>12.7</v>
       </c>
       <c r="C118" t="n">
-        <v>13.2</v>
+        <v>12.7</v>
       </c>
       <c r="D118" t="n">
-        <v>13.2</v>
+        <v>12.7</v>
       </c>
       <c r="E118" t="n">
-        <v>13.2</v>
+        <v>12.7</v>
       </c>
       <c r="F118" t="n">
-        <v>48488.409</v>
+        <v>29361.0188</v>
       </c>
       <c r="G118" t="n">
-        <v>12.88000000000001</v>
+        <v>1384374.6257</v>
       </c>
       <c r="H118" t="n">
-        <v>12.77833333333332</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5124,42 +4564,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>13</v>
+        <v>12.6</v>
       </c>
       <c r="C119" t="n">
-        <v>13</v>
+        <v>12.6</v>
       </c>
       <c r="D119" t="n">
-        <v>13</v>
+        <v>12.6</v>
       </c>
       <c r="E119" t="n">
-        <v>13</v>
+        <v>12.6</v>
       </c>
       <c r="F119" t="n">
         <v>10</v>
       </c>
       <c r="G119" t="n">
-        <v>12.89333333333334</v>
+        <v>1384364.6257</v>
       </c>
       <c r="H119" t="n">
-        <v>12.78333333333332</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5168,42 +4599,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="C120" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="D120" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="E120" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="F120" t="n">
-        <v>41159.8091</v>
+        <v>17.5781</v>
       </c>
       <c r="G120" t="n">
-        <v>12.91333333333334</v>
+        <v>1384382.2038</v>
       </c>
       <c r="H120" t="n">
-        <v>12.78999999999999</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5212,42 +4634,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>13.1</v>
+        <v>12.6</v>
       </c>
       <c r="C121" t="n">
-        <v>13.1</v>
+        <v>12.6</v>
       </c>
       <c r="D121" t="n">
-        <v>13.1</v>
+        <v>12.6</v>
       </c>
       <c r="E121" t="n">
-        <v>13.1</v>
+        <v>12.6</v>
       </c>
       <c r="F121" t="n">
-        <v>98787.57180000001</v>
+        <v>10</v>
       </c>
       <c r="G121" t="n">
-        <v>12.92666666666667</v>
+        <v>1384372.2038</v>
       </c>
       <c r="H121" t="n">
-        <v>12.79833333333332</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5256,42 +4669,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="C122" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="D122" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="E122" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="F122" t="n">
-        <v>457083.9844</v>
+        <v>15718.0468</v>
       </c>
       <c r="G122" t="n">
-        <v>12.94666666666667</v>
+        <v>1400090.2506</v>
       </c>
       <c r="H122" t="n">
-        <v>12.80499999999999</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5300,42 +4704,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>13.2</v>
+        <v>12.6</v>
       </c>
       <c r="C123" t="n">
-        <v>13.2</v>
+        <v>12.6</v>
       </c>
       <c r="D123" t="n">
-        <v>13.2</v>
+        <v>12.6</v>
       </c>
       <c r="E123" t="n">
-        <v>13.2</v>
+        <v>12.6</v>
       </c>
       <c r="F123" t="n">
-        <v>63578.1589</v>
+        <v>10</v>
       </c>
       <c r="G123" t="n">
-        <v>12.98000000000001</v>
+        <v>1400080.2506</v>
       </c>
       <c r="H123" t="n">
-        <v>12.81666666666666</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,42 +4739,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>13.3</v>
+        <v>12.6</v>
       </c>
       <c r="C124" t="n">
-        <v>13.2</v>
+        <v>12.6</v>
       </c>
       <c r="D124" t="n">
-        <v>13.3</v>
+        <v>12.6</v>
       </c>
       <c r="E124" t="n">
-        <v>13.2</v>
+        <v>12.6</v>
       </c>
       <c r="F124" t="n">
-        <v>75164.66160000001</v>
+        <v>42500</v>
       </c>
       <c r="G124" t="n">
-        <v>13</v>
+        <v>1400080.2506</v>
       </c>
       <c r="H124" t="n">
-        <v>12.82666666666666</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5388,42 +4774,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="C125" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="D125" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="E125" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="F125" t="n">
-        <v>110000</v>
+        <v>11</v>
       </c>
       <c r="G125" t="n">
-        <v>13.02666666666667</v>
+        <v>1400091.2506</v>
       </c>
       <c r="H125" t="n">
-        <v>12.83166666666666</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5432,43 +4809,34 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="C126" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="D126" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="E126" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="F126" t="n">
-        <v>129901.7045</v>
+        <v>349065.4574</v>
       </c>
       <c r="G126" t="n">
-        <v>13.05333333333333</v>
+        <v>1749156.708</v>
       </c>
       <c r="H126" t="n">
-        <v>12.83666666666666</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>1</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
-        <v>1.042619047619048</v>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -5476,36 +4844,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>13.3</v>
+        <v>12.9</v>
       </c>
       <c r="C127" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="D127" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="E127" t="n">
-        <v>13.3</v>
+        <v>12.9</v>
       </c>
       <c r="F127" t="n">
-        <v>149442.6315</v>
+        <v>843275.8297</v>
       </c>
       <c r="G127" t="n">
-        <v>13.08666666666667</v>
+        <v>1749156.708</v>
       </c>
       <c r="H127" t="n">
-        <v>12.84666666666666</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>1</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5526,24 +4891,21 @@
         <v>13.1</v>
       </c>
       <c r="F128" t="n">
-        <v>85.0733</v>
+        <v>50240.8115</v>
       </c>
       <c r="G128" t="n">
-        <v>13.10666666666667</v>
+        <v>1749156.708</v>
       </c>
       <c r="H128" t="n">
-        <v>12.85166666666666</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>1</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5552,36 +4914,1048 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="C129" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="D129" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="E129" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="F129" t="n">
-        <v>42733</v>
+        <v>19017.6456</v>
       </c>
       <c r="G129" t="n">
-        <v>13.12666666666667</v>
+        <v>1730139.0624</v>
       </c>
       <c r="H129" t="n">
-        <v>12.85833333333333</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C130" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D130" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E130" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F130" t="n">
+        <v>52789.1217</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1730139.0624</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C131" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D131" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E131" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F131" t="n">
+        <v>54000</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1784139.0624</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C132" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D132" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E132" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F132" t="n">
+        <v>10</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1784129.0624</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C133" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D133" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E133" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F133" t="n">
+        <v>119468.3682</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1784129.0624</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C134" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D134" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E134" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F134" t="n">
+        <v>9447.2006</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1784129.0624</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C135" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D135" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E135" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F135" t="n">
+        <v>11</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1784140.0624</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C136" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D136" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E136" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F136" t="n">
+        <v>155688.1737</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1628451.8887</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C137" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D137" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E137" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F137" t="n">
+        <v>10</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1628441.8887</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C138" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D138" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E138" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F138" t="n">
+        <v>155782.1930527132</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1784224.081752713</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C139" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D139" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E139" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1162.2265</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1783061.855252713</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C140" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D140" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E140" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F140" t="n">
+        <v>262.1796</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1783061.855252713</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C141" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D141" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E141" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F141" t="n">
+        <v>5345.5078</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1783061.855252713</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C142" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D142" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E142" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F142" t="n">
+        <v>148918.4711</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1783061.855252713</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C143" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D143" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E143" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F143" t="n">
+        <v>29667.3643</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1812729.219552713</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C144" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D144" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E144" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F144" t="n">
+        <v>78588.31164728683</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1812729.219552713</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>13</v>
+      </c>
+      <c r="C145" t="n">
+        <v>13</v>
+      </c>
+      <c r="D145" t="n">
+        <v>13</v>
+      </c>
+      <c r="E145" t="n">
+        <v>13</v>
+      </c>
+      <c r="F145" t="n">
+        <v>92304.6924</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1905033.911952713</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E146" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F146" t="n">
+        <v>101544.1719</v>
+      </c>
+      <c r="G146" t="n">
+        <v>2006578.083852713</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C147" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D147" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E147" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F147" t="n">
+        <v>48488.409</v>
+      </c>
+      <c r="G147" t="n">
+        <v>2055066.492852713</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>13</v>
+      </c>
+      <c r="C148" t="n">
+        <v>13</v>
+      </c>
+      <c r="D148" t="n">
+        <v>13</v>
+      </c>
+      <c r="E148" t="n">
+        <v>13</v>
+      </c>
+      <c r="F148" t="n">
+        <v>10</v>
+      </c>
+      <c r="G148" t="n">
+        <v>2055056.492852713</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C149" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D149" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E149" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F149" t="n">
+        <v>41159.8091</v>
+      </c>
+      <c r="G149" t="n">
+        <v>2096216.301952713</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C150" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D150" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E150" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F150" t="n">
+        <v>98787.57180000001</v>
+      </c>
+      <c r="G150" t="n">
+        <v>2096216.301952713</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C151" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E151" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F151" t="n">
+        <v>457083.9844</v>
+      </c>
+      <c r="G151" t="n">
+        <v>2096216.301952713</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C152" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D152" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E152" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F152" t="n">
+        <v>63578.1589</v>
+      </c>
+      <c r="G152" t="n">
+        <v>2159794.460852713</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C153" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D153" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E153" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F153" t="n">
+        <v>75164.66160000001</v>
+      </c>
+      <c r="G153" t="n">
+        <v>2159794.460852713</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C154" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D154" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E154" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F154" t="n">
+        <v>110000</v>
+      </c>
+      <c r="G154" t="n">
+        <v>2159794.460852713</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C155" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D155" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E155" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F155" t="n">
+        <v>129901.7045</v>
+      </c>
+      <c r="G155" t="n">
+        <v>2159794.460852713</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C156" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D156" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E156" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F156" t="n">
+        <v>149442.6315</v>
+      </c>
+      <c r="G156" t="n">
+        <v>2309237.092352713</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C157" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D157" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E157" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F157" t="n">
+        <v>85.0733</v>
+      </c>
+      <c r="G157" t="n">
+        <v>2309152.019052714</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C158" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D158" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E158" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F158" t="n">
+        <v>42733</v>
+      </c>
+      <c r="G158" t="n">
+        <v>2351885.019052714</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-25 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-25 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M158"/>
+  <dimension ref="A1:N116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12.2</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>12.2</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>12.2</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>12.2</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>184397.2014</v>
+        <v>74942.8033</v>
       </c>
       <c r="G2" t="n">
-        <v>661023.1382000002</v>
+        <v>1474172.9296</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,192 +467,173 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.2</v>
+        <v>12.9</v>
       </c>
       <c r="C3" t="n">
-        <v>12.2</v>
+        <v>12.9</v>
       </c>
       <c r="D3" t="n">
-        <v>12.2</v>
+        <v>12.9</v>
       </c>
       <c r="E3" t="n">
-        <v>12.2</v>
+        <v>12.9</v>
       </c>
       <c r="F3" t="n">
-        <v>59</v>
+        <v>1000</v>
       </c>
       <c r="G3" t="n">
-        <v>661023.1382000002</v>
+        <v>1473172.9296</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12.3</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>12.3</v>
+        <v>13.1</v>
       </c>
       <c r="D4" t="n">
-        <v>12.3</v>
+        <v>13.1</v>
       </c>
       <c r="E4" t="n">
-        <v>12.3</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
-        <v>53386.6397</v>
+        <v>62690.4228</v>
       </c>
       <c r="G4" t="n">
-        <v>714409.7779000001</v>
+        <v>1535863.3524</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.3</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>12.3</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>12.3</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>12.3</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>16870</v>
+        <v>67952.5481</v>
       </c>
       <c r="G5" t="n">
-        <v>714409.7779000001</v>
+        <v>1467910.8043</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>12.3</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>12.3</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
-        <v>12.3</v>
+        <v>13</v>
       </c>
       <c r="F6" t="n">
-        <v>63000</v>
+        <v>32047.4519</v>
       </c>
       <c r="G6" t="n">
-        <v>714409.7779000001</v>
+        <v>1467910.8043</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.4</v>
+        <v>13.1</v>
       </c>
       <c r="C7" t="n">
-        <v>12.4</v>
+        <v>13.1</v>
       </c>
       <c r="D7" t="n">
-        <v>12.4</v>
+        <v>13.1</v>
       </c>
       <c r="E7" t="n">
-        <v>12.4</v>
+        <v>13.1</v>
       </c>
       <c r="F7" t="n">
-        <v>12670</v>
+        <v>3120</v>
       </c>
       <c r="G7" t="n">
-        <v>727079.7779000001</v>
+        <v>1471030.8043</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -656,39 +642,34 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.4</v>
+        <v>13.1</v>
       </c>
       <c r="C8" t="n">
-        <v>12.4</v>
+        <v>13.1</v>
       </c>
       <c r="D8" t="n">
-        <v>12.4</v>
+        <v>13.1</v>
       </c>
       <c r="E8" t="n">
-        <v>12.4</v>
+        <v>13.1</v>
       </c>
       <c r="F8" t="n">
-        <v>2914.9193</v>
+        <v>3130</v>
       </c>
       <c r="G8" t="n">
-        <v>727079.7779000001</v>
+        <v>1471030.8043</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -697,39 +678,34 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12.4</v>
+        <v>13.1</v>
       </c>
       <c r="C9" t="n">
-        <v>12.5</v>
+        <v>13.1</v>
       </c>
       <c r="D9" t="n">
-        <v>12.5</v>
+        <v>13.1</v>
       </c>
       <c r="E9" t="n">
-        <v>12.4</v>
+        <v>13.1</v>
       </c>
       <c r="F9" t="n">
-        <v>105972.4801</v>
+        <v>88650.78079999999</v>
       </c>
       <c r="G9" t="n">
-        <v>833052.2580000001</v>
+        <v>1471030.8043</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -743,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.4</v>
+        <v>12.9</v>
       </c>
       <c r="C10" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="D10" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="E10" t="n">
-        <v>12.4</v>
+        <v>12.9</v>
       </c>
       <c r="F10" t="n">
-        <v>224845.6266</v>
+        <v>1234.8076</v>
       </c>
       <c r="G10" t="n">
-        <v>1057897.8846</v>
+        <v>1469795.9967</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -778,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="C11" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="D11" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="E11" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="F11" t="n">
-        <v>41562.7605</v>
+        <v>1373.9548</v>
       </c>
       <c r="G11" t="n">
-        <v>1057897.8846</v>
+        <v>1469795.9967</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -813,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="C12" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="D12" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="E12" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="F12" t="n">
-        <v>81963.9553</v>
+        <v>35661.1538</v>
       </c>
       <c r="G12" t="n">
-        <v>1139861.8399</v>
+        <v>1505457.1505</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -848,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.7</v>
+        <v>13.1</v>
       </c>
       <c r="C13" t="n">
-        <v>12.7</v>
+        <v>13.1</v>
       </c>
       <c r="D13" t="n">
-        <v>12.7</v>
+        <v>13.1</v>
       </c>
       <c r="E13" t="n">
-        <v>12.7</v>
+        <v>13.1</v>
       </c>
       <c r="F13" t="n">
-        <v>189656.3051</v>
+        <v>68.3969</v>
       </c>
       <c r="G13" t="n">
-        <v>1139861.8399</v>
+        <v>1505525.5474</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -883,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="E14" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
-        <v>6741.2201</v>
+        <v>152160.8867</v>
       </c>
       <c r="G14" t="n">
-        <v>1146603.06</v>
+        <v>1353364.6607</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -918,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="D15" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="E15" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>199010.7049</v>
+        <v>6730.3427</v>
       </c>
       <c r="G15" t="n">
-        <v>1146603.06</v>
+        <v>1353364.6607</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -953,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -971,10 +954,10 @@
         <v>13</v>
       </c>
       <c r="F16" t="n">
-        <v>61958.7063</v>
+        <v>42016.0896</v>
       </c>
       <c r="G16" t="n">
-        <v>1208561.7663</v>
+        <v>1353364.6607</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -988,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1006,10 +990,10 @@
         <v>13</v>
       </c>
       <c r="F17" t="n">
-        <v>25449.6923</v>
+        <v>133757.5769</v>
       </c>
       <c r="G17" t="n">
-        <v>1208561.7663</v>
+        <v>1353364.6607</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1023,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1041,10 +1026,10 @@
         <v>13</v>
       </c>
       <c r="F18" t="n">
-        <v>13591.6014</v>
+        <v>23510</v>
       </c>
       <c r="G18" t="n">
-        <v>1208561.7663</v>
+        <v>1353364.6607</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1058,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C19" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="D19" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="E19" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="F19" t="n">
-        <v>155943.1523</v>
+        <v>105696.4322</v>
       </c>
       <c r="G19" t="n">
-        <v>1364504.9186</v>
+        <v>1247668.2285</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1093,13 +1079,14 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="C20" t="n">
         <v>13.2</v>
@@ -1108,13 +1095,13 @@
         <v>13.2</v>
       </c>
       <c r="E20" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="F20" t="n">
-        <v>105833.26</v>
+        <v>80247.5678</v>
       </c>
       <c r="G20" t="n">
-        <v>1364504.9186</v>
+        <v>1327915.7963</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1128,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="C21" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="D21" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="E21" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="F21" t="n">
-        <v>30000</v>
+        <v>13310</v>
       </c>
       <c r="G21" t="n">
-        <v>1364504.9186</v>
+        <v>1314605.7963</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1163,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="C22" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="D22" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="E22" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="F22" t="n">
-        <v>4000</v>
+        <v>27790.6117</v>
       </c>
       <c r="G22" t="n">
-        <v>1364504.9186</v>
+        <v>1286815.1846</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1198,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="C23" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="D23" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="E23" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="F23" t="n">
-        <v>155</v>
+        <v>32807.88</v>
       </c>
       <c r="G23" t="n">
-        <v>1364504.9186</v>
+        <v>1286815.1846</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1233,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1242,19 +1233,19 @@
         <v>13.2</v>
       </c>
       <c r="C24" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="D24" t="n">
         <v>13.2</v>
       </c>
       <c r="E24" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="F24" t="n">
-        <v>775.6825</v>
+        <v>1800.1515</v>
       </c>
       <c r="G24" t="n">
-        <v>1363729.2361</v>
+        <v>1288615.3361</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1268,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C25" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D25" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E25" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F25" t="n">
-        <v>450.0789</v>
+        <v>462.7485</v>
       </c>
       <c r="G25" t="n">
-        <v>1363279.1572</v>
+        <v>1288152.5876</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1303,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="C26" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D26" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="E26" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F26" t="n">
-        <v>75123.66869999999</v>
+        <v>41068.0928</v>
       </c>
       <c r="G26" t="n">
-        <v>1438402.8259</v>
+        <v>1247084.4948</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C27" t="n">
-        <v>13.3</v>
+        <v>12.9</v>
       </c>
       <c r="D27" t="n">
-        <v>13.3</v>
+        <v>12.9</v>
       </c>
       <c r="E27" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F27" t="n">
-        <v>71183.61079999999</v>
+        <v>3273.0232</v>
       </c>
       <c r="G27" t="n">
-        <v>1509586.4367</v>
+        <v>1247084.4948</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1373,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="C28" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="D28" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="E28" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="F28" t="n">
-        <v>14688</v>
+        <v>78131.41009999999</v>
       </c>
       <c r="G28" t="n">
-        <v>1494898.4367</v>
+        <v>1247084.4948</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1408,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="C29" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="D29" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="E29" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="F29" t="n">
-        <v>8082</v>
+        <v>188994.1982</v>
       </c>
       <c r="G29" t="n">
-        <v>1494898.4367</v>
+        <v>1058090.2966</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1443,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="C30" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="D30" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="E30" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="F30" t="n">
-        <v>27745</v>
+        <v>1208706</v>
       </c>
       <c r="G30" t="n">
-        <v>1467153.4367</v>
+        <v>2266796.2966</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1478,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="C31" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="D31" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="E31" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="F31" t="n">
-        <v>67466.4253</v>
+        <v>41276.12</v>
       </c>
       <c r="G31" t="n">
-        <v>1467153.4367</v>
+        <v>2225520.1766</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1513,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C32" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D32" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E32" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F32" t="n">
-        <v>69752.07150000001</v>
+        <v>100</v>
       </c>
       <c r="G32" t="n">
-        <v>1397401.3652</v>
+        <v>2225620.1766</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1548,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="C33" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="D33" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="E33" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="F33" t="n">
-        <v>4490</v>
+        <v>811.0278</v>
       </c>
       <c r="G33" t="n">
-        <v>1401891.3652</v>
+        <v>2224809.1488</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1583,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="C34" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="D34" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="E34" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="F34" t="n">
-        <v>43821.0969</v>
+        <v>44909.6763</v>
       </c>
       <c r="G34" t="n">
-        <v>1401891.3652</v>
+        <v>2224809.1488</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1618,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="C35" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="D35" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="E35" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="F35" t="n">
-        <v>9495.374900000001</v>
+        <v>100</v>
       </c>
       <c r="G35" t="n">
-        <v>1392395.9903</v>
+        <v>2224909.1488</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1653,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="C36" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="D36" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="E36" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="F36" t="n">
-        <v>12912.4804</v>
+        <v>2792.0636</v>
       </c>
       <c r="G36" t="n">
-        <v>1392395.9903</v>
+        <v>2222117.0852</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1688,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="C37" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D37" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="E37" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F37" t="n">
-        <v>4190</v>
+        <v>65000.41</v>
       </c>
       <c r="G37" t="n">
-        <v>1388205.9903</v>
+        <v>2222117.0852</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1723,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C38" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D38" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E38" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>1388216.9903</v>
+        <v>2222127.0852</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1758,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C39" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D39" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E39" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F39" t="n">
-        <v>45000</v>
+        <v>274.031</v>
       </c>
       <c r="G39" t="n">
-        <v>1388216.9903</v>
+        <v>2222127.0852</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1793,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1802,19 +1809,19 @@
         <v>12.9</v>
       </c>
       <c r="C40" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D40" t="n">
         <v>12.9</v>
       </c>
       <c r="E40" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F40" t="n">
-        <v>3501.534</v>
+        <v>223570.5952</v>
       </c>
       <c r="G40" t="n">
-        <v>1384715.4563</v>
+        <v>1998556.49</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1828,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="C41" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="D41" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="E41" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="F41" t="n">
-        <v>36652.7815</v>
+        <v>20680.0448</v>
       </c>
       <c r="G41" t="n">
-        <v>1421368.2378</v>
+        <v>1977876.4452</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1863,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="C42" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="D42" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="E42" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="F42" t="n">
-        <v>2363.5355</v>
+        <v>80343.5772</v>
       </c>
       <c r="G42" t="n">
-        <v>1419004.7023</v>
+        <v>1977876.4452</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1898,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="C43" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="D43" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="E43" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="F43" t="n">
-        <v>55168.2273</v>
+        <v>160000</v>
       </c>
       <c r="G43" t="n">
-        <v>1474172.9296</v>
+        <v>1977876.4452</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1933,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>13</v>
+        <v>12.6</v>
       </c>
       <c r="C44" t="n">
-        <v>13</v>
+        <v>12.6</v>
       </c>
       <c r="D44" t="n">
-        <v>13</v>
+        <v>12.6</v>
       </c>
       <c r="E44" t="n">
-        <v>13</v>
+        <v>12.6</v>
       </c>
       <c r="F44" t="n">
-        <v>74942.8033</v>
+        <v>44808</v>
       </c>
       <c r="G44" t="n">
-        <v>1474172.9296</v>
+        <v>1933068.4452</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1968,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="C45" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="D45" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="E45" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="F45" t="n">
-        <v>1000</v>
+        <v>148076.6546</v>
       </c>
       <c r="G45" t="n">
-        <v>1473172.9296</v>
+        <v>1933068.4452</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2003,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="C46" t="n">
-        <v>13.1</v>
+        <v>12.7</v>
       </c>
       <c r="D46" t="n">
-        <v>13.1</v>
+        <v>12.7</v>
       </c>
       <c r="E46" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="F46" t="n">
-        <v>62690.4228</v>
+        <v>29717.8435</v>
       </c>
       <c r="G46" t="n">
-        <v>1535863.3524</v>
+        <v>1962786.2887</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2038,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="C47" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="D47" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="E47" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="F47" t="n">
-        <v>67952.5481</v>
+        <v>10980</v>
       </c>
       <c r="G47" t="n">
-        <v>1467910.8043</v>
+        <v>1962786.2887</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2073,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>13</v>
+        <v>12.6</v>
       </c>
       <c r="C48" t="n">
-        <v>13</v>
+        <v>12.6</v>
       </c>
       <c r="D48" t="n">
-        <v>13</v>
+        <v>12.6</v>
       </c>
       <c r="E48" t="n">
-        <v>13</v>
+        <v>12.6</v>
       </c>
       <c r="F48" t="n">
-        <v>32047.4519</v>
+        <v>150917.381</v>
       </c>
       <c r="G48" t="n">
-        <v>1467910.8043</v>
+        <v>1811868.9077</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2108,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>13.1</v>
+        <v>12.7</v>
       </c>
       <c r="C49" t="n">
-        <v>13.1</v>
+        <v>12.7</v>
       </c>
       <c r="D49" t="n">
-        <v>13.1</v>
+        <v>12.7</v>
       </c>
       <c r="E49" t="n">
-        <v>13.1</v>
+        <v>12.7</v>
       </c>
       <c r="F49" t="n">
-        <v>3120</v>
+        <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>1471030.8043</v>
+        <v>1811878.9077</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2143,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>13.1</v>
+        <v>12.5</v>
       </c>
       <c r="C50" t="n">
-        <v>13.1</v>
+        <v>12.5</v>
       </c>
       <c r="D50" t="n">
-        <v>13.1</v>
+        <v>12.5</v>
       </c>
       <c r="E50" t="n">
-        <v>13.1</v>
+        <v>12.5</v>
       </c>
       <c r="F50" t="n">
-        <v>3130</v>
+        <v>1863.5706</v>
       </c>
       <c r="G50" t="n">
-        <v>1471030.8043</v>
+        <v>1810015.3371</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2178,48 +2195,54 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>13.1</v>
+        <v>12.6</v>
       </c>
       <c r="C51" t="n">
-        <v>13.1</v>
+        <v>12.6</v>
       </c>
       <c r="D51" t="n">
-        <v>13.1</v>
+        <v>12.6</v>
       </c>
       <c r="E51" t="n">
-        <v>13.1</v>
+        <v>12.6</v>
       </c>
       <c r="F51" t="n">
-        <v>88650.78079999999</v>
+        <v>21000</v>
       </c>
       <c r="G51" t="n">
-        <v>1471030.8043</v>
+        <v>1831015.3371</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>12.5</v>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C52" t="n">
         <v>12.9</v>
@@ -2228,26 +2251,35 @@
         <v>12.9</v>
       </c>
       <c r="E52" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F52" t="n">
-        <v>1234.8076</v>
+        <v>200000</v>
       </c>
       <c r="G52" t="n">
-        <v>1469795.9967</v>
+        <v>2031015.3371</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K52" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2266,45 +2298,54 @@
         <v>12.9</v>
       </c>
       <c r="F53" t="n">
-        <v>1373.9548</v>
+        <v>12153</v>
       </c>
       <c r="G53" t="n">
-        <v>1469795.9967</v>
+        <v>2031015.3371</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="K53" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="C54" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="D54" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="E54" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="F54" t="n">
-        <v>35661.1538</v>
+        <v>138944.2598</v>
       </c>
       <c r="G54" t="n">
-        <v>1505457.1505</v>
+        <v>1892071.0773</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2318,28 +2359,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>13.1</v>
+        <v>12.6</v>
       </c>
       <c r="C55" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="D55" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="E55" t="n">
-        <v>13.1</v>
+        <v>12.6</v>
       </c>
       <c r="F55" t="n">
-        <v>68.3969</v>
+        <v>2631.2653</v>
       </c>
       <c r="G55" t="n">
-        <v>1505525.5474</v>
+        <v>1894702.3426</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2353,28 +2395,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="C56" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="D56" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="E56" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="F56" t="n">
-        <v>152160.8867</v>
+        <v>234.375</v>
       </c>
       <c r="G56" t="n">
-        <v>1353364.6607</v>
+        <v>1894702.3426</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2388,28 +2431,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="C57" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="D57" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="E57" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="F57" t="n">
-        <v>6730.3427</v>
+        <v>134871.1525</v>
       </c>
       <c r="G57" t="n">
-        <v>1353364.6607</v>
+        <v>1759831.1901</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2423,28 +2467,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="C58" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="D58" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="E58" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="F58" t="n">
-        <v>42016.0896</v>
+        <v>157214.7358</v>
       </c>
       <c r="G58" t="n">
-        <v>1353364.6607</v>
+        <v>1759831.1901</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2458,28 +2503,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="C59" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="D59" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="E59" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="F59" t="n">
-        <v>133757.5769</v>
+        <v>10294.9218</v>
       </c>
       <c r="G59" t="n">
-        <v>1353364.6607</v>
+        <v>1770126.1119</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2493,28 +2539,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="C60" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="D60" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="E60" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="F60" t="n">
-        <v>23510</v>
+        <v>38000</v>
       </c>
       <c r="G60" t="n">
-        <v>1353364.6607</v>
+        <v>1770126.1119</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2528,28 +2575,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="C61" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D61" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="E61" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F61" t="n">
-        <v>105696.4322</v>
+        <v>659.338</v>
       </c>
       <c r="G61" t="n">
-        <v>1247668.2285</v>
+        <v>1770126.1119</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2563,28 +2611,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C62" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="D62" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="E62" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F62" t="n">
-        <v>80247.5678</v>
+        <v>22000</v>
       </c>
       <c r="G62" t="n">
-        <v>1327915.7963</v>
+        <v>1792126.1119</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2598,28 +2647,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C63" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D63" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E63" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F63" t="n">
-        <v>13310</v>
+        <v>330</v>
       </c>
       <c r="G63" t="n">
-        <v>1314605.7963</v>
+        <v>1792126.1119</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2633,6 +2683,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2651,10 +2702,10 @@
         <v>12.9</v>
       </c>
       <c r="F64" t="n">
-        <v>27790.6117</v>
+        <v>41480.2325</v>
       </c>
       <c r="G64" t="n">
-        <v>1286815.1846</v>
+        <v>1792126.1119</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2668,28 +2719,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C65" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D65" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E65" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F65" t="n">
-        <v>32807.88</v>
+        <v>1030</v>
       </c>
       <c r="G65" t="n">
-        <v>1286815.1846</v>
+        <v>1791096.1119</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2703,28 +2755,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>13.2</v>
+        <v>12.6</v>
       </c>
       <c r="C66" t="n">
-        <v>13.2</v>
+        <v>12.6</v>
       </c>
       <c r="D66" t="n">
-        <v>13.2</v>
+        <v>12.6</v>
       </c>
       <c r="E66" t="n">
-        <v>13.2</v>
+        <v>12.6</v>
       </c>
       <c r="F66" t="n">
-        <v>1800.1515</v>
+        <v>266611.9697</v>
       </c>
       <c r="G66" t="n">
-        <v>1288615.3361</v>
+        <v>1524484.1422</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2738,28 +2791,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>13</v>
+        <v>12.6</v>
       </c>
       <c r="C67" t="n">
-        <v>13</v>
+        <v>12.6</v>
       </c>
       <c r="D67" t="n">
-        <v>13</v>
+        <v>12.6</v>
       </c>
       <c r="E67" t="n">
-        <v>13</v>
+        <v>12.6</v>
       </c>
       <c r="F67" t="n">
-        <v>462.7485</v>
+        <v>77406.746</v>
       </c>
       <c r="G67" t="n">
-        <v>1288152.5876</v>
+        <v>1524484.1422</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2773,28 +2827,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="C68" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="D68" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="E68" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="F68" t="n">
-        <v>41068.0928</v>
+        <v>17413.3858</v>
       </c>
       <c r="G68" t="n">
-        <v>1247084.4948</v>
+        <v>1541897.528</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2808,28 +2863,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="C69" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="D69" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="E69" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="F69" t="n">
-        <v>3273.0232</v>
+        <v>157512.9023</v>
       </c>
       <c r="G69" t="n">
-        <v>1247084.4948</v>
+        <v>1384384.6257</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2843,28 +2899,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="C70" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="D70" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="E70" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="F70" t="n">
-        <v>78131.41009999999</v>
+        <v>6100.5121</v>
       </c>
       <c r="G70" t="n">
-        <v>1247084.4948</v>
+        <v>1384384.6257</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2878,28 +2935,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="C71" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="D71" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="E71" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="F71" t="n">
-        <v>188994.1982</v>
+        <v>247.4766</v>
       </c>
       <c r="G71" t="n">
-        <v>1058090.2966</v>
+        <v>1384384.6257</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2913,28 +2971,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="C72" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="D72" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="E72" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="F72" t="n">
-        <v>1208706</v>
+        <v>60648.1731</v>
       </c>
       <c r="G72" t="n">
-        <v>2266796.2966</v>
+        <v>1384384.6257</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2948,28 +3007,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="C73" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="D73" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="E73" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="F73" t="n">
-        <v>41276.12</v>
+        <v>343</v>
       </c>
       <c r="G73" t="n">
-        <v>2225520.1766</v>
+        <v>1384041.6257</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2983,28 +3043,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="C74" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="D74" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="E74" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="F74" t="n">
-        <v>100</v>
+        <v>333</v>
       </c>
       <c r="G74" t="n">
-        <v>2225620.1766</v>
+        <v>1384374.6257</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3018,28 +3079,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="C75" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="D75" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="E75" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="F75" t="n">
-        <v>811.0278</v>
+        <v>103</v>
       </c>
       <c r="G75" t="n">
-        <v>2224809.1488</v>
+        <v>1384374.6257</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3053,28 +3115,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="C76" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="D76" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="E76" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="F76" t="n">
-        <v>44909.6763</v>
+        <v>29361.0188</v>
       </c>
       <c r="G76" t="n">
-        <v>2224809.1488</v>
+        <v>1384374.6257</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3088,28 +3151,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="C77" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="D77" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="E77" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="F77" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G77" t="n">
-        <v>2224909.1488</v>
+        <v>1384364.6257</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3123,6 +3187,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3141,10 +3206,10 @@
         <v>12.8</v>
       </c>
       <c r="F78" t="n">
-        <v>2792.0636</v>
+        <v>17.5781</v>
       </c>
       <c r="G78" t="n">
-        <v>2222117.0852</v>
+        <v>1384382.2038</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3158,28 +3223,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="C79" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="D79" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="E79" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="F79" t="n">
-        <v>65000.41</v>
+        <v>10</v>
       </c>
       <c r="G79" t="n">
-        <v>2222117.0852</v>
+        <v>1384372.2038</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3193,28 +3259,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C80" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D80" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E80" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F80" t="n">
-        <v>10</v>
+        <v>15718.0468</v>
       </c>
       <c r="G80" t="n">
-        <v>2222127.0852</v>
+        <v>1400090.2506</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3228,28 +3295,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="C81" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="D81" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="E81" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="F81" t="n">
-        <v>274.031</v>
+        <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>2222127.0852</v>
+        <v>1400080.2506</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3263,28 +3331,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="C82" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="D82" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="E82" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="F82" t="n">
-        <v>223570.5952</v>
+        <v>42500</v>
       </c>
       <c r="G82" t="n">
-        <v>1998556.49</v>
+        <v>1400080.2506</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3298,28 +3367,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="C83" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="D83" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="E83" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="F83" t="n">
-        <v>20680.0448</v>
+        <v>11</v>
       </c>
       <c r="G83" t="n">
-        <v>1977876.4452</v>
+        <v>1400091.2506</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3333,28 +3403,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="C84" t="n">
-        <v>12.7</v>
+        <v>13.1</v>
       </c>
       <c r="D84" t="n">
-        <v>12.7</v>
+        <v>13.1</v>
       </c>
       <c r="E84" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="F84" t="n">
-        <v>80343.5772</v>
+        <v>349065.4574</v>
       </c>
       <c r="G84" t="n">
-        <v>1977876.4452</v>
+        <v>1749156.708</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3368,28 +3439,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="C85" t="n">
-        <v>12.7</v>
+        <v>13.1</v>
       </c>
       <c r="D85" t="n">
-        <v>12.7</v>
+        <v>13.1</v>
       </c>
       <c r="E85" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="F85" t="n">
-        <v>160000</v>
+        <v>843275.8297</v>
       </c>
       <c r="G85" t="n">
-        <v>1977876.4452</v>
+        <v>1749156.708</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3403,28 +3475,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12.6</v>
+        <v>13.1</v>
       </c>
       <c r="C86" t="n">
-        <v>12.6</v>
+        <v>13.1</v>
       </c>
       <c r="D86" t="n">
-        <v>12.6</v>
+        <v>13.1</v>
       </c>
       <c r="E86" t="n">
-        <v>12.6</v>
+        <v>13.1</v>
       </c>
       <c r="F86" t="n">
-        <v>44808</v>
+        <v>50240.8115</v>
       </c>
       <c r="G86" t="n">
-        <v>1933068.4452</v>
+        <v>1749156.708</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3438,28 +3511,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="C87" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="D87" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="E87" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="F87" t="n">
-        <v>148076.6546</v>
+        <v>19017.6456</v>
       </c>
       <c r="G87" t="n">
-        <v>1933068.4452</v>
+        <v>1730139.0624</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3473,28 +3547,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="C88" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="D88" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="E88" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="F88" t="n">
-        <v>29717.8435</v>
+        <v>52789.1217</v>
       </c>
       <c r="G88" t="n">
-        <v>1962786.2887</v>
+        <v>1730139.0624</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3508,28 +3583,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="C89" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="D89" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="E89" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="F89" t="n">
-        <v>10980</v>
+        <v>54000</v>
       </c>
       <c r="G89" t="n">
-        <v>1962786.2887</v>
+        <v>1784139.0624</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3543,28 +3619,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="C90" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="D90" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="E90" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="F90" t="n">
-        <v>150917.381</v>
+        <v>10</v>
       </c>
       <c r="G90" t="n">
-        <v>1811868.9077</v>
+        <v>1784129.0624</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3578,28 +3655,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="C91" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="D91" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="E91" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="F91" t="n">
-        <v>10</v>
+        <v>119468.3682</v>
       </c>
       <c r="G91" t="n">
-        <v>1811878.9077</v>
+        <v>1784129.0624</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3613,28 +3691,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="C92" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="D92" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="E92" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="F92" t="n">
-        <v>1863.5706</v>
+        <v>9447.2006</v>
       </c>
       <c r="G92" t="n">
-        <v>1810015.3371</v>
+        <v>1784129.0624</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3648,28 +3727,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="C93" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="D93" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="E93" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="F93" t="n">
-        <v>21000</v>
+        <v>11</v>
       </c>
       <c r="G93" t="n">
-        <v>1831015.3371</v>
+        <v>1784140.0624</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3683,6 +3763,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3692,19 +3773,19 @@
         <v>12.8</v>
       </c>
       <c r="C94" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D94" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E94" t="n">
         <v>12.8</v>
       </c>
       <c r="F94" t="n">
-        <v>200000</v>
+        <v>155688.1737</v>
       </c>
       <c r="G94" t="n">
-        <v>2031015.3371</v>
+        <v>1628451.8887</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3718,28 +3799,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="C95" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="D95" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="E95" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="F95" t="n">
-        <v>12153</v>
+        <v>10</v>
       </c>
       <c r="G95" t="n">
-        <v>2031015.3371</v>
+        <v>1628441.8887</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3753,28 +3835,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="C96" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="D96" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="E96" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="F96" t="n">
-        <v>138944.2598</v>
+        <v>155782.1930527132</v>
       </c>
       <c r="G96" t="n">
-        <v>1892071.0773</v>
+        <v>1784224.081752713</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3788,13 +3871,14 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="C97" t="n">
         <v>12.8</v>
@@ -3803,13 +3887,13 @@
         <v>12.8</v>
       </c>
       <c r="E97" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="F97" t="n">
-        <v>2631.2653</v>
+        <v>1162.2265</v>
       </c>
       <c r="G97" t="n">
-        <v>1894702.3426</v>
+        <v>1783061.855252713</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3823,6 +3907,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3841,10 +3926,10 @@
         <v>12.8</v>
       </c>
       <c r="F98" t="n">
-        <v>234.375</v>
+        <v>262.1796</v>
       </c>
       <c r="G98" t="n">
-        <v>1894702.3426</v>
+        <v>1783061.855252713</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3858,28 +3943,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="C99" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="D99" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="E99" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="F99" t="n">
-        <v>134871.1525</v>
+        <v>5345.5078</v>
       </c>
       <c r="G99" t="n">
-        <v>1759831.1901</v>
+        <v>1783061.855252713</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3893,28 +3979,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="C100" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="D100" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="E100" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="F100" t="n">
-        <v>157214.7358</v>
+        <v>148918.4711</v>
       </c>
       <c r="G100" t="n">
-        <v>1759831.1901</v>
+        <v>1783061.855252713</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3928,28 +4015,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C101" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D101" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E101" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F101" t="n">
-        <v>10294.9218</v>
+        <v>29667.3643</v>
       </c>
       <c r="G101" t="n">
-        <v>1770126.1119</v>
+        <v>1812729.219552713</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3963,28 +4051,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C102" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D102" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E102" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F102" t="n">
-        <v>38000</v>
+        <v>78588.31164728683</v>
       </c>
       <c r="G102" t="n">
-        <v>1770126.1119</v>
+        <v>1812729.219552713</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3998,28 +4087,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="C103" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="D103" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="E103" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="F103" t="n">
-        <v>659.338</v>
+        <v>92304.6924</v>
       </c>
       <c r="G103" t="n">
-        <v>1770126.1119</v>
+        <v>1905033.911952713</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4033,28 +4123,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="C104" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="D104" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="E104" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="F104" t="n">
-        <v>22000</v>
+        <v>101544.1719</v>
       </c>
       <c r="G104" t="n">
-        <v>1792126.1119</v>
+        <v>2006578.083852713</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4068,28 +4159,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="C105" t="n">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="D105" t="n">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="E105" t="n">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="F105" t="n">
-        <v>330</v>
+        <v>48488.409</v>
       </c>
       <c r="G105" t="n">
-        <v>1792126.1119</v>
+        <v>2055066.492852713</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4103,28 +4195,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C106" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D106" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E106" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F106" t="n">
-        <v>41480.2325</v>
+        <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>1792126.1119</v>
+        <v>2055056.492852713</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4138,28 +4231,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="C107" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="D107" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="E107" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="F107" t="n">
-        <v>1030</v>
+        <v>41159.8091</v>
       </c>
       <c r="G107" t="n">
-        <v>1791096.1119</v>
+        <v>2096216.301952713</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4173,28 +4267,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>12.6</v>
+        <v>13.1</v>
       </c>
       <c r="C108" t="n">
-        <v>12.6</v>
+        <v>13.1</v>
       </c>
       <c r="D108" t="n">
-        <v>12.6</v>
+        <v>13.1</v>
       </c>
       <c r="E108" t="n">
-        <v>12.6</v>
+        <v>13.1</v>
       </c>
       <c r="F108" t="n">
-        <v>266611.9697</v>
+        <v>98787.57180000001</v>
       </c>
       <c r="G108" t="n">
-        <v>1524484.1422</v>
+        <v>2096216.301952713</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4208,34 +4303,35 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>12.6</v>
+        <v>13.1</v>
       </c>
       <c r="C109" t="n">
-        <v>12.6</v>
+        <v>13.1</v>
       </c>
       <c r="D109" t="n">
-        <v>12.6</v>
+        <v>13.1</v>
       </c>
       <c r="E109" t="n">
-        <v>12.6</v>
+        <v>13.1</v>
       </c>
       <c r="F109" t="n">
-        <v>77406.746</v>
+        <v>457083.9844</v>
       </c>
       <c r="G109" t="n">
-        <v>1524484.1422</v>
+        <v>2096216.301952713</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4243,34 +4339,35 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="C110" t="n">
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="D110" t="n">
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="E110" t="n">
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="F110" t="n">
-        <v>17413.3858</v>
+        <v>63578.1589</v>
       </c>
       <c r="G110" t="n">
-        <v>1541897.528</v>
+        <v>2159794.460852713</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4278,34 +4375,35 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>12.6</v>
+        <v>13.3</v>
       </c>
       <c r="C111" t="n">
-        <v>12.6</v>
+        <v>13.2</v>
       </c>
       <c r="D111" t="n">
-        <v>12.6</v>
+        <v>13.3</v>
       </c>
       <c r="E111" t="n">
-        <v>12.6</v>
+        <v>13.2</v>
       </c>
       <c r="F111" t="n">
-        <v>157512.9023</v>
+        <v>75164.66160000001</v>
       </c>
       <c r="G111" t="n">
-        <v>1384384.6257</v>
+        <v>2159794.460852713</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4313,34 +4411,35 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>12.6</v>
+        <v>13.2</v>
       </c>
       <c r="C112" t="n">
-        <v>12.6</v>
+        <v>13.2</v>
       </c>
       <c r="D112" t="n">
-        <v>12.6</v>
+        <v>13.2</v>
       </c>
       <c r="E112" t="n">
-        <v>12.6</v>
+        <v>13.2</v>
       </c>
       <c r="F112" t="n">
-        <v>6100.5121</v>
+        <v>110000</v>
       </c>
       <c r="G112" t="n">
-        <v>1384384.6257</v>
+        <v>2159794.460852713</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4348,34 +4447,35 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>12.6</v>
+        <v>13.2</v>
       </c>
       <c r="C113" t="n">
-        <v>12.6</v>
+        <v>13.2</v>
       </c>
       <c r="D113" t="n">
-        <v>12.6</v>
+        <v>13.2</v>
       </c>
       <c r="E113" t="n">
-        <v>12.6</v>
+        <v>13.2</v>
       </c>
       <c r="F113" t="n">
-        <v>247.4766</v>
+        <v>129901.7045</v>
       </c>
       <c r="G113" t="n">
-        <v>1384384.6257</v>
+        <v>2159794.460852713</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4383,34 +4483,35 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>12.6</v>
+        <v>13.3</v>
       </c>
       <c r="C114" t="n">
-        <v>12.6</v>
+        <v>13.3</v>
       </c>
       <c r="D114" t="n">
-        <v>12.6</v>
+        <v>13.3</v>
       </c>
       <c r="E114" t="n">
-        <v>12.6</v>
+        <v>13.3</v>
       </c>
       <c r="F114" t="n">
-        <v>60648.1731</v>
+        <v>149442.6315</v>
       </c>
       <c r="G114" t="n">
-        <v>1384384.6257</v>
+        <v>2309237.092352713</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4418,34 +4519,35 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>12.7</v>
+        <v>13.1</v>
       </c>
       <c r="C115" t="n">
-        <v>12.5</v>
+        <v>13.1</v>
       </c>
       <c r="D115" t="n">
-        <v>12.7</v>
+        <v>13.1</v>
       </c>
       <c r="E115" t="n">
-        <v>12.5</v>
+        <v>13.1</v>
       </c>
       <c r="F115" t="n">
-        <v>343</v>
+        <v>85.0733</v>
       </c>
       <c r="G115" t="n">
-        <v>1384041.6257</v>
+        <v>2309152.019052714</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4453,34 +4555,35 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="C116" t="n">
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="D116" t="n">
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="E116" t="n">
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="F116" t="n">
-        <v>333</v>
+        <v>42733</v>
       </c>
       <c r="G116" t="n">
-        <v>1384374.6257</v>
+        <v>2351885.019052714</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4488,1476 +4591,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C117" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D117" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E117" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F117" t="n">
-        <v>103</v>
-      </c>
-      <c r="G117" t="n">
-        <v>1384374.6257</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C118" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D118" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E118" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F118" t="n">
-        <v>29361.0188</v>
-      </c>
-      <c r="G118" t="n">
-        <v>1384374.6257</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C119" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D119" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E119" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F119" t="n">
-        <v>10</v>
-      </c>
-      <c r="G119" t="n">
-        <v>1384364.6257</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C120" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D120" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E120" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F120" t="n">
-        <v>17.5781</v>
-      </c>
-      <c r="G120" t="n">
-        <v>1384382.2038</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C121" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D121" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E121" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F121" t="n">
-        <v>10</v>
-      </c>
-      <c r="G121" t="n">
-        <v>1384372.2038</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C122" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D122" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E122" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F122" t="n">
-        <v>15718.0468</v>
-      </c>
-      <c r="G122" t="n">
-        <v>1400090.2506</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C123" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D123" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E123" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F123" t="n">
-        <v>10</v>
-      </c>
-      <c r="G123" t="n">
-        <v>1400080.2506</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C124" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D124" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E124" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F124" t="n">
-        <v>42500</v>
-      </c>
-      <c r="G124" t="n">
-        <v>1400080.2506</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C125" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D125" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E125" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F125" t="n">
-        <v>11</v>
-      </c>
-      <c r="G125" t="n">
-        <v>1400091.2506</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C126" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D126" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="E126" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F126" t="n">
-        <v>349065.4574</v>
-      </c>
-      <c r="G126" t="n">
-        <v>1749156.708</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C127" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D127" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="E127" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F127" t="n">
-        <v>843275.8297</v>
-      </c>
-      <c r="G127" t="n">
-        <v>1749156.708</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="C128" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D128" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="E128" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F128" t="n">
-        <v>50240.8115</v>
-      </c>
-      <c r="G128" t="n">
-        <v>1749156.708</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>13</v>
-      </c>
-      <c r="C129" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D129" t="n">
-        <v>13</v>
-      </c>
-      <c r="E129" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F129" t="n">
-        <v>19017.6456</v>
-      </c>
-      <c r="G129" t="n">
-        <v>1730139.0624</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C130" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D130" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E130" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F130" t="n">
-        <v>52789.1217</v>
-      </c>
-      <c r="G130" t="n">
-        <v>1730139.0624</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C131" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D131" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E131" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F131" t="n">
-        <v>54000</v>
-      </c>
-      <c r="G131" t="n">
-        <v>1784139.0624</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C132" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D132" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E132" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F132" t="n">
-        <v>10</v>
-      </c>
-      <c r="G132" t="n">
-        <v>1784129.0624</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C133" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D133" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E133" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F133" t="n">
-        <v>119468.3682</v>
-      </c>
-      <c r="G133" t="n">
-        <v>1784129.0624</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C134" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D134" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E134" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F134" t="n">
-        <v>9447.2006</v>
-      </c>
-      <c r="G134" t="n">
-        <v>1784129.0624</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C135" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D135" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E135" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F135" t="n">
-        <v>11</v>
-      </c>
-      <c r="G135" t="n">
-        <v>1784140.0624</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C136" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D136" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E136" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F136" t="n">
-        <v>155688.1737</v>
-      </c>
-      <c r="G136" t="n">
-        <v>1628451.8887</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C137" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D137" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E137" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F137" t="n">
-        <v>10</v>
-      </c>
-      <c r="G137" t="n">
-        <v>1628441.8887</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C138" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D138" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E138" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F138" t="n">
-        <v>155782.1930527132</v>
-      </c>
-      <c r="G138" t="n">
-        <v>1784224.081752713</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C139" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D139" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E139" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1162.2265</v>
-      </c>
-      <c r="G139" t="n">
-        <v>1783061.855252713</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C140" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D140" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E140" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F140" t="n">
-        <v>262.1796</v>
-      </c>
-      <c r="G140" t="n">
-        <v>1783061.855252713</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C141" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D141" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E141" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F141" t="n">
-        <v>5345.5078</v>
-      </c>
-      <c r="G141" t="n">
-        <v>1783061.855252713</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C142" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D142" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E142" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F142" t="n">
-        <v>148918.4711</v>
-      </c>
-      <c r="G142" t="n">
-        <v>1783061.855252713</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C143" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D143" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E143" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F143" t="n">
-        <v>29667.3643</v>
-      </c>
-      <c r="G143" t="n">
-        <v>1812729.219552713</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C144" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D144" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E144" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F144" t="n">
-        <v>78588.31164728683</v>
-      </c>
-      <c r="G144" t="n">
-        <v>1812729.219552713</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>13</v>
-      </c>
-      <c r="C145" t="n">
-        <v>13</v>
-      </c>
-      <c r="D145" t="n">
-        <v>13</v>
-      </c>
-      <c r="E145" t="n">
-        <v>13</v>
-      </c>
-      <c r="F145" t="n">
-        <v>92304.6924</v>
-      </c>
-      <c r="G145" t="n">
-        <v>1905033.911952713</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="C146" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D146" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="E146" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F146" t="n">
-        <v>101544.1719</v>
-      </c>
-      <c r="G146" t="n">
-        <v>2006578.083852713</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C147" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D147" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E147" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F147" t="n">
-        <v>48488.409</v>
-      </c>
-      <c r="G147" t="n">
-        <v>2055066.492852713</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>13</v>
-      </c>
-      <c r="C148" t="n">
-        <v>13</v>
-      </c>
-      <c r="D148" t="n">
-        <v>13</v>
-      </c>
-      <c r="E148" t="n">
-        <v>13</v>
-      </c>
-      <c r="F148" t="n">
-        <v>10</v>
-      </c>
-      <c r="G148" t="n">
-        <v>2055056.492852713</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="C149" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D149" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="E149" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F149" t="n">
-        <v>41159.8091</v>
-      </c>
-      <c r="G149" t="n">
-        <v>2096216.301952713</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="C150" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D150" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="E150" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F150" t="n">
-        <v>98787.57180000001</v>
-      </c>
-      <c r="G150" t="n">
-        <v>2096216.301952713</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="C151" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D151" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="E151" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F151" t="n">
-        <v>457083.9844</v>
-      </c>
-      <c r="G151" t="n">
-        <v>2096216.301952713</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C152" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D152" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E152" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F152" t="n">
-        <v>63578.1589</v>
-      </c>
-      <c r="G152" t="n">
-        <v>2159794.460852713</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C153" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D153" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E153" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F153" t="n">
-        <v>75164.66160000001</v>
-      </c>
-      <c r="G153" t="n">
-        <v>2159794.460852713</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C154" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D154" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E154" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F154" t="n">
-        <v>110000</v>
-      </c>
-      <c r="G154" t="n">
-        <v>2159794.460852713</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C155" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D155" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E155" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F155" t="n">
-        <v>129901.7045</v>
-      </c>
-      <c r="G155" t="n">
-        <v>2159794.460852713</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C156" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D156" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E156" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F156" t="n">
-        <v>149442.6315</v>
-      </c>
-      <c r="G156" t="n">
-        <v>2309237.092352713</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="C157" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D157" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="E157" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F157" t="n">
-        <v>85.0733</v>
-      </c>
-      <c r="G157" t="n">
-        <v>2309152.019052714</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C158" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D158" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E158" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F158" t="n">
-        <v>42733</v>
-      </c>
-      <c r="G158" t="n">
-        <v>2351885.019052714</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
+      <c r="N116" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-25 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-25 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="F2" t="n">
-        <v>74942.8033</v>
+        <v>101490.2504</v>
       </c>
       <c r="G2" t="n">
-        <v>1474172.9296</v>
+        <v>855131.9522000002</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="C3" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="D3" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="E3" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="F3" t="n">
-        <v>1000</v>
+        <v>1842.9105</v>
       </c>
       <c r="G3" t="n">
-        <v>1473172.9296</v>
+        <v>855131.9522000002</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="C4" t="n">
-        <v>13.1</v>
+        <v>12.3</v>
       </c>
       <c r="D4" t="n">
-        <v>13.1</v>
+        <v>12.3</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="F4" t="n">
-        <v>62690.4228</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>1535863.3524</v>
+        <v>855121.9522000002</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="F5" t="n">
-        <v>67952.5481</v>
+        <v>28477.0231</v>
       </c>
       <c r="G5" t="n">
-        <v>1467910.8043</v>
+        <v>855121.9522000002</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="D6" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="F6" t="n">
-        <v>32047.4519</v>
+        <v>100000</v>
       </c>
       <c r="G6" t="n">
-        <v>1467910.8043</v>
+        <v>955121.9522000002</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.1</v>
+        <v>12.3</v>
       </c>
       <c r="C7" t="n">
-        <v>13.1</v>
+        <v>12.3</v>
       </c>
       <c r="D7" t="n">
-        <v>13.1</v>
+        <v>12.3</v>
       </c>
       <c r="E7" t="n">
-        <v>13.1</v>
+        <v>12.3</v>
       </c>
       <c r="F7" t="n">
-        <v>3120</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>1471030.8043</v>
+        <v>955111.9522000002</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.1</v>
+        <v>12.4</v>
       </c>
       <c r="C8" t="n">
-        <v>13.1</v>
+        <v>12.4</v>
       </c>
       <c r="D8" t="n">
-        <v>13.1</v>
+        <v>12.5</v>
       </c>
       <c r="E8" t="n">
-        <v>13.1</v>
+        <v>12.4</v>
       </c>
       <c r="F8" t="n">
-        <v>3130</v>
+        <v>66084.2493</v>
       </c>
       <c r="G8" t="n">
-        <v>1471030.8043</v>
+        <v>1021196.2015</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13.1</v>
+        <v>12.4</v>
       </c>
       <c r="C9" t="n">
-        <v>13.1</v>
+        <v>12.4</v>
       </c>
       <c r="D9" t="n">
-        <v>13.1</v>
+        <v>12.4</v>
       </c>
       <c r="E9" t="n">
-        <v>13.1</v>
+        <v>12.4</v>
       </c>
       <c r="F9" t="n">
-        <v>88650.78079999999</v>
+        <v>86000</v>
       </c>
       <c r="G9" t="n">
-        <v>1471030.8043</v>
+        <v>1021196.2015</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="D10" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="E10" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="F10" t="n">
-        <v>1234.8076</v>
+        <v>132432.7826</v>
       </c>
       <c r="G10" t="n">
-        <v>1469795.9967</v>
+        <v>1021196.2015</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="C11" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="D11" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="E11" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="F11" t="n">
-        <v>1373.9548</v>
+        <v>12369.2058</v>
       </c>
       <c r="G11" t="n">
-        <v>1469795.9967</v>
+        <v>1021196.2015</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="C12" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="D12" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="E12" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="F12" t="n">
-        <v>35661.1538</v>
+        <v>44076.3163</v>
       </c>
       <c r="G12" t="n">
-        <v>1505457.1505</v>
+        <v>1021196.2015</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>13.1</v>
+        <v>12.4</v>
       </c>
       <c r="C13" t="n">
-        <v>13.1</v>
+        <v>12.4</v>
       </c>
       <c r="D13" t="n">
-        <v>13.1</v>
+        <v>12.4</v>
       </c>
       <c r="E13" t="n">
-        <v>13.1</v>
+        <v>12.4</v>
       </c>
       <c r="F13" t="n">
-        <v>68.3969</v>
+        <v>10009.449</v>
       </c>
       <c r="G13" t="n">
-        <v>1505525.5474</v>
+        <v>1021196.2015</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="C14" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="F14" t="n">
-        <v>152160.8867</v>
+        <v>234183.9516</v>
       </c>
       <c r="G14" t="n">
-        <v>1353364.6607</v>
+        <v>1021196.2015</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="C15" t="n">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="D15" t="n">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="F15" t="n">
-        <v>6730.3427</v>
+        <v>55743.1811</v>
       </c>
       <c r="G15" t="n">
-        <v>1353364.6607</v>
+        <v>965453.0204000002</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="C16" t="n">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="D16" t="n">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="E16" t="n">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="F16" t="n">
-        <v>42016.0896</v>
+        <v>99324.587</v>
       </c>
       <c r="G16" t="n">
-        <v>1353364.6607</v>
+        <v>965453.0204000002</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="C17" t="n">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="D17" t="n">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="F17" t="n">
-        <v>133757.5769</v>
+        <v>75066.25780000001</v>
       </c>
       <c r="G17" t="n">
-        <v>1353364.6607</v>
+        <v>965453.0204000002</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="C18" t="n">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="D18" t="n">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="E18" t="n">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="F18" t="n">
-        <v>23510</v>
+        <v>110173.3117</v>
       </c>
       <c r="G18" t="n">
-        <v>1353364.6607</v>
+        <v>965453.0204000002</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>12.2</v>
       </c>
       <c r="C19" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="D19" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="E19" t="n">
-        <v>12.9</v>
+        <v>12.2</v>
       </c>
       <c r="F19" t="n">
-        <v>105696.4322</v>
+        <v>57375.0132</v>
       </c>
       <c r="G19" t="n">
-        <v>1247668.2285</v>
+        <v>1022828.0336</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="C20" t="n">
-        <v>13.2</v>
+        <v>12.3</v>
       </c>
       <c r="D20" t="n">
-        <v>13.2</v>
+        <v>12.3</v>
       </c>
       <c r="E20" t="n">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="F20" t="n">
-        <v>80247.5678</v>
+        <v>26409.9656</v>
       </c>
       <c r="G20" t="n">
-        <v>1327915.7963</v>
+        <v>996418.0680000002</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="C21" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="D21" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="E21" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="F21" t="n">
-        <v>13310</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>1314605.7963</v>
+        <v>996428.0680000002</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12.9</v>
+        <v>12.3</v>
       </c>
       <c r="C22" t="n">
-        <v>12.9</v>
+        <v>12.3</v>
       </c>
       <c r="D22" t="n">
-        <v>12.9</v>
+        <v>12.3</v>
       </c>
       <c r="E22" t="n">
-        <v>12.9</v>
+        <v>12.3</v>
       </c>
       <c r="F22" t="n">
-        <v>27790.6117</v>
+        <v>29797.3761</v>
       </c>
       <c r="G22" t="n">
-        <v>1286815.1846</v>
+        <v>966630.6919000002</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>12.9</v>
+        <v>12.3</v>
       </c>
       <c r="C23" t="n">
-        <v>12.9</v>
+        <v>12.2</v>
       </c>
       <c r="D23" t="n">
-        <v>12.9</v>
+        <v>12.3</v>
       </c>
       <c r="E23" t="n">
-        <v>12.9</v>
+        <v>12.2</v>
       </c>
       <c r="F23" t="n">
-        <v>32807.88</v>
+        <v>196980.1343</v>
       </c>
       <c r="G23" t="n">
-        <v>1286815.1846</v>
+        <v>769650.5576000002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>13.2</v>
+        <v>12.2</v>
       </c>
       <c r="C24" t="n">
-        <v>13.2</v>
+        <v>12.2</v>
       </c>
       <c r="D24" t="n">
-        <v>13.2</v>
+        <v>12.2</v>
       </c>
       <c r="E24" t="n">
-        <v>13.2</v>
+        <v>12.2</v>
       </c>
       <c r="F24" t="n">
-        <v>1800.1515</v>
+        <v>120679.3732</v>
       </c>
       <c r="G24" t="n">
-        <v>1288615.3361</v>
+        <v>769650.5576000002</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>13</v>
+        <v>12.2</v>
       </c>
       <c r="C25" t="n">
-        <v>13</v>
+        <v>12.2</v>
       </c>
       <c r="D25" t="n">
-        <v>13</v>
+        <v>12.2</v>
       </c>
       <c r="E25" t="n">
-        <v>13</v>
+        <v>12.2</v>
       </c>
       <c r="F25" t="n">
-        <v>462.7485</v>
+        <v>120679.3733</v>
       </c>
       <c r="G25" t="n">
-        <v>1288152.5876</v>
+        <v>769650.5576000002</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12.9</v>
+        <v>12.2</v>
       </c>
       <c r="C26" t="n">
-        <v>12.9</v>
+        <v>12.2</v>
       </c>
       <c r="D26" t="n">
-        <v>12.9</v>
+        <v>12.2</v>
       </c>
       <c r="E26" t="n">
-        <v>12.9</v>
+        <v>12.2</v>
       </c>
       <c r="F26" t="n">
-        <v>41068.0928</v>
+        <v>100000</v>
       </c>
       <c r="G26" t="n">
-        <v>1247084.4948</v>
+        <v>769650.5576000002</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="C27" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="D27" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="E27" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="F27" t="n">
-        <v>3273.0232</v>
+        <v>44892.5806</v>
       </c>
       <c r="G27" t="n">
-        <v>1247084.4948</v>
+        <v>814543.1382000002</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="C28" t="n">
-        <v>12.9</v>
+        <v>12.3</v>
       </c>
       <c r="D28" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="E28" t="n">
-        <v>12.9</v>
+        <v>12.3</v>
       </c>
       <c r="F28" t="n">
-        <v>78131.41009999999</v>
+        <v>149500</v>
       </c>
       <c r="G28" t="n">
-        <v>1247084.4948</v>
+        <v>665043.1382000002</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,32 +1410,38 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="C29" t="n">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="D29" t="n">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="E29" t="n">
-        <v>12.8</v>
+        <v>12.2</v>
       </c>
       <c r="F29" t="n">
-        <v>188994.1982</v>
+        <v>158510</v>
       </c>
       <c r="G29" t="n">
-        <v>1058090.2966</v>
+        <v>665043.1382000002</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>12.3</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,32 +1452,38 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>12.9</v>
+        <v>12.2</v>
       </c>
       <c r="C30" t="n">
-        <v>12.9</v>
+        <v>12.2</v>
       </c>
       <c r="D30" t="n">
-        <v>12.9</v>
+        <v>12.3</v>
       </c>
       <c r="E30" t="n">
-        <v>12.9</v>
+        <v>12.2</v>
       </c>
       <c r="F30" t="n">
-        <v>1208706</v>
+        <v>4020</v>
       </c>
       <c r="G30" t="n">
-        <v>2266796.2966</v>
+        <v>661023.1382000002</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>12.3</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,32 +1494,38 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>12.8</v>
+        <v>12.2</v>
       </c>
       <c r="C31" t="n">
-        <v>12.8</v>
+        <v>12.2</v>
       </c>
       <c r="D31" t="n">
-        <v>12.8</v>
+        <v>12.2</v>
       </c>
       <c r="E31" t="n">
-        <v>12.8</v>
+        <v>12.2</v>
       </c>
       <c r="F31" t="n">
-        <v>41276.12</v>
+        <v>184397.2014</v>
       </c>
       <c r="G31" t="n">
-        <v>2225520.1766</v>
+        <v>661023.1382000002</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,32 +1536,38 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>12.9</v>
+        <v>12.2</v>
       </c>
       <c r="C32" t="n">
-        <v>12.9</v>
+        <v>12.2</v>
       </c>
       <c r="D32" t="n">
-        <v>12.9</v>
+        <v>12.2</v>
       </c>
       <c r="E32" t="n">
-        <v>12.9</v>
+        <v>12.2</v>
       </c>
       <c r="F32" t="n">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="G32" t="n">
-        <v>2225620.1766</v>
+        <v>661023.1382000002</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,32 +1578,38 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="C33" t="n">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="D33" t="n">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="E33" t="n">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="F33" t="n">
-        <v>811.0278</v>
+        <v>53386.6397</v>
       </c>
       <c r="G33" t="n">
-        <v>2224809.1488</v>
+        <v>714409.7779000001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,32 +1620,38 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="C34" t="n">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="D34" t="n">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="E34" t="n">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="F34" t="n">
-        <v>44909.6763</v>
+        <v>16870</v>
       </c>
       <c r="G34" t="n">
-        <v>2224809.1488</v>
+        <v>714409.7779000001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>12.3</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,32 +1662,38 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>12.9</v>
+        <v>12.3</v>
       </c>
       <c r="C35" t="n">
-        <v>12.9</v>
+        <v>12.3</v>
       </c>
       <c r="D35" t="n">
-        <v>12.9</v>
+        <v>12.3</v>
       </c>
       <c r="E35" t="n">
-        <v>12.9</v>
+        <v>12.3</v>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>63000</v>
       </c>
       <c r="G35" t="n">
-        <v>2224909.1488</v>
+        <v>714409.7779000001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>12.3</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,32 +1704,38 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="C36" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="D36" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="E36" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="F36" t="n">
-        <v>2792.0636</v>
+        <v>12670</v>
       </c>
       <c r="G36" t="n">
-        <v>2222117.0852</v>
+        <v>727079.7779000001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>12.3</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,32 +1746,38 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="C37" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="D37" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="E37" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="F37" t="n">
-        <v>65000.41</v>
+        <v>2914.9193</v>
       </c>
       <c r="G37" t="n">
-        <v>2222117.0852</v>
+        <v>727079.7779000001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>12.4</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,32 +1788,38 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="C38" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="D38" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="E38" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="F38" t="n">
-        <v>10</v>
+        <v>105972.4801</v>
       </c>
       <c r="G38" t="n">
-        <v>2222127.0852</v>
+        <v>833052.2580000001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>12.4</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,22 +1830,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="C39" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="D39" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="E39" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="F39" t="n">
-        <v>274.031</v>
+        <v>224845.6266</v>
       </c>
       <c r="G39" t="n">
-        <v>2222127.0852</v>
+        <v>1057897.8846</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1795,7 +1855,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,22 +1870,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="C40" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="D40" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="E40" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="F40" t="n">
-        <v>223570.5952</v>
+        <v>41562.7605</v>
       </c>
       <c r="G40" t="n">
-        <v>1998556.49</v>
+        <v>1057897.8846</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1831,7 +1895,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,7 +1910,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="C41" t="n">
         <v>12.7</v>
@@ -1851,13 +1919,13 @@
         <v>12.7</v>
       </c>
       <c r="E41" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="F41" t="n">
-        <v>20680.0448</v>
+        <v>81963.9553</v>
       </c>
       <c r="G41" t="n">
-        <v>1977876.4452</v>
+        <v>1139861.8399</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1867,7 +1935,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1890,10 +1962,10 @@
         <v>12.7</v>
       </c>
       <c r="F42" t="n">
-        <v>80343.5772</v>
+        <v>189656.3051</v>
       </c>
       <c r="G42" t="n">
-        <v>1977876.4452</v>
+        <v>1139861.8399</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1903,7 +1975,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,22 +1990,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="C43" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="D43" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="E43" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="F43" t="n">
-        <v>160000</v>
+        <v>6741.2201</v>
       </c>
       <c r="G43" t="n">
-        <v>1977876.4452</v>
+        <v>1146603.06</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1939,7 +2015,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,22 +2030,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="C44" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="D44" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="E44" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="F44" t="n">
-        <v>44808</v>
+        <v>199010.7049</v>
       </c>
       <c r="G44" t="n">
-        <v>1933068.4452</v>
+        <v>1146603.06</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1975,7 +2055,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,22 +2070,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="C45" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="D45" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="E45" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="F45" t="n">
-        <v>148076.6546</v>
+        <v>61958.7063</v>
       </c>
       <c r="G45" t="n">
-        <v>1933068.4452</v>
+        <v>1208561.7663</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2011,7 +2095,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2022,22 +2110,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="C46" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="D46" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="E46" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="F46" t="n">
-        <v>29717.8435</v>
+        <v>25449.6923</v>
       </c>
       <c r="G46" t="n">
-        <v>1962786.2887</v>
+        <v>1208561.7663</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2047,7 +2135,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2058,22 +2150,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="C47" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="D47" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="E47" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="F47" t="n">
-        <v>10980</v>
+        <v>13591.6014</v>
       </c>
       <c r="G47" t="n">
-        <v>1962786.2887</v>
+        <v>1208561.7663</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2083,7 +2175,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2094,22 +2190,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>12.6</v>
+        <v>13.1</v>
       </c>
       <c r="C48" t="n">
-        <v>12.6</v>
+        <v>13.2</v>
       </c>
       <c r="D48" t="n">
-        <v>12.6</v>
+        <v>13.2</v>
       </c>
       <c r="E48" t="n">
-        <v>12.6</v>
+        <v>13.1</v>
       </c>
       <c r="F48" t="n">
-        <v>150917.381</v>
+        <v>155943.1523</v>
       </c>
       <c r="G48" t="n">
-        <v>1811868.9077</v>
+        <v>1364504.9186</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2119,7 +2215,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2130,22 +2230,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="C49" t="n">
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="D49" t="n">
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="E49" t="n">
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="F49" t="n">
-        <v>10</v>
+        <v>105833.26</v>
       </c>
       <c r="G49" t="n">
-        <v>1811878.9077</v>
+        <v>1364504.9186</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2155,7 +2255,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2166,22 +2270,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>12.5</v>
+        <v>13.2</v>
       </c>
       <c r="C50" t="n">
-        <v>12.5</v>
+        <v>13.2</v>
       </c>
       <c r="D50" t="n">
-        <v>12.5</v>
+        <v>13.2</v>
       </c>
       <c r="E50" t="n">
-        <v>12.5</v>
+        <v>13.2</v>
       </c>
       <c r="F50" t="n">
-        <v>1863.5706</v>
+        <v>30000</v>
       </c>
       <c r="G50" t="n">
-        <v>1810015.3371</v>
+        <v>1364504.9186</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2191,7 +2295,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2202,36 +2310,36 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>12.6</v>
+        <v>13.2</v>
       </c>
       <c r="C51" t="n">
-        <v>12.6</v>
+        <v>13.2</v>
       </c>
       <c r="D51" t="n">
-        <v>12.6</v>
+        <v>13.2</v>
       </c>
       <c r="E51" t="n">
-        <v>12.6</v>
+        <v>13.2</v>
       </c>
       <c r="F51" t="n">
-        <v>21000</v>
+        <v>4000</v>
       </c>
       <c r="G51" t="n">
-        <v>1831015.3371</v>
+        <v>1364504.9186</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K51" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2242,38 +2350,34 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>12.8</v>
+        <v>13.2</v>
       </c>
       <c r="C52" t="n">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="D52" t="n">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="E52" t="n">
-        <v>12.8</v>
+        <v>13.2</v>
       </c>
       <c r="F52" t="n">
-        <v>200000</v>
+        <v>155</v>
       </c>
       <c r="G52" t="n">
-        <v>2031015.3371</v>
+        <v>1364504.9186</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K52" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M52" t="n">
@@ -2286,38 +2390,34 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="C53" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D53" t="n">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="E53" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F53" t="n">
-        <v>12153</v>
+        <v>775.6825</v>
       </c>
       <c r="G53" t="n">
-        <v>2031015.3371</v>
+        <v>1363729.2361</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="K53" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M53" t="n">
@@ -2330,22 +2430,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="C54" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="D54" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="E54" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="F54" t="n">
-        <v>138944.2598</v>
+        <v>450.0789</v>
       </c>
       <c r="G54" t="n">
-        <v>1892071.0773</v>
+        <v>1363279.1572</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2355,7 +2455,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2366,22 +2470,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>12.6</v>
+        <v>13.1</v>
       </c>
       <c r="C55" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="D55" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="E55" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="F55" t="n">
-        <v>2631.2653</v>
+        <v>75123.66869999999</v>
       </c>
       <c r="G55" t="n">
-        <v>1894702.3426</v>
+        <v>1438402.8259</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2391,7 +2495,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2402,22 +2510,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="C56" t="n">
-        <v>12.8</v>
+        <v>13.3</v>
       </c>
       <c r="D56" t="n">
-        <v>12.8</v>
+        <v>13.3</v>
       </c>
       <c r="E56" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="F56" t="n">
-        <v>234.375</v>
+        <v>71183.61079999999</v>
       </c>
       <c r="G56" t="n">
-        <v>1894702.3426</v>
+        <v>1509586.4367</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2427,7 +2535,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2438,22 +2550,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="C57" t="n">
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="D57" t="n">
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="E57" t="n">
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="F57" t="n">
-        <v>134871.1525</v>
+        <v>14688</v>
       </c>
       <c r="G57" t="n">
-        <v>1759831.1901</v>
+        <v>1494898.4367</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2463,7 +2575,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2474,22 +2590,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="C58" t="n">
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="D58" t="n">
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="E58" t="n">
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="F58" t="n">
-        <v>157214.7358</v>
+        <v>8082</v>
       </c>
       <c r="G58" t="n">
-        <v>1759831.1901</v>
+        <v>1494898.4367</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2499,7 +2615,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2510,22 +2630,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>12.8</v>
+        <v>13.2</v>
       </c>
       <c r="C59" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="D59" t="n">
-        <v>12.8</v>
+        <v>13.2</v>
       </c>
       <c r="E59" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="F59" t="n">
-        <v>10294.9218</v>
+        <v>27745</v>
       </c>
       <c r="G59" t="n">
-        <v>1770126.1119</v>
+        <v>1467153.4367</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2535,7 +2655,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2546,22 +2670,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="C60" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="D60" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="E60" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="F60" t="n">
-        <v>38000</v>
+        <v>67466.4253</v>
       </c>
       <c r="G60" t="n">
-        <v>1770126.1119</v>
+        <v>1467153.4367</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2571,7 +2695,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2582,22 +2710,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="C61" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="D61" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="E61" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="F61" t="n">
-        <v>659.338</v>
+        <v>69752.07150000001</v>
       </c>
       <c r="G61" t="n">
-        <v>1770126.1119</v>
+        <v>1397401.3652</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2607,7 +2735,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2618,22 +2750,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="C62" t="n">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="D62" t="n">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="E62" t="n">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="F62" t="n">
-        <v>22000</v>
+        <v>4490</v>
       </c>
       <c r="G62" t="n">
-        <v>1792126.1119</v>
+        <v>1401891.3652</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2643,7 +2775,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2654,22 +2790,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="C63" t="n">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="D63" t="n">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="E63" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="F63" t="n">
-        <v>330</v>
+        <v>43821.0969</v>
       </c>
       <c r="G63" t="n">
-        <v>1792126.1119</v>
+        <v>1401891.3652</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2679,7 +2815,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2690,35 +2830,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="C64" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="D64" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="E64" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="F64" t="n">
-        <v>41480.2325</v>
+        <v>9495.374900000001</v>
       </c>
       <c r="G64" t="n">
-        <v>1792126.1119</v>
+        <v>1392395.9903</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
@@ -2726,22 +2868,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="C65" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="D65" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="E65" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="F65" t="n">
-        <v>1030</v>
+        <v>12912.4804</v>
       </c>
       <c r="G65" t="n">
-        <v>1791096.1119</v>
+        <v>1392395.9903</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2762,22 +2904,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="C66" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="D66" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="E66" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="F66" t="n">
-        <v>266611.9697</v>
+        <v>4190</v>
       </c>
       <c r="G66" t="n">
-        <v>1524484.1422</v>
+        <v>1388205.9903</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2798,22 +2940,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="C67" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="D67" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="E67" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="F67" t="n">
-        <v>77406.746</v>
+        <v>11</v>
       </c>
       <c r="G67" t="n">
-        <v>1524484.1422</v>
+        <v>1388216.9903</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2834,28 +2976,28 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="C68" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="D68" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="E68" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="F68" t="n">
-        <v>17413.3858</v>
+        <v>45000</v>
       </c>
       <c r="G68" t="n">
-        <v>1541897.528</v>
+        <v>1388216.9903</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2870,22 +3012,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="C69" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="D69" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="E69" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="F69" t="n">
-        <v>157512.9023</v>
+        <v>3501.534</v>
       </c>
       <c r="G69" t="n">
-        <v>1384384.6257</v>
+        <v>1384715.4563</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2906,22 +3048,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="C70" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="D70" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="E70" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="F70" t="n">
-        <v>6100.5121</v>
+        <v>36652.7815</v>
       </c>
       <c r="G70" t="n">
-        <v>1384384.6257</v>
+        <v>1421368.2378</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2942,22 +3084,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="C71" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="D71" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="E71" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="F71" t="n">
-        <v>247.4766</v>
+        <v>2363.5355</v>
       </c>
       <c r="G71" t="n">
-        <v>1384384.6257</v>
+        <v>1419004.7023</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2978,22 +3120,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="C72" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="D72" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="E72" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="F72" t="n">
-        <v>60648.1731</v>
+        <v>55168.2273</v>
       </c>
       <c r="G72" t="n">
-        <v>1384384.6257</v>
+        <v>1474172.9296</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3014,22 +3156,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="C73" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="D73" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="E73" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="F73" t="n">
-        <v>343</v>
+        <v>74942.8033</v>
       </c>
       <c r="G73" t="n">
-        <v>1384041.6257</v>
+        <v>1474172.9296</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3050,22 +3192,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="C74" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="D74" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="E74" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="F74" t="n">
-        <v>333</v>
+        <v>1000</v>
       </c>
       <c r="G74" t="n">
-        <v>1384374.6257</v>
+        <v>1473172.9296</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3086,22 +3228,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="C75" t="n">
-        <v>12.7</v>
+        <v>13.1</v>
       </c>
       <c r="D75" t="n">
-        <v>12.7</v>
+        <v>13.1</v>
       </c>
       <c r="E75" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="F75" t="n">
-        <v>103</v>
+        <v>62690.4228</v>
       </c>
       <c r="G75" t="n">
-        <v>1384374.6257</v>
+        <v>1535863.3524</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3122,22 +3264,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="C76" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="D76" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="E76" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="F76" t="n">
-        <v>29361.0188</v>
+        <v>67952.5481</v>
       </c>
       <c r="G76" t="n">
-        <v>1384374.6257</v>
+        <v>1467910.8043</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3158,22 +3300,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="C77" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="D77" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="E77" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="F77" t="n">
-        <v>10</v>
+        <v>32047.4519</v>
       </c>
       <c r="G77" t="n">
-        <v>1384364.6257</v>
+        <v>1467910.8043</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3194,22 +3336,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="C78" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="D78" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="E78" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="F78" t="n">
-        <v>17.5781</v>
+        <v>3120</v>
       </c>
       <c r="G78" t="n">
-        <v>1384382.2038</v>
+        <v>1471030.8043</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3230,28 +3372,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>12.6</v>
+        <v>13.1</v>
       </c>
       <c r="C79" t="n">
-        <v>12.6</v>
+        <v>13.1</v>
       </c>
       <c r="D79" t="n">
-        <v>12.6</v>
+        <v>13.1</v>
       </c>
       <c r="E79" t="n">
-        <v>12.6</v>
+        <v>13.1</v>
       </c>
       <c r="F79" t="n">
-        <v>10</v>
+        <v>3130</v>
       </c>
       <c r="G79" t="n">
-        <v>1384372.2038</v>
+        <v>1471030.8043</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3266,28 +3408,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="C80" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="D80" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="E80" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="F80" t="n">
-        <v>15718.0468</v>
+        <v>88650.78079999999</v>
       </c>
       <c r="G80" t="n">
-        <v>1400090.2506</v>
+        <v>1471030.8043</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3302,28 +3444,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="C81" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="D81" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="E81" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="F81" t="n">
-        <v>10</v>
+        <v>1234.8076</v>
       </c>
       <c r="G81" t="n">
-        <v>1400080.2506</v>
+        <v>1469795.9967</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3338,22 +3480,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="C82" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="D82" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="E82" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="F82" t="n">
-        <v>42500</v>
+        <v>1373.9548</v>
       </c>
       <c r="G82" t="n">
-        <v>1400080.2506</v>
+        <v>1469795.9967</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3374,22 +3516,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="C83" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="D83" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="E83" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="F83" t="n">
-        <v>11</v>
+        <v>35661.1538</v>
       </c>
       <c r="G83" t="n">
-        <v>1400091.2506</v>
+        <v>1505457.1505</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3410,7 +3552,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="C84" t="n">
         <v>13.1</v>
@@ -3419,13 +3561,13 @@
         <v>13.1</v>
       </c>
       <c r="E84" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="F84" t="n">
-        <v>349065.4574</v>
+        <v>68.3969</v>
       </c>
       <c r="G84" t="n">
-        <v>1749156.708</v>
+        <v>1505525.5474</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3446,22 +3588,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C85" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D85" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E85" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F85" t="n">
-        <v>843275.8297</v>
+        <v>152160.8867</v>
       </c>
       <c r="G85" t="n">
-        <v>1749156.708</v>
+        <v>1353364.6607</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3482,22 +3624,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C86" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D86" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E86" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F86" t="n">
-        <v>50240.8115</v>
+        <v>6730.3427</v>
       </c>
       <c r="G86" t="n">
-        <v>1749156.708</v>
+        <v>1353364.6607</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3521,19 +3663,19 @@
         <v>13</v>
       </c>
       <c r="C87" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="D87" t="n">
         <v>13</v>
       </c>
       <c r="E87" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="F87" t="n">
-        <v>19017.6456</v>
+        <v>42016.0896</v>
       </c>
       <c r="G87" t="n">
-        <v>1730139.0624</v>
+        <v>1353364.6607</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3554,22 +3696,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="C88" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="D88" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="E88" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="F88" t="n">
-        <v>52789.1217</v>
+        <v>133757.5769</v>
       </c>
       <c r="G88" t="n">
-        <v>1730139.0624</v>
+        <v>1353364.6607</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3590,22 +3732,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C89" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D89" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E89" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F89" t="n">
-        <v>54000</v>
+        <v>23510</v>
       </c>
       <c r="G89" t="n">
-        <v>1784139.0624</v>
+        <v>1353364.6607</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3626,22 +3768,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="C90" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D90" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="E90" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F90" t="n">
-        <v>10</v>
+        <v>105696.4322</v>
       </c>
       <c r="G90" t="n">
-        <v>1784129.0624</v>
+        <v>1247668.2285</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3662,22 +3804,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="C91" t="n">
-        <v>12.8</v>
+        <v>13.2</v>
       </c>
       <c r="D91" t="n">
-        <v>12.8</v>
+        <v>13.2</v>
       </c>
       <c r="E91" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="F91" t="n">
-        <v>119468.3682</v>
+        <v>80247.5678</v>
       </c>
       <c r="G91" t="n">
-        <v>1784129.0624</v>
+        <v>1327915.7963</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3698,22 +3840,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="C92" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="D92" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="E92" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="F92" t="n">
-        <v>9447.2006</v>
+        <v>13310</v>
       </c>
       <c r="G92" t="n">
-        <v>1784129.0624</v>
+        <v>1314605.7963</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3746,10 +3888,10 @@
         <v>12.9</v>
       </c>
       <c r="F93" t="n">
-        <v>11</v>
+        <v>27790.6117</v>
       </c>
       <c r="G93" t="n">
-        <v>1784140.0624</v>
+        <v>1286815.1846</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3770,22 +3912,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C94" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D94" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E94" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F94" t="n">
-        <v>155688.1737</v>
+        <v>32807.88</v>
       </c>
       <c r="G94" t="n">
-        <v>1628451.8887</v>
+        <v>1286815.1846</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3806,22 +3948,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="C95" t="n">
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="D95" t="n">
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="E95" t="n">
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="F95" t="n">
-        <v>10</v>
+        <v>1800.1515</v>
       </c>
       <c r="G95" t="n">
-        <v>1628441.8887</v>
+        <v>1288615.3361</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3842,22 +3984,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="C96" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D96" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E96" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="F96" t="n">
-        <v>155782.1930527132</v>
+        <v>462.7485</v>
       </c>
       <c r="G96" t="n">
-        <v>1784224.081752713</v>
+        <v>1288152.5876</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3878,22 +4020,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C97" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D97" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E97" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F97" t="n">
-        <v>1162.2265</v>
+        <v>41068.0928</v>
       </c>
       <c r="G97" t="n">
-        <v>1783061.855252713</v>
+        <v>1247084.4948</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3914,22 +4056,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C98" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D98" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E98" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F98" t="n">
-        <v>262.1796</v>
+        <v>3273.0232</v>
       </c>
       <c r="G98" t="n">
-        <v>1783061.855252713</v>
+        <v>1247084.4948</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3950,22 +4092,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C99" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D99" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E99" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F99" t="n">
-        <v>5345.5078</v>
+        <v>78131.41009999999</v>
       </c>
       <c r="G99" t="n">
-        <v>1783061.855252713</v>
+        <v>1247084.4948</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3998,10 +4140,10 @@
         <v>12.8</v>
       </c>
       <c r="F100" t="n">
-        <v>148918.4711</v>
+        <v>188994.1982</v>
       </c>
       <c r="G100" t="n">
-        <v>1783061.855252713</v>
+        <v>1058090.2966</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4034,10 +4176,10 @@
         <v>12.9</v>
       </c>
       <c r="F101" t="n">
-        <v>29667.3643</v>
+        <v>1208706</v>
       </c>
       <c r="G101" t="n">
-        <v>1812729.219552713</v>
+        <v>2266796.2966</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4058,22 +4200,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C102" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D102" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E102" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F102" t="n">
-        <v>78588.31164728683</v>
+        <v>41276.12</v>
       </c>
       <c r="G102" t="n">
-        <v>1812729.219552713</v>
+        <v>2225520.1766</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4094,22 +4236,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C103" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D103" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E103" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F103" t="n">
-        <v>92304.6924</v>
+        <v>100</v>
       </c>
       <c r="G103" t="n">
-        <v>1905033.911952713</v>
+        <v>2225620.1766</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4130,22 +4272,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="C104" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="D104" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="E104" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="F104" t="n">
-        <v>101544.1719</v>
+        <v>811.0278</v>
       </c>
       <c r="G104" t="n">
-        <v>2006578.083852713</v>
+        <v>2224809.1488</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4166,22 +4308,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="C105" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="D105" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="E105" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="F105" t="n">
-        <v>48488.409</v>
+        <v>44909.6763</v>
       </c>
       <c r="G105" t="n">
-        <v>2055066.492852713</v>
+        <v>2224809.1488</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4202,22 +4344,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C106" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D106" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E106" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F106" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G106" t="n">
-        <v>2055056.492852713</v>
+        <v>2224909.1488</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4238,22 +4380,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="C107" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="D107" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="E107" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="F107" t="n">
-        <v>41159.8091</v>
+        <v>2792.0636</v>
       </c>
       <c r="G107" t="n">
-        <v>2096216.301952713</v>
+        <v>2222117.0852</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4274,22 +4416,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="C108" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="D108" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="E108" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="F108" t="n">
-        <v>98787.57180000001</v>
+        <v>65000.41</v>
       </c>
       <c r="G108" t="n">
-        <v>2096216.301952713</v>
+        <v>2222117.0852</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4310,28 +4452,28 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="C109" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="D109" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="E109" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="F109" t="n">
-        <v>457083.9844</v>
+        <v>10</v>
       </c>
       <c r="G109" t="n">
-        <v>2096216.301952713</v>
+        <v>2222127.0852</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4346,28 +4488,28 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="C110" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="D110" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="E110" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="F110" t="n">
-        <v>63578.1589</v>
+        <v>274.031</v>
       </c>
       <c r="G110" t="n">
-        <v>2159794.460852713</v>
+        <v>2222127.0852</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4382,28 +4524,28 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>13.3</v>
+        <v>12.9</v>
       </c>
       <c r="C111" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="D111" t="n">
-        <v>13.3</v>
+        <v>12.9</v>
       </c>
       <c r="E111" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="F111" t="n">
-        <v>75164.66160000001</v>
+        <v>223570.5952</v>
       </c>
       <c r="G111" t="n">
-        <v>2159794.460852713</v>
+        <v>1998556.49</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4418,28 +4560,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>13.2</v>
+        <v>12.7</v>
       </c>
       <c r="C112" t="n">
-        <v>13.2</v>
+        <v>12.7</v>
       </c>
       <c r="D112" t="n">
-        <v>13.2</v>
+        <v>12.7</v>
       </c>
       <c r="E112" t="n">
-        <v>13.2</v>
+        <v>12.7</v>
       </c>
       <c r="F112" t="n">
-        <v>110000</v>
+        <v>20680.0448</v>
       </c>
       <c r="G112" t="n">
-        <v>2159794.460852713</v>
+        <v>1977876.4452</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4454,28 +4596,28 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>13.2</v>
+        <v>12.7</v>
       </c>
       <c r="C113" t="n">
-        <v>13.2</v>
+        <v>12.7</v>
       </c>
       <c r="D113" t="n">
-        <v>13.2</v>
+        <v>12.7</v>
       </c>
       <c r="E113" t="n">
-        <v>13.2</v>
+        <v>12.7</v>
       </c>
       <c r="F113" t="n">
-        <v>129901.7045</v>
+        <v>80343.5772</v>
       </c>
       <c r="G113" t="n">
-        <v>2159794.460852713</v>
+        <v>1977876.4452</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4490,28 +4632,28 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>13.3</v>
+        <v>12.7</v>
       </c>
       <c r="C114" t="n">
-        <v>13.3</v>
+        <v>12.7</v>
       </c>
       <c r="D114" t="n">
-        <v>13.3</v>
+        <v>12.7</v>
       </c>
       <c r="E114" t="n">
-        <v>13.3</v>
+        <v>12.7</v>
       </c>
       <c r="F114" t="n">
-        <v>149442.6315</v>
+        <v>160000</v>
       </c>
       <c r="G114" t="n">
-        <v>2309237.092352713</v>
+        <v>1977876.4452</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4526,28 +4668,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>13.1</v>
+        <v>12.6</v>
       </c>
       <c r="C115" t="n">
-        <v>13.1</v>
+        <v>12.6</v>
       </c>
       <c r="D115" t="n">
-        <v>13.1</v>
+        <v>12.6</v>
       </c>
       <c r="E115" t="n">
-        <v>13.1</v>
+        <v>12.6</v>
       </c>
       <c r="F115" t="n">
-        <v>85.0733</v>
+        <v>44808</v>
       </c>
       <c r="G115" t="n">
-        <v>2309152.019052714</v>
+        <v>1933068.4452</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4562,28 +4704,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>13.2</v>
+        <v>12.6</v>
       </c>
       <c r="C116" t="n">
-        <v>13.2</v>
+        <v>12.6</v>
       </c>
       <c r="D116" t="n">
-        <v>13.2</v>
+        <v>12.6</v>
       </c>
       <c r="E116" t="n">
-        <v>13.2</v>
+        <v>12.6</v>
       </c>
       <c r="F116" t="n">
-        <v>42733</v>
+        <v>148076.6546</v>
       </c>
       <c r="G116" t="n">
-        <v>2351885.019052714</v>
+        <v>1933068.4452</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4593,6 +4735,2562 @@
       </c>
       <c r="N116" t="inlineStr"/>
     </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C117" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D117" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E117" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F117" t="n">
+        <v>29717.8435</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1962786.2887</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C118" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D118" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E118" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F118" t="n">
+        <v>10980</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1962786.2887</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C119" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D119" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E119" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F119" t="n">
+        <v>150917.381</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1811868.9077</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C120" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D120" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E120" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F120" t="n">
+        <v>10</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1811878.9077</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C121" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D121" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E121" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1863.5706</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1810015.3371</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C122" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D122" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E122" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F122" t="n">
+        <v>21000</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1831015.3371</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C123" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D123" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E123" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F123" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G123" t="n">
+        <v>2031015.3371</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C124" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D124" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E124" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F124" t="n">
+        <v>12153</v>
+      </c>
+      <c r="G124" t="n">
+        <v>2031015.3371</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C125" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D125" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E125" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F125" t="n">
+        <v>138944.2598</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1892071.0773</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C126" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D126" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E126" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2631.2653</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1894702.3426</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C127" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D127" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E127" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F127" t="n">
+        <v>234.375</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1894702.3426</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C128" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D128" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E128" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F128" t="n">
+        <v>134871.1525</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1759831.1901</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C129" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D129" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E129" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F129" t="n">
+        <v>157214.7358</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1759831.1901</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C130" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D130" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E130" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F130" t="n">
+        <v>10294.9218</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1770126.1119</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C131" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D131" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E131" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F131" t="n">
+        <v>38000</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1770126.1119</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C132" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D132" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E132" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F132" t="n">
+        <v>659.338</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1770126.1119</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C133" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D133" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E133" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F133" t="n">
+        <v>22000</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1792126.1119</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C134" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D134" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E134" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F134" t="n">
+        <v>330</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1792126.1119</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C135" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D135" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E135" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F135" t="n">
+        <v>41480.2325</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1792126.1119</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C136" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D136" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E136" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1030</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1791096.1119</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C137" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D137" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E137" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F137" t="n">
+        <v>266611.9697</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1524484.1422</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C138" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D138" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E138" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F138" t="n">
+        <v>77406.746</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1524484.1422</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C139" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D139" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E139" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F139" t="n">
+        <v>17413.3858</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1541897.528</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C140" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D140" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E140" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F140" t="n">
+        <v>157512.9023</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1384384.6257</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C141" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D141" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E141" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F141" t="n">
+        <v>6100.5121</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1384384.6257</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C142" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D142" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E142" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F142" t="n">
+        <v>247.4766</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1384384.6257</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C143" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D143" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E143" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F143" t="n">
+        <v>60648.1731</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1384384.6257</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C144" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D144" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E144" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F144" t="n">
+        <v>343</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1384041.6257</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C145" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D145" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E145" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F145" t="n">
+        <v>333</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1384374.6257</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C146" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D146" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E146" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F146" t="n">
+        <v>103</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1384374.6257</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C147" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D147" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E147" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F147" t="n">
+        <v>29361.0188</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1384374.6257</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C148" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D148" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E148" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F148" t="n">
+        <v>10</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1384364.6257</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C149" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D149" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E149" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F149" t="n">
+        <v>17.5781</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1384382.2038</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C150" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D150" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E150" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F150" t="n">
+        <v>10</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1384372.2038</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C151" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D151" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E151" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F151" t="n">
+        <v>15718.0468</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1400090.2506</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C152" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D152" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E152" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F152" t="n">
+        <v>10</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1400080.2506</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C153" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D153" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E153" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F153" t="n">
+        <v>42500</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1400080.2506</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C154" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D154" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E154" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F154" t="n">
+        <v>11</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1400091.2506</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C155" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D155" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E155" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F155" t="n">
+        <v>349065.4574</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1749156.708</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C156" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E156" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F156" t="n">
+        <v>843275.8297</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1749156.708</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C157" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D157" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E157" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F157" t="n">
+        <v>50240.8115</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1749156.708</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>13</v>
+      </c>
+      <c r="C158" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D158" t="n">
+        <v>13</v>
+      </c>
+      <c r="E158" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F158" t="n">
+        <v>19017.6456</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1730139.0624</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C159" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D159" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E159" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F159" t="n">
+        <v>52789.1217</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1730139.0624</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C160" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D160" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E160" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F160" t="n">
+        <v>54000</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1784139.0624</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C161" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D161" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E161" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F161" t="n">
+        <v>10</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1784129.0624</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C162" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D162" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E162" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F162" t="n">
+        <v>119468.3682</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1784129.0624</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C163" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D163" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E163" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F163" t="n">
+        <v>9447.2006</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1784129.0624</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C164" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D164" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E164" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F164" t="n">
+        <v>11</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1784140.0624</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C165" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D165" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E165" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F165" t="n">
+        <v>155688.1737</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1628451.8887</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C166" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D166" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E166" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F166" t="n">
+        <v>10</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1628441.8887</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C167" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D167" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E167" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F167" t="n">
+        <v>155782.1930527132</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1784224.081752713</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C168" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D168" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E168" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1162.2265</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1783061.855252713</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C169" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D169" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E169" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F169" t="n">
+        <v>262.1796</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1783061.855252713</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C170" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D170" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E170" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F170" t="n">
+        <v>5345.5078</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1783061.855252713</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C171" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D171" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E171" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F171" t="n">
+        <v>148918.4711</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1783061.855252713</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C172" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D172" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E172" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F172" t="n">
+        <v>29667.3643</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1812729.219552713</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C173" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D173" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E173" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F173" t="n">
+        <v>78588.31164728683</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1812729.219552713</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>13</v>
+      </c>
+      <c r="C174" t="n">
+        <v>13</v>
+      </c>
+      <c r="D174" t="n">
+        <v>13</v>
+      </c>
+      <c r="E174" t="n">
+        <v>13</v>
+      </c>
+      <c r="F174" t="n">
+        <v>92304.6924</v>
+      </c>
+      <c r="G174" t="n">
+        <v>1905033.911952713</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C175" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D175" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E175" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F175" t="n">
+        <v>101544.1719</v>
+      </c>
+      <c r="G175" t="n">
+        <v>2006578.083852713</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C176" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D176" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E176" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F176" t="n">
+        <v>48488.409</v>
+      </c>
+      <c r="G176" t="n">
+        <v>2055066.492852713</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>13</v>
+      </c>
+      <c r="C177" t="n">
+        <v>13</v>
+      </c>
+      <c r="D177" t="n">
+        <v>13</v>
+      </c>
+      <c r="E177" t="n">
+        <v>13</v>
+      </c>
+      <c r="F177" t="n">
+        <v>10</v>
+      </c>
+      <c r="G177" t="n">
+        <v>2055056.492852713</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C178" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D178" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E178" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F178" t="n">
+        <v>41159.8091</v>
+      </c>
+      <c r="G178" t="n">
+        <v>2096216.301952713</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C179" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D179" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E179" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F179" t="n">
+        <v>98787.57180000001</v>
+      </c>
+      <c r="G179" t="n">
+        <v>2096216.301952713</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C180" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D180" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E180" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F180" t="n">
+        <v>457083.9844</v>
+      </c>
+      <c r="G180" t="n">
+        <v>2096216.301952713</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C181" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D181" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E181" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F181" t="n">
+        <v>63578.1589</v>
+      </c>
+      <c r="G181" t="n">
+        <v>2159794.460852713</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C182" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D182" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E182" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F182" t="n">
+        <v>75164.66160000001</v>
+      </c>
+      <c r="G182" t="n">
+        <v>2159794.460852713</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C183" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D183" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E183" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F183" t="n">
+        <v>110000</v>
+      </c>
+      <c r="G183" t="n">
+        <v>2159794.460852713</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C184" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D184" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E184" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F184" t="n">
+        <v>129901.7045</v>
+      </c>
+      <c r="G184" t="n">
+        <v>2159794.460852713</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C185" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D185" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E185" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F185" t="n">
+        <v>149442.6315</v>
+      </c>
+      <c r="G185" t="n">
+        <v>2309237.092352713</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C186" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D186" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E186" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F186" t="n">
+        <v>85.0733</v>
+      </c>
+      <c r="G186" t="n">
+        <v>2309152.019052714</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C187" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D187" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E187" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F187" t="n">
+        <v>42733</v>
+      </c>
+      <c r="G187" t="n">
+        <v>2351885.019052714</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-25 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-25 BackTest ORBS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N187"/>
+  <dimension ref="A1:M187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,1162 +1342,1101 @@
         <v>665043.1382000002</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>12.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C30" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E30" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4020</v>
+      </c>
+      <c r="G30" t="n">
+        <v>661023.1382000002</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C31" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F31" t="n">
+        <v>184397.2014</v>
+      </c>
+      <c r="G31" t="n">
+        <v>661023.1382000002</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C32" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E32" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F32" t="n">
+        <v>59</v>
+      </c>
+      <c r="G32" t="n">
+        <v>661023.1382000002</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C33" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F33" t="n">
+        <v>53386.6397</v>
+      </c>
+      <c r="G33" t="n">
+        <v>714409.7779000001</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F34" t="n">
+        <v>16870</v>
+      </c>
+      <c r="G34" t="n">
+        <v>714409.7779000001</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J34" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C35" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>63000</v>
+      </c>
+      <c r="G35" t="n">
+        <v>714409.7779000001</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J35" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C36" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D36" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E36" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F36" t="n">
+        <v>12670</v>
+      </c>
+      <c r="G36" t="n">
+        <v>727079.7779000001</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C37" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D37" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E37" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2914.9193</v>
+      </c>
+      <c r="G37" t="n">
+        <v>727079.7779000001</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J37" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E38" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F38" t="n">
+        <v>105972.4801</v>
+      </c>
+      <c r="G38" t="n">
+        <v>833052.2580000001</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J38" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C30" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D30" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E30" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F30" t="n">
-        <v>4020</v>
-      </c>
-      <c r="G30" t="n">
-        <v>661023.1382000002</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C39" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D39" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E39" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F39" t="n">
+        <v>224845.6266</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1057897.8846</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C31" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D31" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E31" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F31" t="n">
-        <v>184397.2014</v>
-      </c>
-      <c r="G31" t="n">
-        <v>661023.1382000002</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C40" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D40" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E40" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F40" t="n">
+        <v>41562.7605</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1057897.8846</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C32" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D32" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E32" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F32" t="n">
-        <v>59</v>
-      </c>
-      <c r="G32" t="n">
-        <v>661023.1382000002</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C41" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D41" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E41" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F41" t="n">
+        <v>81963.9553</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1139861.8399</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C33" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D33" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E33" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F33" t="n">
-        <v>53386.6397</v>
-      </c>
-      <c r="G33" t="n">
-        <v>714409.7779000001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C42" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D42" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E42" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F42" t="n">
+        <v>189656.3051</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1139861.8399</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C34" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D34" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E34" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F34" t="n">
-        <v>16870</v>
-      </c>
-      <c r="G34" t="n">
-        <v>714409.7779000001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C43" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D43" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E43" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F43" t="n">
+        <v>6741.2201</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1146603.06</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C35" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D35" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E35" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F35" t="n">
-        <v>63000</v>
-      </c>
-      <c r="G35" t="n">
-        <v>714409.7779000001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C44" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D44" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E44" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F44" t="n">
+        <v>199010.7049</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1146603.06</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C36" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D36" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E36" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F36" t="n">
-        <v>12670</v>
-      </c>
-      <c r="G36" t="n">
-        <v>727079.7779000001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>13</v>
+      </c>
+      <c r="C45" t="n">
+        <v>13</v>
+      </c>
+      <c r="D45" t="n">
+        <v>13</v>
+      </c>
+      <c r="E45" t="n">
+        <v>13</v>
+      </c>
+      <c r="F45" t="n">
+        <v>61958.7063</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1208561.7663</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C37" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D37" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E37" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F37" t="n">
-        <v>2914.9193</v>
-      </c>
-      <c r="G37" t="n">
-        <v>727079.7779000001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>13</v>
+      </c>
+      <c r="C46" t="n">
+        <v>13</v>
+      </c>
+      <c r="D46" t="n">
+        <v>13</v>
+      </c>
+      <c r="E46" t="n">
+        <v>13</v>
+      </c>
+      <c r="F46" t="n">
+        <v>25449.6923</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1208561.7663</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C38" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D38" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E38" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F38" t="n">
-        <v>105972.4801</v>
-      </c>
-      <c r="G38" t="n">
-        <v>833052.2580000001</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>13</v>
+      </c>
+      <c r="C47" t="n">
+        <v>13</v>
+      </c>
+      <c r="D47" t="n">
+        <v>13</v>
+      </c>
+      <c r="E47" t="n">
+        <v>13</v>
+      </c>
+      <c r="F47" t="n">
+        <v>13591.6014</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1208561.7663</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C39" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D39" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E39" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F39" t="n">
-        <v>224845.6266</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1057897.8846</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F48" t="n">
+        <v>155943.1523</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1364504.9186</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C40" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D40" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E40" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F40" t="n">
-        <v>41562.7605</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1057897.8846</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C49" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D49" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E49" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F49" t="n">
+        <v>105833.26</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1364504.9186</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C41" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D41" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E41" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F41" t="n">
-        <v>81963.9553</v>
-      </c>
-      <c r="G41" t="n">
-        <v>1139861.8399</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C50" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E50" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F50" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1364504.9186</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C42" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D42" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E42" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F42" t="n">
-        <v>189656.3051</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1139861.8399</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C51" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D51" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1364504.9186</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C43" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D43" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E43" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F43" t="n">
-        <v>6741.2201</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1146603.06</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C52" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D52" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E52" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F52" t="n">
+        <v>155</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1364504.9186</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C44" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D44" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E44" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F44" t="n">
-        <v>199010.7049</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1146603.06</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C53" t="n">
+        <v>13</v>
+      </c>
+      <c r="D53" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E53" t="n">
+        <v>13</v>
+      </c>
+      <c r="F53" t="n">
+        <v>775.6825</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1363729.2361</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>13</v>
-      </c>
-      <c r="C45" t="n">
-        <v>13</v>
-      </c>
-      <c r="D45" t="n">
-        <v>13</v>
-      </c>
-      <c r="E45" t="n">
-        <v>13</v>
-      </c>
-      <c r="F45" t="n">
-        <v>61958.7063</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1208561.7663</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C54" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D54" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E54" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F54" t="n">
+        <v>450.0789</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1363279.1572</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>13</v>
-      </c>
-      <c r="C46" t="n">
-        <v>13</v>
-      </c>
-      <c r="D46" t="n">
-        <v>13</v>
-      </c>
-      <c r="E46" t="n">
-        <v>13</v>
-      </c>
-      <c r="F46" t="n">
-        <v>25449.6923</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1208561.7663</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>13</v>
+      </c>
+      <c r="D55" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E55" t="n">
+        <v>13</v>
+      </c>
+      <c r="F55" t="n">
+        <v>75123.66869999999</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1438402.8259</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>13</v>
-      </c>
-      <c r="C47" t="n">
-        <v>13</v>
-      </c>
-      <c r="D47" t="n">
-        <v>13</v>
-      </c>
-      <c r="E47" t="n">
-        <v>13</v>
-      </c>
-      <c r="F47" t="n">
-        <v>13591.6014</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1208561.7663</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>13</v>
+      </c>
+      <c r="C56" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D56" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E56" t="n">
+        <v>13</v>
+      </c>
+      <c r="F56" t="n">
+        <v>71183.61079999999</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1509586.4367</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="C48" t="n">
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
         <v>13.2</v>
       </c>
-      <c r="D48" t="n">
+      <c r="C57" t="n">
         <v>13.2</v>
       </c>
-      <c r="E48" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F48" t="n">
-        <v>155943.1523</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1364504.9186</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
+      <c r="D57" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E57" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F57" t="n">
+        <v>14688</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1494898.4367</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C49" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D49" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E49" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F49" t="n">
-        <v>105833.26</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1364504.9186</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C50" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D50" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E50" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F50" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1364504.9186</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C51" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D51" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E51" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F51" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1364504.9186</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C52" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D52" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E52" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F52" t="n">
-        <v>155</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1364504.9186</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C53" t="n">
-        <v>13</v>
-      </c>
-      <c r="D53" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E53" t="n">
-        <v>13</v>
-      </c>
-      <c r="F53" t="n">
-        <v>775.6825</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1363729.2361</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C54" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D54" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E54" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F54" t="n">
-        <v>450.0789</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1363279.1572</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="C55" t="n">
-        <v>13</v>
-      </c>
-      <c r="D55" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="E55" t="n">
-        <v>13</v>
-      </c>
-      <c r="F55" t="n">
-        <v>75123.66869999999</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1438402.8259</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>13</v>
-      </c>
-      <c r="C56" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D56" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E56" t="n">
-        <v>13</v>
-      </c>
-      <c r="F56" t="n">
-        <v>71183.61079999999</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1509586.4367</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D57" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F57" t="n">
-        <v>14688</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1494898.4367</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2608,22 +2461,23 @@
         <v>1494898.4367</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
+      <c r="L58" t="n">
+        <v>1.068170731707317</v>
+      </c>
       <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>1.024590163934426</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2650,20 +2504,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2690,20 +2537,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2730,20 +2570,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2770,20 +2603,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2810,20 +2636,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2848,20 +2667,15 @@
         <v>1392395.9903</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L64" t="n">
+        <v>1</v>
       </c>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2886,18 +2700,15 @@
         <v>1392395.9903</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2924,16 +2735,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2960,16 +2768,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2994,18 +2799,15 @@
         <v>1388216.9903</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3030,18 +2832,15 @@
         <v>1384715.4563</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3066,18 +2865,15 @@
         <v>1421368.2378</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3102,18 +2898,15 @@
         <v>1419004.7023</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3138,18 +2931,15 @@
         <v>1474172.9296</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3174,18 +2964,15 @@
         <v>1474172.9296</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3212,16 +2999,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3248,16 +3032,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3284,16 +3065,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3320,16 +3098,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3356,16 +3131,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3392,16 +3164,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3428,16 +3197,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3464,16 +3230,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3500,16 +3263,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3536,16 +3296,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3572,16 +3329,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3608,16 +3362,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3644,16 +3395,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3678,18 +3426,15 @@
         <v>1353364.6607</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3716,16 +3461,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3750,18 +3492,15 @@
         <v>1353364.6607</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3788,16 +3527,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3824,16 +3560,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3860,16 +3593,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3896,16 +3626,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3932,16 +3659,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3968,16 +3692,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4004,16 +3725,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4040,16 +3758,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4076,16 +3791,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4112,16 +3824,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4148,16 +3857,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4184,16 +3890,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4220,16 +3923,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4256,16 +3956,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4292,16 +3989,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4328,16 +4022,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4364,16 +4055,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4400,16 +4088,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4436,16 +4121,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4472,16 +4154,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4508,16 +4187,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4544,16 +4220,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4580,16 +4253,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4616,16 +4286,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4652,16 +4319,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4688,16 +4352,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4724,16 +4385,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4760,16 +4418,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4796,16 +4451,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4832,16 +4484,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4868,16 +4517,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4904,16 +4550,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4940,16 +4583,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4976,16 +4616,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5012,16 +4649,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5048,16 +4682,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5084,16 +4715,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5120,16 +4748,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5156,16 +4781,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5192,16 +4814,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5228,16 +4847,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5264,16 +4880,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5300,16 +4913,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5336,16 +4946,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5372,16 +4979,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5408,16 +5012,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5444,16 +5045,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5480,16 +5078,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5516,16 +5111,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5552,16 +5144,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5588,16 +5177,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5624,16 +5210,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5660,16 +5243,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5696,16 +5276,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5732,16 +5309,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5768,16 +5342,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5804,16 +5375,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5840,16 +5408,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5876,16 +5441,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5912,16 +5474,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5948,16 +5507,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5984,16 +5540,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6020,16 +5573,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6056,16 +5606,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6092,16 +5639,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6128,16 +5672,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6164,16 +5705,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6200,16 +5738,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6236,16 +5771,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6272,16 +5804,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6308,16 +5837,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6344,16 +5870,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6380,16 +5903,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6416,16 +5936,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6452,16 +5969,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6488,16 +6002,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6524,16 +6035,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6560,16 +6068,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6596,16 +6101,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6632,16 +6134,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6668,16 +6167,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6704,16 +6200,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6740,16 +6233,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6776,16 +6266,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6812,16 +6299,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6848,16 +6332,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6882,18 +6363,15 @@
         <v>2055066.492852713</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6920,16 +6398,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6954,18 +6429,15 @@
         <v>2096216.301952713</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6990,18 +6462,15 @@
         <v>2096216.301952713</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7026,18 +6495,15 @@
         <v>2096216.301952713</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7062,18 +6528,15 @@
         <v>2159794.460852713</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7098,18 +6561,15 @@
         <v>2159794.460852713</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7134,18 +6594,15 @@
         <v>2159794.460852713</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7170,18 +6627,15 @@
         <v>2159794.460852713</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7206,18 +6660,15 @@
         <v>2309237.092352713</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7244,16 +6695,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>1</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7280,18 +6728,15 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>1</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-25 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-25 BackTest ORBS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1309,11 +1309,17 @@
         <v>665043.1382000002</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1348,17 @@
         <v>665043.1382000002</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1387,17 @@
         <v>661023.1382000002</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1426,17 @@
         <v>661023.1382000002</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,15 +1465,17 @@
         <v>661023.1382000002</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>12.2</v>
       </c>
-      <c r="J32" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,17 +1504,15 @@
         <v>714409.7779000001</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>12.2</v>
       </c>
-      <c r="J33" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -1519,17 +1543,15 @@
         <v>714409.7779000001</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>12.3</v>
       </c>
-      <c r="J34" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -1560,15 +1582,17 @@
         <v>714409.7779000001</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>12.3</v>
       </c>
-      <c r="J35" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1597,17 +1621,15 @@
         <v>727079.7779000001</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>12.3</v>
       </c>
-      <c r="J36" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -1638,17 +1660,15 @@
         <v>727079.7779000001</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>12.4</v>
       </c>
-      <c r="J37" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -1679,17 +1699,15 @@
         <v>833052.2580000001</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>12.4</v>
       </c>
-      <c r="J38" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -1720,12 +1738,12 @@
         <v>1057897.8846</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>12.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1762,9 +1780,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1801,9 +1817,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1840,9 +1854,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1879,9 +1891,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1918,9 +1928,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1957,9 +1965,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1996,9 +2002,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2035,9 +2039,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2074,9 +2076,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2113,9 +2113,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2152,9 +2150,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2191,9 +2187,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2230,9 +2224,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2269,9 +2261,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2308,9 +2298,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2347,9 +2335,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2386,9 +2372,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2425,9 +2409,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2461,748 +2443,830 @@
         <v>1494898.4367</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C59" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E59" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>27745</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1467153.4367</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D60" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E60" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F60" t="n">
+        <v>67466.4253</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1467153.4367</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>13</v>
+      </c>
+      <c r="C61" t="n">
+        <v>13</v>
+      </c>
+      <c r="D61" t="n">
+        <v>13</v>
+      </c>
+      <c r="E61" t="n">
+        <v>13</v>
+      </c>
+      <c r="F61" t="n">
+        <v>69752.07150000001</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1397401.3652</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C62" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D62" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E62" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F62" t="n">
+        <v>4490</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1401891.3652</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D63" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E63" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>43821.0969</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1401891.3652</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E64" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>9495.374900000001</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1392395.9903</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C65" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E65" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>12912.4804</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1392395.9903</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>13</v>
+      </c>
+      <c r="C66" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D66" t="n">
+        <v>13</v>
+      </c>
+      <c r="E66" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F66" t="n">
+        <v>4190</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1388205.9903</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>13</v>
+      </c>
+      <c r="C67" t="n">
+        <v>13</v>
+      </c>
+      <c r="D67" t="n">
+        <v>13</v>
+      </c>
+      <c r="E67" t="n">
+        <v>13</v>
+      </c>
+      <c r="F67" t="n">
+        <v>11</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1388216.9903</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>13</v>
+      </c>
+      <c r="C68" t="n">
+        <v>13</v>
+      </c>
+      <c r="D68" t="n">
+        <v>13</v>
+      </c>
+      <c r="E68" t="n">
+        <v>13</v>
+      </c>
+      <c r="F68" t="n">
+        <v>45000</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1388216.9903</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C69" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D69" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E69" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F69" t="n">
+        <v>3501.534</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1384715.4563</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>13</v>
+      </c>
+      <c r="C70" t="n">
+        <v>13</v>
+      </c>
+      <c r="D70" t="n">
+        <v>13</v>
+      </c>
+      <c r="E70" t="n">
+        <v>13</v>
+      </c>
+      <c r="F70" t="n">
+        <v>36652.7815</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1421368.2378</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C71" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D71" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E71" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2363.5355</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1419004.7023</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>13</v>
+      </c>
+      <c r="C72" t="n">
+        <v>13</v>
+      </c>
+      <c r="D72" t="n">
+        <v>13</v>
+      </c>
+      <c r="E72" t="n">
+        <v>13</v>
+      </c>
+      <c r="F72" t="n">
+        <v>55168.2273</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1474172.9296</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>13</v>
+      </c>
+      <c r="C73" t="n">
+        <v>13</v>
+      </c>
+      <c r="D73" t="n">
+        <v>13</v>
+      </c>
+      <c r="E73" t="n">
+        <v>13</v>
+      </c>
+      <c r="F73" t="n">
+        <v>74942.8033</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1474172.9296</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C74" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D74" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E74" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1473172.9296</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>13</v>
+      </c>
+      <c r="C75" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E75" t="n">
+        <v>13</v>
+      </c>
+      <c r="F75" t="n">
+        <v>62690.4228</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1535863.3524</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>13</v>
+      </c>
+      <c r="C76" t="n">
+        <v>13</v>
+      </c>
+      <c r="D76" t="n">
+        <v>13</v>
+      </c>
+      <c r="E76" t="n">
+        <v>13</v>
+      </c>
+      <c r="F76" t="n">
+        <v>67952.5481</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1467910.8043</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>13</v>
+      </c>
+      <c r="C77" t="n">
+        <v>13</v>
+      </c>
+      <c r="D77" t="n">
+        <v>13</v>
+      </c>
+      <c r="E77" t="n">
+        <v>13</v>
+      </c>
+      <c r="F77" t="n">
+        <v>32047.4519</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1467910.8043</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E78" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F78" t="n">
+        <v>3120</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1471030.8043</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E79" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3130</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1471030.8043</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E80" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F80" t="n">
+        <v>88650.78079999999</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1471030.8043</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L58" t="n">
-        <v>1.068170731707317</v>
-      </c>
-      <c r="M58" t="n">
-        <v>1.024590163934426</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D59" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F59" t="n">
-        <v>27745</v>
-      </c>
-      <c r="G59" t="n">
-        <v>1467153.4367</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D60" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F60" t="n">
-        <v>67466.4253</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1467153.4367</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>13</v>
-      </c>
-      <c r="C61" t="n">
-        <v>13</v>
-      </c>
-      <c r="D61" t="n">
-        <v>13</v>
-      </c>
-      <c r="E61" t="n">
-        <v>13</v>
-      </c>
-      <c r="F61" t="n">
-        <v>69752.07150000001</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1397401.3652</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C62" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D62" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E62" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F62" t="n">
-        <v>4490</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1401891.3652</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="C63" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D63" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E63" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F63" t="n">
-        <v>43821.0969</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1401891.3652</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="C64" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D64" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="E64" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F64" t="n">
-        <v>9495.374900000001</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1392395.9903</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="C65" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D65" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="E65" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F65" t="n">
-        <v>12912.4804</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1392395.9903</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>13</v>
-      </c>
-      <c r="C66" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D66" t="n">
-        <v>13</v>
-      </c>
-      <c r="E66" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F66" t="n">
-        <v>4190</v>
-      </c>
-      <c r="G66" t="n">
-        <v>1388205.9903</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>13</v>
-      </c>
-      <c r="C67" t="n">
-        <v>13</v>
-      </c>
-      <c r="D67" t="n">
-        <v>13</v>
-      </c>
-      <c r="E67" t="n">
-        <v>13</v>
-      </c>
-      <c r="F67" t="n">
-        <v>11</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1388216.9903</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>13</v>
-      </c>
-      <c r="C68" t="n">
-        <v>13</v>
-      </c>
-      <c r="D68" t="n">
-        <v>13</v>
-      </c>
-      <c r="E68" t="n">
-        <v>13</v>
-      </c>
-      <c r="F68" t="n">
-        <v>45000</v>
-      </c>
-      <c r="G68" t="n">
-        <v>1388216.9903</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C69" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D69" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E69" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F69" t="n">
-        <v>3501.534</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1384715.4563</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>13</v>
-      </c>
-      <c r="C70" t="n">
-        <v>13</v>
-      </c>
-      <c r="D70" t="n">
-        <v>13</v>
-      </c>
-      <c r="E70" t="n">
-        <v>13</v>
-      </c>
-      <c r="F70" t="n">
-        <v>36652.7815</v>
-      </c>
-      <c r="G70" t="n">
-        <v>1421368.2378</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C71" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D71" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E71" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F71" t="n">
-        <v>2363.5355</v>
-      </c>
-      <c r="G71" t="n">
-        <v>1419004.7023</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>13</v>
-      </c>
-      <c r="C72" t="n">
-        <v>13</v>
-      </c>
-      <c r="D72" t="n">
-        <v>13</v>
-      </c>
-      <c r="E72" t="n">
-        <v>13</v>
-      </c>
-      <c r="F72" t="n">
-        <v>55168.2273</v>
-      </c>
-      <c r="G72" t="n">
-        <v>1474172.9296</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>13</v>
-      </c>
-      <c r="C73" t="n">
-        <v>13</v>
-      </c>
-      <c r="D73" t="n">
-        <v>13</v>
-      </c>
-      <c r="E73" t="n">
-        <v>13</v>
-      </c>
-      <c r="F73" t="n">
-        <v>74942.8033</v>
-      </c>
-      <c r="G73" t="n">
-        <v>1474172.9296</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C74" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D74" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E74" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F74" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1473172.9296</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>13</v>
-      </c>
-      <c r="C75" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D75" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="E75" t="n">
-        <v>13</v>
-      </c>
-      <c r="F75" t="n">
-        <v>62690.4228</v>
-      </c>
-      <c r="G75" t="n">
-        <v>1535863.3524</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>13</v>
-      </c>
-      <c r="C76" t="n">
-        <v>13</v>
-      </c>
-      <c r="D76" t="n">
-        <v>13</v>
-      </c>
-      <c r="E76" t="n">
-        <v>13</v>
-      </c>
-      <c r="F76" t="n">
-        <v>67952.5481</v>
-      </c>
-      <c r="G76" t="n">
-        <v>1467910.8043</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>13</v>
-      </c>
-      <c r="C77" t="n">
-        <v>13</v>
-      </c>
-      <c r="D77" t="n">
-        <v>13</v>
-      </c>
-      <c r="E77" t="n">
-        <v>13</v>
-      </c>
-      <c r="F77" t="n">
-        <v>32047.4519</v>
-      </c>
-      <c r="G77" t="n">
-        <v>1467910.8043</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="C78" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D78" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="E78" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F78" t="n">
-        <v>3120</v>
-      </c>
-      <c r="G78" t="n">
-        <v>1471030.8043</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="C79" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D79" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="E79" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F79" t="n">
-        <v>3130</v>
-      </c>
-      <c r="G79" t="n">
-        <v>1471030.8043</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="C80" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D80" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="E80" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F80" t="n">
-        <v>88650.78079999999</v>
-      </c>
-      <c r="G80" t="n">
-        <v>1471030.8043</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
@@ -3228,7 +3292,7 @@
         <v>1469795.9967</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3261,7 +3325,7 @@
         <v>1469795.9967</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3327,7 +3391,7 @@
         <v>1505525.5474</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3360,7 +3424,7 @@
         <v>1353364.6607</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3393,7 +3457,7 @@
         <v>1353364.6607</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3426,7 +3490,7 @@
         <v>1353364.6607</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3459,7 +3523,7 @@
         <v>1353364.6607</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3492,7 +3556,7 @@
         <v>1353364.6607</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3525,7 +3589,7 @@
         <v>1247668.2285</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3558,7 +3622,7 @@
         <v>1327915.7963</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3591,7 +3655,7 @@
         <v>1314605.7963</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3624,7 +3688,7 @@
         <v>1286815.1846</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3657,7 +3721,7 @@
         <v>1286815.1846</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3690,7 +3754,7 @@
         <v>1288615.3361</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3723,7 +3787,7 @@
         <v>1288152.5876</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3756,7 +3820,7 @@
         <v>1247084.4948</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3789,7 +3853,7 @@
         <v>1247084.4948</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3822,7 +3886,7 @@
         <v>1247084.4948</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3855,7 +3919,7 @@
         <v>1058090.2966</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3888,7 +3952,7 @@
         <v>2266796.2966</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3921,7 +3985,7 @@
         <v>2225520.1766</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3954,7 +4018,7 @@
         <v>2225620.1766</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3987,7 +4051,7 @@
         <v>2224809.1488</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4053,7 +4117,7 @@
         <v>2224909.1488</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4086,7 +4150,7 @@
         <v>2222117.0852</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4119,7 +4183,7 @@
         <v>2222117.0852</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4152,7 +4216,7 @@
         <v>2222127.0852</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4185,7 +4249,7 @@
         <v>2222127.0852</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4284,7 +4348,7 @@
         <v>1977876.4452</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4317,7 +4381,7 @@
         <v>1977876.4452</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4350,7 +4414,7 @@
         <v>1933068.4452</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4383,7 +4447,7 @@
         <v>1933068.4452</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4416,7 +4480,7 @@
         <v>1962786.2887</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4482,7 +4546,7 @@
         <v>1811868.9077</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -6363,7 +6427,7 @@
         <v>2055066.492852713</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6429,7 +6493,7 @@
         <v>2096216.301952713</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6462,7 +6526,7 @@
         <v>2096216.301952713</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6495,7 +6559,7 @@
         <v>2096216.301952713</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6528,7 +6592,7 @@
         <v>2159794.460852713</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6561,7 +6625,7 @@
         <v>2159794.460852713</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6594,7 +6658,7 @@
         <v>2159794.460852713</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6627,7 +6691,7 @@
         <v>2159794.460852713</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6660,7 +6724,7 @@
         <v>2309237.092352713</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6737,6 +6801,6 @@
       <c r="M187" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-25 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-25 BackTest ORBS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,10 +550,14 @@
         <v>855121.9522000002</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>12.3</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
@@ -583,11 +587,19 @@
         <v>955121.9522000002</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +628,19 @@
         <v>955111.9522000002</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -682,10 +702,14 @@
         <v>1021196.2015</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>12.4</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -718,8 +742,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +781,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -946,10 +982,14 @@
         <v>965453.0204000002</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>12.3</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
@@ -982,8 +1022,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1061,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1100,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1139,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1178,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1217,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1256,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1295,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1331,19 @@
         <v>769650.5576000002</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J26" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1372,19 @@
         <v>814543.1382000002</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,15 +1413,15 @@
         <v>665043.1382000002</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>12.3</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -1348,12 +1452,12 @@
         <v>665043.1382000002</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>12.3</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1392,7 +1496,9 @@
       <c r="I30" t="n">
         <v>12.3</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>12.3</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1431,7 +1537,9 @@
       <c r="I31" t="n">
         <v>12.2</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>12.3</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1470,7 +1578,9 @@
       <c r="I32" t="n">
         <v>12.2</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>12.3</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1509,7 +1619,9 @@
       <c r="I33" t="n">
         <v>12.2</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>12.3</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1548,7 +1660,9 @@
       <c r="I34" t="n">
         <v>12.3</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>12.3</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1587,7 +1701,9 @@
       <c r="I35" t="n">
         <v>12.3</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>12.3</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1626,7 +1742,9 @@
       <c r="I36" t="n">
         <v>12.3</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>12.3</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1660,12 +1778,12 @@
         <v>727079.7779000001</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>12.3</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1704,7 +1822,9 @@
       <c r="I38" t="n">
         <v>12.4</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>12.3</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1738,12 +1858,12 @@
         <v>1057897.8846</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>12.3</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1780,7 +1900,9 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>12.3</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1817,7 +1939,9 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>12.3</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1854,7 +1978,9 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>12.3</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1891,7 +2017,9 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>12.3</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1928,7 +2056,9 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>12.3</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1965,7 +2095,9 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>12.3</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2002,7 +2134,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>12.3</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2039,7 +2173,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>12.3</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2073,19 +2209,23 @@
         <v>1364504.9186</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>12.3</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>1.068170731707317</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.016260162601626</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2110,15 +2250,11 @@
         <v>1364504.9186</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2147,15 +2283,11 @@
         <v>1364504.9186</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2188,11 +2320,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2225,11 +2353,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2262,11 +2386,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2419,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2332,15 +2448,11 @@
         <v>1438402.8259</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2373,11 +2485,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2410,11 +2518,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2447,11 +2551,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2484,11 +2584,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2521,11 +2617,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2558,11 +2650,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2595,11 +2683,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2632,11 +2716,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2669,11 +2749,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2706,11 +2782,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2743,11 +2815,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2780,11 +2848,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2817,11 +2881,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2854,11 +2914,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2891,11 +2947,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2928,11 +2980,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2965,11 +3013,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3002,11 +3046,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3039,11 +3079,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3076,11 +3112,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3113,11 +3145,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3150,11 +3178,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3187,11 +3211,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3224,11 +3244,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3257,16 +3273,14 @@
         <v>1471030.8043</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
       <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
@@ -3292,7 +3306,7 @@
         <v>1469795.9967</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3325,7 +3339,7 @@
         <v>1469795.9967</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3391,7 +3405,7 @@
         <v>1505525.5474</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3424,7 +3438,7 @@
         <v>1353364.6607</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3457,7 +3471,7 @@
         <v>1353364.6607</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3490,7 +3504,7 @@
         <v>1353364.6607</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3523,7 +3537,7 @@
         <v>1353364.6607</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3556,7 +3570,7 @@
         <v>1353364.6607</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3589,7 +3603,7 @@
         <v>1247668.2285</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3622,7 +3636,7 @@
         <v>1327915.7963</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3655,7 +3669,7 @@
         <v>1314605.7963</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3688,7 +3702,7 @@
         <v>1286815.1846</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3721,7 +3735,7 @@
         <v>1286815.1846</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3754,7 +3768,7 @@
         <v>1288615.3361</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3787,7 +3801,7 @@
         <v>1288152.5876</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3820,7 +3834,7 @@
         <v>1247084.4948</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3853,7 +3867,7 @@
         <v>1247084.4948</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3886,7 +3900,7 @@
         <v>1247084.4948</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3919,7 +3933,7 @@
         <v>1058090.2966</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3952,7 +3966,7 @@
         <v>2266796.2966</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3985,7 +3999,7 @@
         <v>2225520.1766</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4018,7 +4032,7 @@
         <v>2225620.1766</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4051,7 +4065,7 @@
         <v>2224809.1488</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4117,7 +4131,7 @@
         <v>2224909.1488</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4150,7 +4164,7 @@
         <v>2222117.0852</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4183,7 +4197,7 @@
         <v>2222117.0852</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4216,7 +4230,7 @@
         <v>2222127.0852</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4249,7 +4263,7 @@
         <v>2222127.0852</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4348,7 +4362,7 @@
         <v>1977876.4452</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4381,7 +4395,7 @@
         <v>1977876.4452</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4414,7 +4428,7 @@
         <v>1933068.4452</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4447,7 +4461,7 @@
         <v>1933068.4452</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4480,7 +4494,7 @@
         <v>1962786.2887</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4546,7 +4560,7 @@
         <v>1811868.9077</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -6526,7 +6540,7 @@
         <v>2096216.301952713</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6592,7 +6606,7 @@
         <v>2159794.460852713</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6625,7 +6639,7 @@
         <v>2159794.460852713</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6658,7 +6672,7 @@
         <v>2159794.460852713</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6801,6 +6815,6 @@
       <c r="M187" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-25 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-25 BackTest ORBS.xlsx
@@ -550,14 +550,10 @@
         <v>855121.9522000002</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>12.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
@@ -587,19 +583,11 @@
         <v>955121.9522000002</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -628,19 +616,11 @@
         <v>955111.9522000002</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -702,14 +682,10 @@
         <v>1021196.2015</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>12.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -742,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -781,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -982,14 +946,10 @@
         <v>965453.0204000002</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>12.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
@@ -1022,814 +982,718 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>57375.0132</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1022828.0336</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
         <v>12.3</v>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="C20" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E20" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>26409.9656</v>
+      </c>
+      <c r="G20" t="n">
+        <v>996418.0680000002</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D21" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E21" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>10</v>
+      </c>
+      <c r="G21" t="n">
+        <v>996428.0680000002</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E22" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>29797.3761</v>
+      </c>
+      <c r="G22" t="n">
+        <v>966630.6919000002</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C23" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>196980.1343</v>
+      </c>
+      <c r="G23" t="n">
+        <v>769650.5576000002</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C24" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>120679.3732</v>
+      </c>
+      <c r="G24" t="n">
+        <v>769650.5576000002</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C25" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>120679.3733</v>
+      </c>
+      <c r="G25" t="n">
+        <v>769650.5576000002</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C26" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D26" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E26" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G26" t="n">
+        <v>769650.5576000002</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C27" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D27" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E27" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F27" t="n">
+        <v>44892.5806</v>
+      </c>
+      <c r="G27" t="n">
+        <v>814543.1382000002</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C28" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D28" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E28" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F28" t="n">
+        <v>149500</v>
+      </c>
+      <c r="G28" t="n">
+        <v>665043.1382000002</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C29" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E29" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>158510</v>
+      </c>
+      <c r="G29" t="n">
+        <v>665043.1382000002</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C30" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E30" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4020</v>
+      </c>
+      <c r="G30" t="n">
+        <v>661023.1382000002</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C31" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F31" t="n">
+        <v>184397.2014</v>
+      </c>
+      <c r="G31" t="n">
+        <v>661023.1382000002</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C32" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E32" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F32" t="n">
+        <v>59</v>
+      </c>
+      <c r="G32" t="n">
+        <v>661023.1382000002</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C33" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F33" t="n">
+        <v>53386.6397</v>
+      </c>
+      <c r="G33" t="n">
+        <v>714409.7779000001</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
         <v>12.2</v>
       </c>
-      <c r="C19" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D19" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="J33" t="n">
         <v>12.2</v>
       </c>
-      <c r="F19" t="n">
-        <v>57375.0132</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1022828.0336</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
         <v>12.3</v>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="C34" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F34" t="n">
+        <v>16870</v>
+      </c>
+      <c r="G34" t="n">
+        <v>714409.7779000001</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J34" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C35" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>63000</v>
+      </c>
+      <c r="G35" t="n">
+        <v>714409.7779000001</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J35" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C36" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D36" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E36" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F36" t="n">
+        <v>12670</v>
+      </c>
+      <c r="G36" t="n">
+        <v>727079.7779000001</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C37" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D37" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E37" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2914.9193</v>
+      </c>
+      <c r="G37" t="n">
+        <v>727079.7779000001</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J37" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E38" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F38" t="n">
+        <v>105972.4801</v>
+      </c>
+      <c r="G38" t="n">
+        <v>833052.2580000001</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C20" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D20" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E20" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F20" t="n">
-        <v>26409.9656</v>
-      </c>
-      <c r="G20" t="n">
-        <v>996418.0680000002</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C21" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D21" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E21" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
-      </c>
-      <c r="G21" t="n">
-        <v>996428.0680000002</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C22" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D22" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E22" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F22" t="n">
-        <v>29797.3761</v>
-      </c>
-      <c r="G22" t="n">
-        <v>966630.6919000002</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C23" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D23" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E23" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F23" t="n">
-        <v>196980.1343</v>
-      </c>
-      <c r="G23" t="n">
-        <v>769650.5576000002</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C24" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D24" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E24" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F24" t="n">
-        <v>120679.3732</v>
-      </c>
-      <c r="G24" t="n">
-        <v>769650.5576000002</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C25" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D25" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E25" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F25" t="n">
-        <v>120679.3733</v>
-      </c>
-      <c r="G25" t="n">
-        <v>769650.5576000002</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C26" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D26" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E26" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F26" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G26" t="n">
-        <v>769650.5576000002</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J26" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C27" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D27" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E27" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F27" t="n">
-        <v>44892.5806</v>
-      </c>
-      <c r="G27" t="n">
-        <v>814543.1382000002</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J27" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C28" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D28" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E28" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F28" t="n">
-        <v>149500</v>
-      </c>
-      <c r="G28" t="n">
-        <v>665043.1382000002</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C29" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D29" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E29" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F29" t="n">
-        <v>158510</v>
-      </c>
-      <c r="G29" t="n">
-        <v>665043.1382000002</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C30" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D30" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E30" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F30" t="n">
-        <v>4020</v>
-      </c>
-      <c r="G30" t="n">
-        <v>661023.1382000002</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J30" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C31" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D31" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E31" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F31" t="n">
-        <v>184397.2014</v>
-      </c>
-      <c r="G31" t="n">
-        <v>661023.1382000002</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J31" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C32" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D32" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E32" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F32" t="n">
-        <v>59</v>
-      </c>
-      <c r="G32" t="n">
-        <v>661023.1382000002</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J32" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C33" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D33" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E33" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F33" t="n">
-        <v>53386.6397</v>
-      </c>
-      <c r="G33" t="n">
-        <v>714409.7779000001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J33" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C34" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D34" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E34" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F34" t="n">
-        <v>16870</v>
-      </c>
-      <c r="G34" t="n">
-        <v>714409.7779000001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C35" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D35" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E35" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F35" t="n">
-        <v>63000</v>
-      </c>
-      <c r="G35" t="n">
-        <v>714409.7779000001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J35" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C36" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D36" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E36" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F36" t="n">
-        <v>12670</v>
-      </c>
-      <c r="G36" t="n">
-        <v>727079.7779000001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J36" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C37" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D37" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E37" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F37" t="n">
-        <v>2914.9193</v>
-      </c>
-      <c r="G37" t="n">
-        <v>727079.7779000001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C38" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D38" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E38" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F38" t="n">
-        <v>105972.4801</v>
-      </c>
-      <c r="G38" t="n">
-        <v>833052.2580000001</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J38" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1862,7 +1726,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1901,7 +1765,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1940,7 +1804,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1979,7 +1843,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2018,7 +1882,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2057,7 +1921,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2096,7 +1960,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2135,7 +1999,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2174,7 +2038,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2209,320 +2073,374 @@
         <v>1364504.9186</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C49" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D49" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E49" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F49" t="n">
+        <v>105833.26</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1364504.9186</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C50" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E50" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F50" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1364504.9186</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C51" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D51" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1364504.9186</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C52" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D52" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E52" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F52" t="n">
+        <v>155</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1364504.9186</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C53" t="n">
+        <v>13</v>
+      </c>
+      <c r="D53" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E53" t="n">
+        <v>13</v>
+      </c>
+      <c r="F53" t="n">
+        <v>775.6825</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1363729.2361</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C54" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D54" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E54" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F54" t="n">
+        <v>450.0789</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1363279.1572</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>13</v>
+      </c>
+      <c r="D55" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E55" t="n">
+        <v>13</v>
+      </c>
+      <c r="F55" t="n">
+        <v>75123.66869999999</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1438402.8259</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>13</v>
+      </c>
+      <c r="C56" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D56" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E56" t="n">
+        <v>13</v>
+      </c>
+      <c r="F56" t="n">
+        <v>71183.61079999999</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1509586.4367</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C57" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D57" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E57" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F57" t="n">
+        <v>14688</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1494898.4367</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>1.068170731707317</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.016260162601626</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C49" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D49" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E49" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F49" t="n">
-        <v>105833.26</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1364504.9186</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C50" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D50" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E50" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F50" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1364504.9186</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C51" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D51" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E51" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F51" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1364504.9186</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C52" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D52" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E52" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F52" t="n">
-        <v>155</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1364504.9186</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C53" t="n">
-        <v>13</v>
-      </c>
-      <c r="D53" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E53" t="n">
-        <v>13</v>
-      </c>
-      <c r="F53" t="n">
-        <v>775.6825</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1363729.2361</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C54" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D54" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E54" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F54" t="n">
-        <v>450.0789</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1363279.1572</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="C55" t="n">
-        <v>13</v>
-      </c>
-      <c r="D55" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="E55" t="n">
-        <v>13</v>
-      </c>
-      <c r="F55" t="n">
-        <v>75123.66869999999</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1438402.8259</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>13</v>
-      </c>
-      <c r="C56" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D56" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E56" t="n">
-        <v>13</v>
-      </c>
-      <c r="F56" t="n">
-        <v>71183.61079999999</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1509586.4367</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D57" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F57" t="n">
-        <v>14688</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1494898.4367</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>1.059516129032258</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.024590163934426</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2547,7 +2465,7 @@
         <v>1494898.4367</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2580,7 +2498,7 @@
         <v>1467153.4367</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2613,7 +2531,7 @@
         <v>1467153.4367</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2646,7 +2564,7 @@
         <v>1397401.3652</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2679,7 +2597,7 @@
         <v>1401891.3652</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2712,7 +2630,7 @@
         <v>1401891.3652</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2745,7 +2663,7 @@
         <v>1392395.9903</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2811,7 +2729,7 @@
         <v>1388205.9903</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -3207,7 +3125,7 @@
         <v>1471030.8043</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3240,7 +3158,7 @@
         <v>1471030.8043</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3273,7 +3191,7 @@
         <v>1471030.8043</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3306,7 +3224,7 @@
         <v>1469795.9967</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3438,7 +3356,7 @@
         <v>1353364.6607</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3471,7 +3389,7 @@
         <v>1353364.6607</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -6672,7 +6590,7 @@
         <v>2159794.460852713</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6705,7 +6623,7 @@
         <v>2159794.460852713</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6738,7 +6656,7 @@
         <v>2309237.092352713</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6771,7 +6689,7 @@
         <v>2309152.019052714</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6804,7 +6722,7 @@
         <v>2351885.019052714</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>

--- a/BackTest/2019-10-25 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-25 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M187"/>
+  <dimension ref="A1:L187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>101490.2504</v>
       </c>
       <c r="G2" t="n">
-        <v>855131.9522000002</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1842.9105</v>
       </c>
       <c r="G3" t="n">
-        <v>855131.9522000002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>855121.9522000002</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>28477.0231</v>
       </c>
       <c r="G5" t="n">
-        <v>855121.9522000002</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>100000</v>
       </c>
       <c r="G6" t="n">
-        <v>955121.9522000002</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>955111.9522000002</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>66084.2493</v>
       </c>
       <c r="G8" t="n">
-        <v>1021196.2015</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>86000</v>
       </c>
       <c r="G9" t="n">
-        <v>1021196.2015</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>132432.7826</v>
       </c>
       <c r="G10" t="n">
-        <v>1021196.2015</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>12369.2058</v>
       </c>
       <c r="G11" t="n">
-        <v>1021196.2015</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>44076.3163</v>
       </c>
       <c r="G12" t="n">
-        <v>1021196.2015</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>10009.449</v>
       </c>
       <c r="G13" t="n">
-        <v>1021196.2015</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>234183.9516</v>
       </c>
       <c r="G14" t="n">
-        <v>1021196.2015</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>55743.1811</v>
       </c>
       <c r="G15" t="n">
-        <v>965453.0204000002</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>99324.587</v>
       </c>
       <c r="G16" t="n">
-        <v>965453.0204000002</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>75066.25780000001</v>
       </c>
       <c r="G17" t="n">
-        <v>965453.0204000002</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>110173.3117</v>
       </c>
       <c r="G18" t="n">
-        <v>965453.0204000002</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>57375.0132</v>
       </c>
       <c r="G19" t="n">
-        <v>1022828.0336</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>26409.9656</v>
       </c>
       <c r="G20" t="n">
-        <v>996418.0680000002</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>996428.0680000002</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>29797.3761</v>
       </c>
       <c r="G22" t="n">
-        <v>966630.6919000002</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>196980.1343</v>
       </c>
       <c r="G23" t="n">
-        <v>769650.5576000002</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>120679.3732</v>
       </c>
       <c r="G24" t="n">
-        <v>769650.5576000002</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>120679.3733</v>
       </c>
       <c r="G25" t="n">
-        <v>769650.5576000002</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>100000</v>
       </c>
       <c r="G26" t="n">
-        <v>769650.5576000002</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>44892.5806</v>
       </c>
       <c r="G27" t="n">
-        <v>814543.1382000002</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>149500</v>
       </c>
       <c r="G28" t="n">
-        <v>665043.1382000002</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>158510</v>
       </c>
       <c r="G29" t="n">
-        <v>665043.1382000002</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>4020</v>
       </c>
       <c r="G30" t="n">
-        <v>661023.1382000002</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,22 +1313,15 @@
         <v>184397.2014</v>
       </c>
       <c r="G31" t="n">
-        <v>661023.1382000002</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J31" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1442,104 +1343,95 @@
         <v>59</v>
       </c>
       <c r="G32" t="n">
-        <v>661023.1382000002</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>12.2</v>
       </c>
       <c r="I32" t="n">
         <v>12.2</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C33" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F33" t="n">
+        <v>53386.6397</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
         <v>12.2</v>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="I33" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C33" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D33" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E33" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F33" t="n">
-        <v>53386.6397</v>
-      </c>
-      <c r="G33" t="n">
-        <v>714409.7779000001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F34" t="n">
+        <v>16870</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="I34" t="n">
         <v>12.2</v>
       </c>
-      <c r="J33" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K33" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C34" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D34" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E34" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F34" t="n">
-        <v>16870</v>
-      </c>
-      <c r="G34" t="n">
-        <v>714409.7779000001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1561,104 +1453,95 @@
         <v>63000</v>
       </c>
       <c r="G35" t="n">
-        <v>714409.7779000001</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>12.3</v>
       </c>
       <c r="I35" t="n">
         <v>12.3</v>
       </c>
-      <c r="J35" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K35" t="inlineStr">
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C36" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D36" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E36" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F36" t="n">
+        <v>12670</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="I36" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J36" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C36" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D36" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E36" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F36" t="n">
-        <v>12670</v>
-      </c>
-      <c r="G36" t="n">
-        <v>727079.7779000001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J36" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K36" t="inlineStr">
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C37" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D37" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E37" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2914.9193</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="I37" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J37" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C37" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D37" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E37" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F37" t="n">
-        <v>2914.9193</v>
-      </c>
-      <c r="G37" t="n">
-        <v>727079.7779000001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J37" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1680,24 +1563,15 @@
         <v>105972.4801</v>
       </c>
       <c r="G38" t="n">
-        <v>833052.2580000001</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1719,24 +1593,15 @@
         <v>224845.6266</v>
       </c>
       <c r="G39" t="n">
-        <v>1057897.8846</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1758,24 +1623,15 @@
         <v>41562.7605</v>
       </c>
       <c r="G40" t="n">
-        <v>1057897.8846</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1797,24 +1653,15 @@
         <v>81963.9553</v>
       </c>
       <c r="G41" t="n">
-        <v>1139861.8399</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1836,24 +1683,15 @@
         <v>189656.3051</v>
       </c>
       <c r="G42" t="n">
-        <v>1139861.8399</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1875,24 +1713,15 @@
         <v>6741.2201</v>
       </c>
       <c r="G43" t="n">
-        <v>1146603.06</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1914,24 +1743,15 @@
         <v>199010.7049</v>
       </c>
       <c r="G44" t="n">
-        <v>1146603.06</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1953,24 +1773,15 @@
         <v>61958.7063</v>
       </c>
       <c r="G45" t="n">
-        <v>1208561.7663</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1992,24 +1803,15 @@
         <v>25449.6923</v>
       </c>
       <c r="G46" t="n">
-        <v>1208561.7663</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2031,24 +1833,15 @@
         <v>13591.6014</v>
       </c>
       <c r="G47" t="n">
-        <v>1208561.7663</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2070,24 +1863,15 @@
         <v>155943.1523</v>
       </c>
       <c r="G48" t="n">
-        <v>1364504.9186</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2109,24 +1893,15 @@
         <v>105833.26</v>
       </c>
       <c r="G49" t="n">
-        <v>1364504.9186</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2148,24 +1923,15 @@
         <v>30000</v>
       </c>
       <c r="G50" t="n">
-        <v>1364504.9186</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2187,24 +1953,15 @@
         <v>4000</v>
       </c>
       <c r="G51" t="n">
-        <v>1364504.9186</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2226,24 +1983,15 @@
         <v>155</v>
       </c>
       <c r="G52" t="n">
-        <v>1364504.9186</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2265,24 +2013,15 @@
         <v>775.6825</v>
       </c>
       <c r="G53" t="n">
-        <v>1363729.2361</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2304,24 +2043,15 @@
         <v>450.0789</v>
       </c>
       <c r="G54" t="n">
-        <v>1363279.1572</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2343,24 +2073,15 @@
         <v>75123.66869999999</v>
       </c>
       <c r="G55" t="n">
-        <v>1438402.8259</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2382,24 +2103,15 @@
         <v>71183.61079999999</v>
       </c>
       <c r="G56" t="n">
-        <v>1509586.4367</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2421,26 +2133,15 @@
         <v>14688</v>
       </c>
       <c r="G57" t="n">
-        <v>1494898.4367</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1.059516129032258</v>
-      </c>
-      <c r="M57" t="n">
-        <v>1.024590163934426</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2462,18 +2163,15 @@
         <v>8082</v>
       </c>
       <c r="G58" t="n">
-        <v>1494898.4367</v>
-      </c>
-      <c r="H58" t="n">
         <v>2</v>
       </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2495,18 +2193,15 @@
         <v>27745</v>
       </c>
       <c r="G59" t="n">
-        <v>1467153.4367</v>
-      </c>
-      <c r="H59" t="n">
         <v>2</v>
       </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2528,18 +2223,15 @@
         <v>67466.4253</v>
       </c>
       <c r="G60" t="n">
-        <v>1467153.4367</v>
-      </c>
-      <c r="H60" t="n">
         <v>2</v>
       </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2561,18 +2253,15 @@
         <v>69752.07150000001</v>
       </c>
       <c r="G61" t="n">
-        <v>1397401.3652</v>
-      </c>
-      <c r="H61" t="n">
         <v>2</v>
       </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2594,18 +2283,15 @@
         <v>4490</v>
       </c>
       <c r="G62" t="n">
-        <v>1401891.3652</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2627,18 +2313,15 @@
         <v>43821.0969</v>
       </c>
       <c r="G63" t="n">
-        <v>1401891.3652</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2660,18 +2343,15 @@
         <v>9495.374900000001</v>
       </c>
       <c r="G64" t="n">
-        <v>1392395.9903</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2693,18 +2373,15 @@
         <v>12912.4804</v>
       </c>
       <c r="G65" t="n">
-        <v>1392395.9903</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2726,18 +2403,15 @@
         <v>4190</v>
       </c>
       <c r="G66" t="n">
-        <v>1388205.9903</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2759,18 +2433,15 @@
         <v>11</v>
       </c>
       <c r="G67" t="n">
-        <v>1388216.9903</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2792,18 +2463,15 @@
         <v>45000</v>
       </c>
       <c r="G68" t="n">
-        <v>1388216.9903</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2825,18 +2493,15 @@
         <v>3501.534</v>
       </c>
       <c r="G69" t="n">
-        <v>1384715.4563</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2858,18 +2523,15 @@
         <v>36652.7815</v>
       </c>
       <c r="G70" t="n">
-        <v>1421368.2378</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2891,18 +2553,15 @@
         <v>2363.5355</v>
       </c>
       <c r="G71" t="n">
-        <v>1419004.7023</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2924,18 +2583,15 @@
         <v>55168.2273</v>
       </c>
       <c r="G72" t="n">
-        <v>1474172.9296</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2957,18 +2613,15 @@
         <v>74942.8033</v>
       </c>
       <c r="G73" t="n">
-        <v>1474172.9296</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2990,18 +2643,15 @@
         <v>1000</v>
       </c>
       <c r="G74" t="n">
-        <v>1473172.9296</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3023,18 +2673,15 @@
         <v>62690.4228</v>
       </c>
       <c r="G75" t="n">
-        <v>1535863.3524</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3056,18 +2703,15 @@
         <v>67952.5481</v>
       </c>
       <c r="G76" t="n">
-        <v>1467910.8043</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3089,18 +2733,15 @@
         <v>32047.4519</v>
       </c>
       <c r="G77" t="n">
-        <v>1467910.8043</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3122,18 +2763,15 @@
         <v>3120</v>
       </c>
       <c r="G78" t="n">
-        <v>1471030.8043</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3155,18 +2793,15 @@
         <v>3130</v>
       </c>
       <c r="G79" t="n">
-        <v>1471030.8043</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3188,18 +2823,15 @@
         <v>88650.78079999999</v>
       </c>
       <c r="G80" t="n">
-        <v>1471030.8043</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3221,18 +2853,15 @@
         <v>1234.8076</v>
       </c>
       <c r="G81" t="n">
-        <v>1469795.9967</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3254,18 +2883,15 @@
         <v>1373.9548</v>
       </c>
       <c r="G82" t="n">
-        <v>1469795.9967</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3287,18 +2913,15 @@
         <v>35661.1538</v>
       </c>
       <c r="G83" t="n">
-        <v>1505457.1505</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3320,18 +2943,15 @@
         <v>68.3969</v>
       </c>
       <c r="G84" t="n">
-        <v>1505525.5474</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3353,18 +2973,15 @@
         <v>152160.8867</v>
       </c>
       <c r="G85" t="n">
-        <v>1353364.6607</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3386,18 +3003,15 @@
         <v>6730.3427</v>
       </c>
       <c r="G86" t="n">
-        <v>1353364.6607</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3419,18 +3033,15 @@
         <v>42016.0896</v>
       </c>
       <c r="G87" t="n">
-        <v>1353364.6607</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3452,18 +3063,15 @@
         <v>133757.5769</v>
       </c>
       <c r="G88" t="n">
-        <v>1353364.6607</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3485,18 +3093,15 @@
         <v>23510</v>
       </c>
       <c r="G89" t="n">
-        <v>1353364.6607</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3518,18 +3123,15 @@
         <v>105696.4322</v>
       </c>
       <c r="G90" t="n">
-        <v>1247668.2285</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3551,18 +3153,15 @@
         <v>80247.5678</v>
       </c>
       <c r="G91" t="n">
-        <v>1327915.7963</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3584,18 +3183,15 @@
         <v>13310</v>
       </c>
       <c r="G92" t="n">
-        <v>1314605.7963</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3617,18 +3213,15 @@
         <v>27790.6117</v>
       </c>
       <c r="G93" t="n">
-        <v>1286815.1846</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3650,18 +3243,15 @@
         <v>32807.88</v>
       </c>
       <c r="G94" t="n">
-        <v>1286815.1846</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3683,18 +3273,15 @@
         <v>1800.1515</v>
       </c>
       <c r="G95" t="n">
-        <v>1288615.3361</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3716,18 +3303,15 @@
         <v>462.7485</v>
       </c>
       <c r="G96" t="n">
-        <v>1288152.5876</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3749,18 +3333,15 @@
         <v>41068.0928</v>
       </c>
       <c r="G97" t="n">
-        <v>1247084.4948</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3782,18 +3363,15 @@
         <v>3273.0232</v>
       </c>
       <c r="G98" t="n">
-        <v>1247084.4948</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3815,18 +3393,15 @@
         <v>78131.41009999999</v>
       </c>
       <c r="G99" t="n">
-        <v>1247084.4948</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3848,18 +3423,15 @@
         <v>188994.1982</v>
       </c>
       <c r="G100" t="n">
-        <v>1058090.2966</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3881,18 +3453,15 @@
         <v>1208706</v>
       </c>
       <c r="G101" t="n">
-        <v>2266796.2966</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3914,18 +3483,15 @@
         <v>41276.12</v>
       </c>
       <c r="G102" t="n">
-        <v>2225520.1766</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3947,18 +3513,15 @@
         <v>100</v>
       </c>
       <c r="G103" t="n">
-        <v>2225620.1766</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3980,18 +3543,15 @@
         <v>811.0278</v>
       </c>
       <c r="G104" t="n">
-        <v>2224809.1488</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4013,18 +3573,15 @@
         <v>44909.6763</v>
       </c>
       <c r="G105" t="n">
-        <v>2224809.1488</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4046,18 +3603,15 @@
         <v>100</v>
       </c>
       <c r="G106" t="n">
-        <v>2224909.1488</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4079,18 +3633,15 @@
         <v>2792.0636</v>
       </c>
       <c r="G107" t="n">
-        <v>2222117.0852</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4112,18 +3663,15 @@
         <v>65000.41</v>
       </c>
       <c r="G108" t="n">
-        <v>2222117.0852</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4145,18 +3693,15 @@
         <v>10</v>
       </c>
       <c r="G109" t="n">
-        <v>2222127.0852</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4178,18 +3723,15 @@
         <v>274.031</v>
       </c>
       <c r="G110" t="n">
-        <v>2222127.0852</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4211,18 +3753,15 @@
         <v>223570.5952</v>
       </c>
       <c r="G111" t="n">
-        <v>1998556.49</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4244,18 +3783,15 @@
         <v>20680.0448</v>
       </c>
       <c r="G112" t="n">
-        <v>1977876.4452</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4277,18 +3813,15 @@
         <v>80343.5772</v>
       </c>
       <c r="G113" t="n">
-        <v>1977876.4452</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4310,18 +3843,15 @@
         <v>160000</v>
       </c>
       <c r="G114" t="n">
-        <v>1977876.4452</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4343,18 +3873,15 @@
         <v>44808</v>
       </c>
       <c r="G115" t="n">
-        <v>1933068.4452</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4376,18 +3903,15 @@
         <v>148076.6546</v>
       </c>
       <c r="G116" t="n">
-        <v>1933068.4452</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4409,18 +3933,15 @@
         <v>29717.8435</v>
       </c>
       <c r="G117" t="n">
-        <v>1962786.2887</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4442,18 +3963,15 @@
         <v>10980</v>
       </c>
       <c r="G118" t="n">
-        <v>1962786.2887</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4475,18 +3993,15 @@
         <v>150917.381</v>
       </c>
       <c r="G119" t="n">
-        <v>1811868.9077</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4508,18 +4023,15 @@
         <v>10</v>
       </c>
       <c r="G120" t="n">
-        <v>1811878.9077</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4541,18 +4053,15 @@
         <v>1863.5706</v>
       </c>
       <c r="G121" t="n">
-        <v>1810015.3371</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4574,18 +4083,15 @@
         <v>21000</v>
       </c>
       <c r="G122" t="n">
-        <v>1831015.3371</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4607,18 +4113,15 @@
         <v>200000</v>
       </c>
       <c r="G123" t="n">
-        <v>2031015.3371</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4640,18 +4143,15 @@
         <v>12153</v>
       </c>
       <c r="G124" t="n">
-        <v>2031015.3371</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4673,18 +4173,15 @@
         <v>138944.2598</v>
       </c>
       <c r="G125" t="n">
-        <v>1892071.0773</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4706,18 +4203,15 @@
         <v>2631.2653</v>
       </c>
       <c r="G126" t="n">
-        <v>1894702.3426</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4739,18 +4233,15 @@
         <v>234.375</v>
       </c>
       <c r="G127" t="n">
-        <v>1894702.3426</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4772,18 +4263,15 @@
         <v>134871.1525</v>
       </c>
       <c r="G128" t="n">
-        <v>1759831.1901</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4805,18 +4293,15 @@
         <v>157214.7358</v>
       </c>
       <c r="G129" t="n">
-        <v>1759831.1901</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4838,18 +4323,15 @@
         <v>10294.9218</v>
       </c>
       <c r="G130" t="n">
-        <v>1770126.1119</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4871,18 +4353,15 @@
         <v>38000</v>
       </c>
       <c r="G131" t="n">
-        <v>1770126.1119</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4904,18 +4383,15 @@
         <v>659.338</v>
       </c>
       <c r="G132" t="n">
-        <v>1770126.1119</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4937,18 +4413,15 @@
         <v>22000</v>
       </c>
       <c r="G133" t="n">
-        <v>1792126.1119</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4970,18 +4443,15 @@
         <v>330</v>
       </c>
       <c r="G134" t="n">
-        <v>1792126.1119</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5003,18 +4473,15 @@
         <v>41480.2325</v>
       </c>
       <c r="G135" t="n">
-        <v>1792126.1119</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5036,18 +4503,15 @@
         <v>1030</v>
       </c>
       <c r="G136" t="n">
-        <v>1791096.1119</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5069,18 +4533,15 @@
         <v>266611.9697</v>
       </c>
       <c r="G137" t="n">
-        <v>1524484.1422</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5102,18 +4563,15 @@
         <v>77406.746</v>
       </c>
       <c r="G138" t="n">
-        <v>1524484.1422</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5135,18 +4593,15 @@
         <v>17413.3858</v>
       </c>
       <c r="G139" t="n">
-        <v>1541897.528</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5168,18 +4623,15 @@
         <v>157512.9023</v>
       </c>
       <c r="G140" t="n">
-        <v>1384384.6257</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5201,18 +4653,15 @@
         <v>6100.5121</v>
       </c>
       <c r="G141" t="n">
-        <v>1384384.6257</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5234,18 +4683,15 @@
         <v>247.4766</v>
       </c>
       <c r="G142" t="n">
-        <v>1384384.6257</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5267,18 +4713,15 @@
         <v>60648.1731</v>
       </c>
       <c r="G143" t="n">
-        <v>1384384.6257</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5300,18 +4743,15 @@
         <v>343</v>
       </c>
       <c r="G144" t="n">
-        <v>1384041.6257</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5333,18 +4773,15 @@
         <v>333</v>
       </c>
       <c r="G145" t="n">
-        <v>1384374.6257</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5366,18 +4803,15 @@
         <v>103</v>
       </c>
       <c r="G146" t="n">
-        <v>1384374.6257</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5399,18 +4833,15 @@
         <v>29361.0188</v>
       </c>
       <c r="G147" t="n">
-        <v>1384374.6257</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5432,18 +4863,15 @@
         <v>10</v>
       </c>
       <c r="G148" t="n">
-        <v>1384364.6257</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5465,18 +4893,15 @@
         <v>17.5781</v>
       </c>
       <c r="G149" t="n">
-        <v>1384382.2038</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5498,18 +4923,15 @@
         <v>10</v>
       </c>
       <c r="G150" t="n">
-        <v>1384372.2038</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5531,18 +4953,15 @@
         <v>15718.0468</v>
       </c>
       <c r="G151" t="n">
-        <v>1400090.2506</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5564,18 +4983,15 @@
         <v>10</v>
       </c>
       <c r="G152" t="n">
-        <v>1400080.2506</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5597,18 +5013,15 @@
         <v>42500</v>
       </c>
       <c r="G153" t="n">
-        <v>1400080.2506</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5630,18 +5043,15 @@
         <v>11</v>
       </c>
       <c r="G154" t="n">
-        <v>1400091.2506</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5663,18 +5073,15 @@
         <v>349065.4574</v>
       </c>
       <c r="G155" t="n">
-        <v>1749156.708</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5696,18 +5103,15 @@
         <v>843275.8297</v>
       </c>
       <c r="G156" t="n">
-        <v>1749156.708</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5729,18 +5133,15 @@
         <v>50240.8115</v>
       </c>
       <c r="G157" t="n">
-        <v>1749156.708</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5762,18 +5163,15 @@
         <v>19017.6456</v>
       </c>
       <c r="G158" t="n">
-        <v>1730139.0624</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5795,18 +5193,15 @@
         <v>52789.1217</v>
       </c>
       <c r="G159" t="n">
-        <v>1730139.0624</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5828,18 +5223,15 @@
         <v>54000</v>
       </c>
       <c r="G160" t="n">
-        <v>1784139.0624</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5861,18 +5253,15 @@
         <v>10</v>
       </c>
       <c r="G161" t="n">
-        <v>1784129.0624</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5894,18 +5283,15 @@
         <v>119468.3682</v>
       </c>
       <c r="G162" t="n">
-        <v>1784129.0624</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5927,18 +5313,15 @@
         <v>9447.2006</v>
       </c>
       <c r="G163" t="n">
-        <v>1784129.0624</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5960,18 +5343,15 @@
         <v>11</v>
       </c>
       <c r="G164" t="n">
-        <v>1784140.0624</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5993,18 +5373,15 @@
         <v>155688.1737</v>
       </c>
       <c r="G165" t="n">
-        <v>1628451.8887</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6026,18 +5403,15 @@
         <v>10</v>
       </c>
       <c r="G166" t="n">
-        <v>1628441.8887</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6059,18 +5433,15 @@
         <v>155782.1930527132</v>
       </c>
       <c r="G167" t="n">
-        <v>1784224.081752713</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6092,18 +5463,15 @@
         <v>1162.2265</v>
       </c>
       <c r="G168" t="n">
-        <v>1783061.855252713</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6125,18 +5493,15 @@
         <v>262.1796</v>
       </c>
       <c r="G169" t="n">
-        <v>1783061.855252713</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6158,18 +5523,15 @@
         <v>5345.5078</v>
       </c>
       <c r="G170" t="n">
-        <v>1783061.855252713</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6191,18 +5553,15 @@
         <v>148918.4711</v>
       </c>
       <c r="G171" t="n">
-        <v>1783061.855252713</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6224,18 +5583,15 @@
         <v>29667.3643</v>
       </c>
       <c r="G172" t="n">
-        <v>1812729.219552713</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6257,18 +5613,15 @@
         <v>78588.31164728683</v>
       </c>
       <c r="G173" t="n">
-        <v>1812729.219552713</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6290,18 +5643,15 @@
         <v>92304.6924</v>
       </c>
       <c r="G174" t="n">
-        <v>1905033.911952713</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6323,18 +5673,15 @@
         <v>101544.1719</v>
       </c>
       <c r="G175" t="n">
-        <v>2006578.083852713</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6356,18 +5703,15 @@
         <v>48488.409</v>
       </c>
       <c r="G176" t="n">
-        <v>2055066.492852713</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6389,18 +5733,15 @@
         <v>10</v>
       </c>
       <c r="G177" t="n">
-        <v>2055056.492852713</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6422,18 +5763,15 @@
         <v>41159.8091</v>
       </c>
       <c r="G178" t="n">
-        <v>2096216.301952713</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6455,18 +5793,15 @@
         <v>98787.57180000001</v>
       </c>
       <c r="G179" t="n">
-        <v>2096216.301952713</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6488,18 +5823,15 @@
         <v>457083.9844</v>
       </c>
       <c r="G180" t="n">
-        <v>2096216.301952713</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6521,18 +5853,15 @@
         <v>63578.1589</v>
       </c>
       <c r="G181" t="n">
-        <v>2159794.460852713</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6554,18 +5883,15 @@
         <v>75164.66160000001</v>
       </c>
       <c r="G182" t="n">
-        <v>2159794.460852713</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6587,18 +5913,15 @@
         <v>110000</v>
       </c>
       <c r="G183" t="n">
-        <v>2159794.460852713</v>
-      </c>
-      <c r="H183" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6620,18 +5943,15 @@
         <v>129901.7045</v>
       </c>
       <c r="G184" t="n">
-        <v>2159794.460852713</v>
-      </c>
-      <c r="H184" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6653,18 +5973,15 @@
         <v>149442.6315</v>
       </c>
       <c r="G185" t="n">
-        <v>2309237.092352713</v>
-      </c>
-      <c r="H185" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6686,18 +6003,15 @@
         <v>85.0733</v>
       </c>
       <c r="G186" t="n">
-        <v>2309152.019052714</v>
-      </c>
-      <c r="H186" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6719,18 +6033,15 @@
         <v>42733</v>
       </c>
       <c r="G187" t="n">
-        <v>2351885.019052714</v>
-      </c>
-      <c r="H187" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
